--- a/data/hotels_by_city/Denver/Denver_shard_21.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33412-d672646-Reviews-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Candlewood-Suites-Meridian-Business-Park-DTC.h1700756.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1507 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r589088809-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33412</t>
+  </si>
+  <si>
+    <t>672646</t>
+  </si>
+  <si>
+    <t>589088809</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Spacious Suites But No Public Areas to Work</t>
+  </si>
+  <si>
+    <t>We stayed for three nights, and over all our experience was positive.  The suite was very spacious, had a separate bedroom, and had a nice kitchen. My mother-in-law said it was her favorite hotel for these reasons.  However, the lobby area was very small and there were no good places to work in the public areas.  In order to get any work done, I had to go to the Lobby of the Hilton Garden Inn next-door, since I am I am a gold member of Hilton.  We had breakfast there at the Hilton one morning as well. Candlewood Suites does not have any cooperated arrangements with them to provide discount breakfasts for their guests which seems to me they could easily do.  This was the arrangement that I saw at different candlewood suites a few years ago and it worked very well, giving travelers the option of something besides a microwaved breakfast in the room.  I asked for 2 PM check out the day that we left and we were only given until 1230.  As a Platinum member of IHG this surprised me and made for a rather stressful morning for our family.  Other than that the staff tried to be very helpful and we appreciated are stay there.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Victor D, Director of Operations at Candlewood Suites Meridian Business Center, responded to this reviewResponded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2018</t>
+  </si>
+  <si>
+    <t>We stayed for three nights, and over all our experience was positive.  The suite was very spacious, had a separate bedroom, and had a nice kitchen. My mother-in-law said it was her favorite hotel for these reasons.  However, the lobby area was very small and there were no good places to work in the public areas.  In order to get any work done, I had to go to the Lobby of the Hilton Garden Inn next-door, since I am I am a gold member of Hilton.  We had breakfast there at the Hilton one morning as well. Candlewood Suites does not have any cooperated arrangements with them to provide discount breakfasts for their guests which seems to me they could easily do.  This was the arrangement that I saw at different candlewood suites a few years ago and it worked very well, giving travelers the option of something besides a microwaved breakfast in the room.  I asked for 2 PM check out the day that we left and we were only given until 1230.  As a Platinum member of IHG this surprised me and made for a rather stressful morning for our family.  Other than that the staff tried to be very helpful and we appreciated are stay there.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r587255697-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>587255697</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Could be much better</t>
+  </si>
+  <si>
+    <t>Had quite the experience during my stay. I arrived at the hotel around 11 PM and was greeted by the night manager. He asked me for my CC and Drivers license which I put on the counter for him. He proceeded to immediately give them back to me and say "I will take these when you give them to me". I was a bit surprised thinking he was joking however didn't crack a single smile. Heading to my room, the hotel had a bit of a funky smell to it but didn't bother me too much. Got into my room to find a few odd things. The door frame was recently painted and they must not have cared to tape off the area because the carpet had paint all over it. I got into my room and picked up a pillow to find someone else's hair on it (Not just one strand, multiple and easily visible) which makes me question their housekeeping standards. Given this was late in the night and the manager was already hostile that night, I did not bother immediately reporting and ended up sleeping on the couch in the room. I reported the issue in the morning and the staff during the day offered to change out the sheets as well as discount my room so they made a good effort to rectify the issue. Lastly, the cable service in my room was not working properly...Had quite the experience during my stay. I arrived at the hotel around 11 PM and was greeted by the night manager. He asked me for my CC and Drivers license which I put on the counter for him. He proceeded to immediately give them back to me and say "I will take these when you give them to me". I was a bit surprised thinking he was joking however didn't crack a single smile. Heading to my room, the hotel had a bit of a funky smell to it but didn't bother me too much. Got into my room to find a few odd things. The door frame was recently painted and they must not have cared to tape off the area because the carpet had paint all over it. I got into my room and picked up a pillow to find someone else's hair on it (Not just one strand, multiple and easily visible) which makes me question their housekeeping standards. Given this was late in the night and the manager was already hostile that night, I did not bother immediately reporting and ended up sleeping on the couch in the room. I reported the issue in the morning and the staff during the day offered to change out the sheets as well as discount my room so they made a good effort to rectify the issue. Lastly, the cable service in my room was not working properly and required me to plug and unplug the cable box to get it working. This wasn't the worst stay ever, but there's an awful lot this hotel can improve upon.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Had quite the experience during my stay. I arrived at the hotel around 11 PM and was greeted by the night manager. He asked me for my CC and Drivers license which I put on the counter for him. He proceeded to immediately give them back to me and say "I will take these when you give them to me". I was a bit surprised thinking he was joking however didn't crack a single smile. Heading to my room, the hotel had a bit of a funky smell to it but didn't bother me too much. Got into my room to find a few odd things. The door frame was recently painted and they must not have cared to tape off the area because the carpet had paint all over it. I got into my room and picked up a pillow to find someone else's hair on it (Not just one strand, multiple and easily visible) which makes me question their housekeeping standards. Given this was late in the night and the manager was already hostile that night, I did not bother immediately reporting and ended up sleeping on the couch in the room. I reported the issue in the morning and the staff during the day offered to change out the sheets as well as discount my room so they made a good effort to rectify the issue. Lastly, the cable service in my room was not working properly...Had quite the experience during my stay. I arrived at the hotel around 11 PM and was greeted by the night manager. He asked me for my CC and Drivers license which I put on the counter for him. He proceeded to immediately give them back to me and say "I will take these when you give them to me". I was a bit surprised thinking he was joking however didn't crack a single smile. Heading to my room, the hotel had a bit of a funky smell to it but didn't bother me too much. Got into my room to find a few odd things. The door frame was recently painted and they must not have cared to tape off the area because the carpet had paint all over it. I got into my room and picked up a pillow to find someone else's hair on it (Not just one strand, multiple and easily visible) which makes me question their housekeeping standards. Given this was late in the night and the manager was already hostile that night, I did not bother immediately reporting and ended up sleeping on the couch in the room. I reported the issue in the morning and the staff during the day offered to change out the sheets as well as discount my room so they made a good effort to rectify the issue. Lastly, the cable service in my room was not working properly and required me to plug and unplug the cable box to get it working. This wasn't the worst stay ever, but there's an awful lot this hotel can improve upon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r583486308-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>583486308</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Terrible hotel in a great location; didn't keep my reservation; poorly maintained</t>
+  </si>
+  <si>
+    <t>This sketchy hotel is out-of-place.  It is located in a beautiful business district, next to a golf course, walking trails, and a beautiful park with a duck pond.  The cities of Lone Tree and Parker are really nice.  The hotel itself is poorly maintained, which could be overlooked if the hotel manager has his stuff together.   He was involved in my check-in because apparently the 2-room suite I reserved was given to someone else.  There was a possible story about the person in the room I reserved being a friend of the owner, so he didn't have to pay, and he certainly couldn't be asked to change rooms.  My husband didn't want to try to find another hotel on graduation/Memorial weekend, so we settled for the adjoining rooms they offered.  There wasn't much apology,  it was just matter-of-fact:  "we gave your room away."  I felt like I was in the Seinfeld episode at the car rental counter where Jerry reserves the mid-size car, but the rental car company gave them all away and gives him a compact car.  From the front desk, guests can see into the manager's office: food, trash, crumbs were on the desk and the floor, which made me worried about how the rest of the hotel looked.  It was on par.  see pictures. What's missing from the pictures is the mold growing in the shower grout.  And yes, that's a picture of a stain on the...This sketchy hotel is out-of-place.  It is located in a beautiful business district, next to a golf course, walking trails, and a beautiful park with a duck pond.  The cities of Lone Tree and Parker are really nice.  The hotel itself is poorly maintained, which could be overlooked if the hotel manager has his stuff together.   He was involved in my check-in because apparently the 2-room suite I reserved was given to someone else.  There was a possible story about the person in the room I reserved being a friend of the owner, so he didn't have to pay, and he certainly couldn't be asked to change rooms.  My husband didn't want to try to find another hotel on graduation/Memorial weekend, so we settled for the adjoining rooms they offered.  There wasn't much apology,  it was just matter-of-fact:  "we gave your room away."  I felt like I was in the Seinfeld episode at the car rental counter where Jerry reserves the mid-size car, but the rental car company gave them all away and gives him a compact car.  From the front desk, guests can see into the manager's office: food, trash, crumbs were on the desk and the floor, which made me worried about how the rest of the hotel looked.  It was on par.  see pictures. What's missing from the pictures is the mold growing in the shower grout.  And yes, that's a picture of a stain on the sheet of the bed in one of our rooms.  The check-out process was equally lacking in customer service.  A gentleman (playing fast &amp; loose with that word) who smelled like an ashtray handled my check-out.  He asked me "which room?", handed me a receipt, stepped aside to a computer and began typing.  After a minute or so, he looked up and said, "you can go," with the tone you use to tell someone "what are you waiting for? just leave."  If you are considering this hotel, know that the location is lovely, the hotel is terrible.  And since the culture is set from the top (manager and possibly even the owner), the prognosis that things will be better anytime soon is poor.MoreShow less</t>
+  </si>
+  <si>
+    <t>Javier T, General Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>This sketchy hotel is out-of-place.  It is located in a beautiful business district, next to a golf course, walking trails, and a beautiful park with a duck pond.  The cities of Lone Tree and Parker are really nice.  The hotel itself is poorly maintained, which could be overlooked if the hotel manager has his stuff together.   He was involved in my check-in because apparently the 2-room suite I reserved was given to someone else.  There was a possible story about the person in the room I reserved being a friend of the owner, so he didn't have to pay, and he certainly couldn't be asked to change rooms.  My husband didn't want to try to find another hotel on graduation/Memorial weekend, so we settled for the adjoining rooms they offered.  There wasn't much apology,  it was just matter-of-fact:  "we gave your room away."  I felt like I was in the Seinfeld episode at the car rental counter where Jerry reserves the mid-size car, but the rental car company gave them all away and gives him a compact car.  From the front desk, guests can see into the manager's office: food, trash, crumbs were on the desk and the floor, which made me worried about how the rest of the hotel looked.  It was on par.  see pictures. What's missing from the pictures is the mold growing in the shower grout.  And yes, that's a picture of a stain on the...This sketchy hotel is out-of-place.  It is located in a beautiful business district, next to a golf course, walking trails, and a beautiful park with a duck pond.  The cities of Lone Tree and Parker are really nice.  The hotel itself is poorly maintained, which could be overlooked if the hotel manager has his stuff together.   He was involved in my check-in because apparently the 2-room suite I reserved was given to someone else.  There was a possible story about the person in the room I reserved being a friend of the owner, so he didn't have to pay, and he certainly couldn't be asked to change rooms.  My husband didn't want to try to find another hotel on graduation/Memorial weekend, so we settled for the adjoining rooms they offered.  There wasn't much apology,  it was just matter-of-fact:  "we gave your room away."  I felt like I was in the Seinfeld episode at the car rental counter where Jerry reserves the mid-size car, but the rental car company gave them all away and gives him a compact car.  From the front desk, guests can see into the manager's office: food, trash, crumbs were on the desk and the floor, which made me worried about how the rest of the hotel looked.  It was on par.  see pictures. What's missing from the pictures is the mold growing in the shower grout.  And yes, that's a picture of a stain on the sheet of the bed in one of our rooms.  The check-out process was equally lacking in customer service.  A gentleman (playing fast &amp; loose with that word) who smelled like an ashtray handled my check-out.  He asked me "which room?", handed me a receipt, stepped aside to a computer and began typing.  After a minute or so, he looked up and said, "you can go," with the tone you use to tell someone "what are you waiting for? just leave."  If you are considering this hotel, know that the location is lovely, the hotel is terrible.  And since the culture is set from the top (manager and possibly even the owner), the prognosis that things will be better anytime soon is poor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r542740089-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>542740089</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>THIS IS A GREAT PLACE TO STAY</t>
+  </si>
+  <si>
+    <t>when we arrived we were greated  by samatha at the front desk. she was so helpful. fulfilled our every request. this place has anything you need when youre far from home. game consoles, toasters you name it. its 25-30 minutes from denver international. we liked how well we were treated by samantha and all the staff we decided to stay here at the end of our trip. thanks samantha! youre wonderful!</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r523871131-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>523871131</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Reasonably priced hotel in high priced area</t>
+  </si>
+  <si>
+    <t>The hotel is in a nice area, but awkward to get to due to major traffic patterns.  There is only one restaurant in walking distance, but it was awesome!  I did notice a lot of dogs on the premises, but all were leashed and well behaved, and I never heard a bark, so not bothered by them.  The only inconvenience I noticed was the lack of bedside stand on one side of the bed, so no where to put glasses, phone, etc. The kitchenette was nice to have, and we did use it for our own meals. I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Victor D, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is in a nice area, but awkward to get to due to major traffic patterns.  There is only one restaurant in walking distance, but it was awesome!  I did notice a lot of dogs on the premises, but all were leashed and well behaved, and I never heard a bark, so not bothered by them.  The only inconvenience I noticed was the lack of bedside stand on one side of the bed, so no where to put glasses, phone, etc. The kitchenette was nice to have, and we did use it for our own meals. I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r517506652-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>517506652</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t>Family trip</t>
+  </si>
+  <si>
+    <t>We spent a week here. Clean and freindly. Not top of the line but prices were great! And great customer service. Kitchen supplies available to rent. Hot tub and pool. Free laundry room. Not to busy or loud. Kitchenette in every room. No oven though. Pleased with our stay.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r472112240-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>472112240</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>Worst candlewood On Earth</t>
+  </si>
+  <si>
+    <t>This was the worst ihg hotel on the planet. Staff wasn't helpful, pantry wasn't up to par, mold in the shower, sheets had a burn hole, management was just as untrai ed as the employees, stayed here cause a friend was next door but I believe the Hilton will earn not only my companies business but my families as well. HORRIBLE HOTELMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2017</t>
+  </si>
+  <si>
+    <t>This was the worst ihg hotel on the planet. Staff wasn't helpful, pantry wasn't up to par, mold in the shower, sheets had a burn hole, management was just as untrai ed as the employees, stayed here cause a friend was next door but I believe the Hilton will earn not only my companies business but my families as well. HORRIBLE HOTELMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r459997285-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>459997285</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good stay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for one night only but had a great stay. Very nice front desk staff. Hotel wa easy to find and room was good nice and clean.  Needs a little updating of furniture but still not bad. Has everything you need when you are traveling alone or with family.  </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r435883129-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>435883129</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Travels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good &amp; clean hotel! My boyfriend and I are looking for something affordable and that had a kitchen since we drove from Minnesota. The open concept layout was nice and that you could rent a coffee maker or grill was awesome! The pool was smaller and hot tub but still did the job.Also we were centrally located to all the places we wanted to explore. We would definitely stay again!! </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r415283861-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>415283861</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Good. Practical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice big open space. Kids enjoyed the pool. Perfect for staying a few days with a family.  Outdoor grilling area. Kitchen area with everything. Movies to borrow and games as well as specialty appliances, blenders, etc. good location south of city. A few little sort of "ghetto" touches keep it not too fancy. Hack job on carpet replacement, elevator is CRAZY slow. Couch and chair saggy and worn.  Not very sound proof. Comfy bed.  Nice front desk staff. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r410682604-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>410682604</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Weekend stay</t>
+  </si>
+  <si>
+    <t>It's ok. Booked king room, room was for one, not two. Yes, we had a king bed but the recliner they provide was jammed in between the wall and bed, used it for a place to put purse. Only one bedside table (same side as chair). A/C would not run consistently to cool room (room super warm, outside cooler but no breeze or we would have just had the window open). A few misses in plain site in the bathroom (dirt in vent and mold forming on caulk). The beds are ok, we're softy bed people and this was medium. Love the cupboard option to get snacks, etc but really low on regular varities of items--no regular coke, no white milk.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2016</t>
+  </si>
+  <si>
+    <t>It's ok. Booked king room, room was for one, not two. Yes, we had a king bed but the recliner they provide was jammed in between the wall and bed, used it for a place to put purse. Only one bedside table (same side as chair). A/C would not run consistently to cool room (room super warm, outside cooler but no breeze or we would have just had the window open). A few misses in plain site in the bathroom (dirt in vent and mold forming on caulk). The beds are ok, we're softy bed people and this was medium. Love the cupboard option to get snacks, etc but really low on regular varities of items--no regular coke, no white milk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r410196308-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>410196308</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Outstanding staff and a great value!!!</t>
+  </si>
+  <si>
+    <t>Location is quite good with quick access to light rail and the interstate. Rooms, and amenities are of superior quality. The value is found in a stellar staff providing a five star customer service experience. Combine that with their competitive pricing and you have an outstanding value for your stay here at Candlewood Suites.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r398553861-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>398553861</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Solid Hotel</t>
+  </si>
+  <si>
+    <t>Conveniently located in Meridian Business district. Staff are welcoming and friendly and give 5 star service. Hotel itself is a solid 3 star - room was clean, A/C worked great and coffee in room a plus. Older hotel without many amenities but value priced. Didn't miss lack of restaurant with Hacienda across the parking lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Conveniently located in Meridian Business district. Staff are welcoming and friendly and give 5 star service. Hotel itself is a solid 3 star - room was clean, A/C worked great and coffee in room a plus. Older hotel without many amenities but value priced. Didn't miss lack of restaurant with Hacienda across the parking lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r392742394-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>392742394</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great home away from home! </t>
+  </si>
+  <si>
+    <t>I absolutely loved my stay here. The staff was exceptionally friendly and made our stay fantastic. The room was updated and clean. It had everything you could need. Paper towels, soap, dishes, pots, utensils, cook top and refrigerator. They even have a lending library if you want to play games, borrow a dvd and lots of other items. I will stay here anytime I am back in the Denver area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>I absolutely loved my stay here. The staff was exceptionally friendly and made our stay fantastic. The room was updated and clean. It had everything you could need. Paper towels, soap, dishes, pots, utensils, cook top and refrigerator. They even have a lending library if you want to play games, borrow a dvd and lots of other items. I will stay here anytime I am back in the Denver area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r391568269-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>391568269</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Overwhelming Smell of Dog Urine</t>
+  </si>
+  <si>
+    <t>When we checked in the room smelled so strongly of dog urine.  We were stuck and could not move to another hotel because all hotels were booked.  When I asked at the front desk if there could be anything done the clerk gave me a bottle of deodorizing spray, her perfume, and told me to open the window and pop a bag of popcorn to mask the smell.  She did not ask what my room number was so that leads to believe it is problem in many of the rooms so why bother to ask which room I was staying in.   It was a horrible experience and I would not recommend anyone stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>When we checked in the room smelled so strongly of dog urine.  We were stuck and could not move to another hotel because all hotels were booked.  When I asked at the front desk if there could be anything done the clerk gave me a bottle of deodorizing spray, her perfume, and told me to open the window and pop a bag of popcorn to mask the smell.  She did not ask what my room number was so that leads to believe it is problem in many of the rooms so why bother to ask which room I was staying in.   It was a horrible experience and I would not recommend anyone stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r382009166-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>382009166</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Not good start to trip</t>
+  </si>
+  <si>
+    <t>First sign it was not a good choice was the birthday party being held in the hotel. Odd location as it seemed to a kid's party with kids &amp; balloons everywhere. Party had taken over outdoor patio area as well. Upon check-in we waited at desk for several minutes before anyone appeared. Lady finally comes out of back &amp; checks us in. She then says computer shows room hasn't been cleaned but she thinks it was &amp; will check. She goes up to room, comes back down &amp; tells us that room has been cleaned but has a "slight smell" of curry. We decide to go check it out anyway &amp; upon entry to the 4th floor are enveloped by cigarette smoke. The room was not acceptable as curry smell in room was very strong as was cigarette smoke. Upon  returning to front desk we &amp; stating we we decided to not take room &amp; asking about smoke we were informed that the 4th floor was a smoking floor but we were given a non- smoking room. Talk about completely contradictory. At booking we were not advised that non-smoking room could be on a smoking floor. My traveling companion asked if Roz - the clerk - could call another IHG property for us since hotel completely booked. Roz said she could not since it was an extended stay hotel so just couldn't phone another (traditional) IHG property to find a...First sign it was not a good choice was the birthday party being held in the hotel. Odd location as it seemed to a kid's party with kids &amp; balloons everywhere. Party had taken over outdoor patio area as well. Upon check-in we waited at desk for several minutes before anyone appeared. Lady finally comes out of back &amp; checks us in. She then says computer shows room hasn't been cleaned but she thinks it was &amp; will check. She goes up to room, comes back down &amp; tells us that room has been cleaned but has a "slight smell" of curry. We decide to go check it out anyway &amp; upon entry to the 4th floor are enveloped by cigarette smoke. The room was not acceptable as curry smell in room was very strong as was cigarette smoke. Upon  returning to front desk we &amp; stating we we decided to not take room &amp; asking about smoke we were informed that the 4th floor was a smoking floor but we were given a non- smoking room. Talk about completely contradictory. At booking we were not advised that non-smoking room could be on a smoking floor. My traveling companion asked if Roz - the clerk - could call another IHG property for us since hotel completely booked. Roz said she could not since it was an extended stay hotel so just couldn't phone another (traditional) IHG property to find a room for us. She said she'd ask her supervisor what could be done. Answer was nothing so we got a refund and, on our own, found alternate accommodations with Hyatt. At check in we were told pool was out of service but should be repaired the next day. There were also some smokers hanging around front entrance; I don't know why those people just didn't go up to the 4th floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>First sign it was not a good choice was the birthday party being held in the hotel. Odd location as it seemed to a kid's party with kids &amp; balloons everywhere. Party had taken over outdoor patio area as well. Upon check-in we waited at desk for several minutes before anyone appeared. Lady finally comes out of back &amp; checks us in. She then says computer shows room hasn't been cleaned but she thinks it was &amp; will check. She goes up to room, comes back down &amp; tells us that room has been cleaned but has a "slight smell" of curry. We decide to go check it out anyway &amp; upon entry to the 4th floor are enveloped by cigarette smoke. The room was not acceptable as curry smell in room was very strong as was cigarette smoke. Upon  returning to front desk we &amp; stating we we decided to not take room &amp; asking about smoke we were informed that the 4th floor was a smoking floor but we were given a non- smoking room. Talk about completely contradictory. At booking we were not advised that non-smoking room could be on a smoking floor. My traveling companion asked if Roz - the clerk - could call another IHG property for us since hotel completely booked. Roz said she could not since it was an extended stay hotel so just couldn't phone another (traditional) IHG property to find a...First sign it was not a good choice was the birthday party being held in the hotel. Odd location as it seemed to a kid's party with kids &amp; balloons everywhere. Party had taken over outdoor patio area as well. Upon check-in we waited at desk for several minutes before anyone appeared. Lady finally comes out of back &amp; checks us in. She then says computer shows room hasn't been cleaned but she thinks it was &amp; will check. She goes up to room, comes back down &amp; tells us that room has been cleaned but has a "slight smell" of curry. We decide to go check it out anyway &amp; upon entry to the 4th floor are enveloped by cigarette smoke. The room was not acceptable as curry smell in room was very strong as was cigarette smoke. Upon  returning to front desk we &amp; stating we we decided to not take room &amp; asking about smoke we were informed that the 4th floor was a smoking floor but we were given a non- smoking room. Talk about completely contradictory. At booking we were not advised that non-smoking room could be on a smoking floor. My traveling companion asked if Roz - the clerk - could call another IHG property for us since hotel completely booked. Roz said she could not since it was an extended stay hotel so just couldn't phone another (traditional) IHG property to find a room for us. She said she'd ask her supervisor what could be done. Answer was nothing so we got a refund and, on our own, found alternate accommodations with Hyatt. At check in we were told pool was out of service but should be repaired the next day. There were also some smokers hanging around front entrance; I don't know why those people just didn't go up to the 4th floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r380028005-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>380028005</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>I do IT work for a major grocer and I spent a chunk of March, 2016 here.  The staff is warm and friendly.  A quick trip around the corner &amp; over the interstate to Safeway will get you supplies to stow in the fridge.  You could live here as it is more like a studio apartment than a hotel.  They get travelers who want daytime darkness curtains and large comfortable rooms to work in.  This hotel will work for a week or a month.  I know I will always feel welcome if I ever am in this part of the Front Range again. My family stayed here one weekend in a one bedroom suite while they visited me and we all enjoyed it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I do IT work for a major grocer and I spent a chunk of March, 2016 here.  The staff is warm and friendly.  A quick trip around the corner &amp; over the interstate to Safeway will get you supplies to stow in the fridge.  You could live here as it is more like a studio apartment than a hotel.  They get travelers who want daytime darkness curtains and large comfortable rooms to work in.  This hotel will work for a week or a month.  I know I will always feel welcome if I ever am in this part of the Front Range again. My family stayed here one weekend in a one bedroom suite while they visited me and we all enjoyed it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r373832737-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>373832737</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>what a nice surprise</t>
+  </si>
+  <si>
+    <t>I was so impressed right off the bat with the front desk staff. Then when i got to my room, I was elated. A terrific, bed with attention to the bedding, thank you! A kitchen with utensils and plates and a coffee pot! (Why is it places have a kitchen with no cookware or dishes to use in it?)  I had a terrific stay, amazingly clean, and friendliness to go with it. And at an affordable price point.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I was so impressed right off the bat with the front desk staff. Then when i got to my room, I was elated. A terrific, bed with attention to the bedding, thank you! A kitchen with utensils and plates and a coffee pot! (Why is it places have a kitchen with no cookware or dishes to use in it?)  I had a terrific stay, amazingly clean, and friendliness to go with it. And at an affordable price point.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r312913113-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>312913113</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>I Don't Like It I Love It!</t>
+  </si>
+  <si>
+    <t>Ever since a walking in the door Candlewood has been nothing but an absolute best experience to have, put this hotel on TOP of your list!!!!!!!Top to bottom I do recommend☆☆☆☆The cupboard is coolStaff is nice with plenty of stores on Lincoln $treet</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r310674003-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>310674003</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Truly A Wonderful Experience, Just like HOME!</t>
+  </si>
+  <si>
+    <t>Having just completed a month long stay, we were totally impressed being long time Hilton Honors members we took a chance in the IHG hotel family and have been impressed by everything from the friendly staff that not only remember your name but also make such a family and professional feel to such a beautiful property. Thank you all very much, you have made a time of transition for our families relocation to Colorado  a great experience! Big Hugs to the General Manager Hope and her staff, Dinah and Roopin</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r309563163-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>309563163</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Great value stay</t>
+  </si>
+  <si>
+    <t>We were traveling to Utah and this was a good stopping point on the way. I was in a huge hurry to get to the room and watch OSU vs VCU. I thought that someone was playing a trick on me as the channel was stuck on the cartoon network.  After a couple of efforts to resolve, we were moved to another room. The guy working the front desk was very friendly and understanding. Rooms were clean and had everything that we needed. For the price, this is a great value motel. Would definately stay again if we are in the area .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r296031161-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>296031161</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Family Vacation to  Denver</t>
+  </si>
+  <si>
+    <t>This is  my first  time  writing a  rating  for  a hotel  but  I  believe  this hotel earned a response to our  recent stay at the  Candlewood  suites in Denver. We  encountered a  few issues  with the  rooms  when we  arrived  but the  staff were very quick  to make  adjustments  with accommodations to help  rectify those  issues. My main reason for  rating this as  an excellent  experience was  not  the  rooms (even though mine  was  fantastic) I  can not say enough about the level of  customer  service shown  to myself and  my family. The front  desk  staff and the  Hotel  Manager  went  above and beyond what was required  to  make  sure myself  and  my family had a wonderful experience.  I  would  highly recommend if you are  in the  area  and  looking for  a  location to stay that  you consider staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Victor D, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>This is  my first  time  writing a  rating  for  a hotel  but  I  believe  this hotel earned a response to our  recent stay at the  Candlewood  suites in Denver. We  encountered a  few issues  with the  rooms  when we  arrived  but the  staff were very quick  to make  adjustments  with accommodations to help  rectify those  issues. My main reason for  rating this as  an excellent  experience was  not  the  rooms (even though mine  was  fantastic) I  can not say enough about the level of  customer  service shown  to myself and  my family. The front  desk  staff and the  Hotel  Manager  went  above and beyond what was required  to  make  sure myself  and  my family had a wonderful experience.  I  would  highly recommend if you are  in the  area  and  looking for  a  location to stay that  you consider staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r292770417-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>292770417</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Better Options for the Weekend</t>
+  </si>
+  <si>
+    <t>The room was the standard spread for Candlewood Suites: Fridge, stove, sink, and dishwasher.  Laundry is free, there's a pool and fitness center, as well.Internet was disappointing.  I logged back in for wireless each time my laptop went into "sleep mode".  Further, once logged in the connection is very slow, and I had to reconnect frequently. Elevator seemed slow and dryer took longer than expected for clothes.  Maybe the slower pace of all these things was compounded by the fact that I only stayed for 1 night, but overall, I think there are options in the area, and will try those next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>The room was the standard spread for Candlewood Suites: Fridge, stove, sink, and dishwasher.  Laundry is free, there's a pool and fitness center, as well.Internet was disappointing.  I logged back in for wireless each time my laptop went into "sleep mode".  Further, once logged in the connection is very slow, and I had to reconnect frequently. Elevator seemed slow and dryer took longer than expected for clothes.  Maybe the slower pace of all these things was compounded by the fact that I only stayed for 1 night, but overall, I think there are options in the area, and will try those next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r292052492-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>292052492</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Internet is very bad</t>
+  </si>
+  <si>
+    <t>The room was big and had a full kitchen, but each night I came back there was an odor of something,  I"m not sure how to describe it, but the room was clean and no I did not report the odor after working all day I decided to just turn up the a/c to circulate the air.  My biggest beef with this hotel is the wretched internet, if you are going to stay there and have to sometimes work from the room, don't do it.  My first night there I couldn't get onto the internet at all.  I ended up having to call their IT help desk.  We finally got me connected, the problem was the log in  page, the authentication page would not come up on Chrome.  When I did get connected the connections was worthless it was being used by too many people, my vpn wouldn't connect.  The next night, all three of their connections were showing limited connection, so I called again. The help desk isolated the MAC address of my laptop and tried to buy pass certain restrictions to give me more bandwidth but it was still really bad, painfully slow.  I got a work call at 3am and had to log on and use the vpn and at 3am it was still painfully slow, it took me twice as long as it should have.  I will not stay here again unless I absolutely have to....The room was big and had a full kitchen, but each night I came back there was an odor of something,  I"m not sure how to describe it, but the room was clean and no I did not report the odor after working all day I decided to just turn up the a/c to circulate the air.  My biggest beef with this hotel is the wretched internet, if you are going to stay there and have to sometimes work from the room, don't do it.  My first night there I couldn't get onto the internet at all.  I ended up having to call their IT help desk.  We finally got me connected, the problem was the log in  page, the authentication page would not come up on Chrome.  When I did get connected the connections was worthless it was being used by too many people, my vpn wouldn't connect.  The next night, all three of their connections were showing limited connection, so I called again. The help desk isolated the MAC address of my laptop and tried to buy pass certain restrictions to give me more bandwidth but it was still really bad, painfully slow.  I got a work call at 3am and had to log on and use the vpn and at 3am it was still painfully slow, it took me twice as long as it should have.  I will not stay here again unless I absolutely have to.  The bed was comfy, I have no complaints about the room itself, it was the internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded August 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2015</t>
+  </si>
+  <si>
+    <t>The room was big and had a full kitchen, but each night I came back there was an odor of something,  I"m not sure how to describe it, but the room was clean and no I did not report the odor after working all day I decided to just turn up the a/c to circulate the air.  My biggest beef with this hotel is the wretched internet, if you are going to stay there and have to sometimes work from the room, don't do it.  My first night there I couldn't get onto the internet at all.  I ended up having to call their IT help desk.  We finally got me connected, the problem was the log in  page, the authentication page would not come up on Chrome.  When I did get connected the connections was worthless it was being used by too many people, my vpn wouldn't connect.  The next night, all three of their connections were showing limited connection, so I called again. The help desk isolated the MAC address of my laptop and tried to buy pass certain restrictions to give me more bandwidth but it was still really bad, painfully slow.  I got a work call at 3am and had to log on and use the vpn and at 3am it was still painfully slow, it took me twice as long as it should have.  I will not stay here again unless I absolutely have to....The room was big and had a full kitchen, but each night I came back there was an odor of something,  I"m not sure how to describe it, but the room was clean and no I did not report the odor after working all day I decided to just turn up the a/c to circulate the air.  My biggest beef with this hotel is the wretched internet, if you are going to stay there and have to sometimes work from the room, don't do it.  My first night there I couldn't get onto the internet at all.  I ended up having to call their IT help desk.  We finally got me connected, the problem was the log in  page, the authentication page would not come up on Chrome.  When I did get connected the connections was worthless it was being used by too many people, my vpn wouldn't connect.  The next night, all three of their connections were showing limited connection, so I called again. The help desk isolated the MAC address of my laptop and tried to buy pass certain restrictions to give me more bandwidth but it was still really bad, painfully slow.  I got a work call at 3am and had to log on and use the vpn and at 3am it was still painfully slow, it took me twice as long as it should have.  I will not stay here again unless I absolutely have to.  The bed was comfy, I have no complaints about the room itself, it was the internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r283471379-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>283471379</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Dishonest Employees</t>
+  </si>
+  <si>
+    <t>We stayed here one night and we will NEVER stay here again!We accidentally left our bathing suits at this hotel. When I called that evening, after realizing what we'd done, the woman told me to call back the next morning. When I called back in the morning, the woman told me to call back later in the day. When I called back, the woman said they hadn't been turned in by housekeeping.It has been a couple of weeks now and the swim suits have never appeared. Neither the individual hotel nor Candlewood Suites has offered any compensation. I realize we left he suits, but an honest employee would have turned them in. If their employees will steal used bathing suits, who knows what else they will steal.As for the hotel amenities - There are no ice machines; you have to use the frig/freezer for ice, which is unreasonable if you're only staying overnight. The pool is cold. And the staff at the front desk leave a little to be desired. And there is no complimentary breakfast.Another interesting note... IHG Hotel group REFUSED to post my review of this hotel, presumably because it is so negative.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded July 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here one night and we will NEVER stay here again!We accidentally left our bathing suits at this hotel. When I called that evening, after realizing what we'd done, the woman told me to call back the next morning. When I called back in the morning, the woman told me to call back later in the day. When I called back, the woman said they hadn't been turned in by housekeeping.It has been a couple of weeks now and the swim suits have never appeared. Neither the individual hotel nor Candlewood Suites has offered any compensation. I realize we left he suits, but an honest employee would have turned them in. If their employees will steal used bathing suits, who knows what else they will steal.As for the hotel amenities - There are no ice machines; you have to use the frig/freezer for ice, which is unreasonable if you're only staying overnight. The pool is cold. And the staff at the front desk leave a little to be desired. And there is no complimentary breakfast.Another interesting note... IHG Hotel group REFUSED to post my review of this hotel, presumably because it is so negative.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r282914365-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>282914365</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Only Adequate</t>
+  </si>
+  <si>
+    <t>Room is not large but did have a kitchenette.  The room and bathroom were clean.Now for the problems    The web site's directions are misleading.  They forget to mention the Y in the road where you bear left and then stay right.  We arrived slightly after 2 their time and couldn't check in as a room was not ready and check in time was not until 4.  When asked the location of a fast food place her response was to give directions saying the road you came in on.  Uhm, we didn't come on that way.  Later I overheard a phone conversation with someone who was asking directions.  The person was so frustrated by the woman that they wanted to know the manager's name.  I think part of the problem is that the young woman has lived in the area her whole life and doesn't realize that a stranger needs a bit more info.    We wanted to go to Pike's Peak and they ran off the directions...to Manitou Springs.  Not the road to go up the Peak.     And trying to use WiFi was a miserable experience.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Room is not large but did have a kitchenette.  The room and bathroom were clean.Now for the problems    The web site's directions are misleading.  They forget to mention the Y in the road where you bear left and then stay right.  We arrived slightly after 2 their time and couldn't check in as a room was not ready and check in time was not until 4.  When asked the location of a fast food place her response was to give directions saying the road you came in on.  Uhm, we didn't come on that way.  Later I overheard a phone conversation with someone who was asking directions.  The person was so frustrated by the woman that they wanted to know the manager's name.  I think part of the problem is that the young woman has lived in the area her whole life and doesn't realize that a stranger needs a bit more info.    We wanted to go to Pike's Peak and they ran off the directions...to Manitou Springs.  Not the road to go up the Peak.     And trying to use WiFi was a miserable experience.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r280641481-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>280641481</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>Excellent staff, great room, circa 1995 internet</t>
+  </si>
+  <si>
+    <t>Let me start out with the positives.  The rooms are clean.  They're not fancy by any stretch of the imagination, but they are relatively large.  The bed was comfortable and the sheets and towels were surprisingly soft for this level of hotel.  The staff was amazing.  They were quick to respond to any request (e.g. extra towels) and very, very friendly.  The hotel was very quiet and even though it is next to a major highway, we heard no road noise.
+There were only two issues at the hotel, one minor and one major.  the minor one is that the elevator is painfully slow.  It will often take multiple minutes for it to get to you which is weird given that this is only a four story hotel.  The big problem is the wi-fi.  Do you miss dial up?  Did you find dial up to be too fast?  If so, then this is the place for you.  It would often take 10 minutes just to get your device online and then even once you did, you couldn't actually get to any pages because the connection was so slow.  The hotel lacks a unified SSID, so there are a bunch of different ones to connect to.  It doesn't matter which one you use though, as they're all horrible.  There is no excuse in this day and age for wi-fi this bad.  While this was fine since I was there with my...Let me start out with the positives.  The rooms are clean.  They're not fancy by any stretch of the imagination, but they are relatively large.  The bed was comfortable and the sheets and towels were surprisingly soft for this level of hotel.  The staff was amazing.  They were quick to respond to any request (e.g. extra towels) and very, very friendly.  The hotel was very quiet and even though it is next to a major highway, we heard no road noise.There were only two issues at the hotel, one minor and one major.  the minor one is that the elevator is painfully slow.  It will often take multiple minutes for it to get to you which is weird given that this is only a four story hotel.  The big problem is the wi-fi.  Do you miss dial up?  Did you find dial up to be too fast?  If so, then this is the place for you.  It would often take 10 minutes just to get your device online and then even once you did, you couldn't actually get to any pages because the connection was so slow.  The hotel lacks a unified SSID, so there are a bunch of different ones to connect to.  It doesn't matter which one you use though, as they're all horrible.  There is no excuse in this day and age for wi-fi this bad.  While this was fine since I was there with my family, I would be unable to stay there for business due to this issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me start out with the positives.  The rooms are clean.  They're not fancy by any stretch of the imagination, but they are relatively large.  The bed was comfortable and the sheets and towels were surprisingly soft for this level of hotel.  The staff was amazing.  They were quick to respond to any request (e.g. extra towels) and very, very friendly.  The hotel was very quiet and even though it is next to a major highway, we heard no road noise.
+There were only two issues at the hotel, one minor and one major.  the minor one is that the elevator is painfully slow.  It will often take multiple minutes for it to get to you which is weird given that this is only a four story hotel.  The big problem is the wi-fi.  Do you miss dial up?  Did you find dial up to be too fast?  If so, then this is the place for you.  It would often take 10 minutes just to get your device online and then even once you did, you couldn't actually get to any pages because the connection was so slow.  The hotel lacks a unified SSID, so there are a bunch of different ones to connect to.  It doesn't matter which one you use though, as they're all horrible.  There is no excuse in this day and age for wi-fi this bad.  While this was fine since I was there with my...Let me start out with the positives.  The rooms are clean.  They're not fancy by any stretch of the imagination, but they are relatively large.  The bed was comfortable and the sheets and towels were surprisingly soft for this level of hotel.  The staff was amazing.  They were quick to respond to any request (e.g. extra towels) and very, very friendly.  The hotel was very quiet and even though it is next to a major highway, we heard no road noise.There were only two issues at the hotel, one minor and one major.  the minor one is that the elevator is painfully slow.  It will often take multiple minutes for it to get to you which is weird given that this is only a four story hotel.  The big problem is the wi-fi.  Do you miss dial up?  Did you find dial up to be too fast?  If so, then this is the place for you.  It would often take 10 minutes just to get your device online and then even once you did, you couldn't actually get to any pages because the connection was so slow.  The hotel lacks a unified SSID, so there are a bunch of different ones to connect to.  It doesn't matter which one you use though, as they're all horrible.  There is no excuse in this day and age for wi-fi this bad.  While this was fine since I was there with my family, I would be unable to stay there for business due to this issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r271627307-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>271627307</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff is really nice,  hotel is clean,  but it is a little dated.  Halls smelled funny but room was fine.  Bed was comfortable. They don't have restaurant but have good voucher for but not very good selection.  I would stay again for sure. </t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r265677839-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>265677839</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>My husband and I stopped here on the way drive home from Phoenix AZ. This hotel has extra space in the room. The staff was nice and helpful. We used the free 24 hour self laundry. It cost 1.25 to buy soap for laundry, but that was expected. The restaurant close by was good. The pantry store in hotel had a large verity. The pool and hot tub were both small, but plenty for how much use they got. The walls in the rooms are a bit then, but we didn't have any problems. I would stay here again. We were in room 318, and everything was clean and orderly when we arrived.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>My husband and I stopped here on the way drive home from Phoenix AZ. This hotel has extra space in the room. The staff was nice and helpful. We used the free 24 hour self laundry. It cost 1.25 to buy soap for laundry, but that was expected. The restaurant close by was good. The pantry store in hotel had a large verity. The pool and hot tub were both small, but plenty for how much use they got. The walls in the rooms are a bit then, but we didn't have any problems. I would stay here again. We were in room 318, and everything was clean and orderly when we arrived.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r256894731-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>256894731</t>
+  </si>
+  <si>
+    <t>02/28/2015</t>
+  </si>
+  <si>
+    <t>Just Average</t>
+  </si>
+  <si>
+    <t>The location is real good as it is only two blocks away from the rail line that leads into the heart of downtown Denver.  Price is also very reasonable for suite style rooms (kitchen - stove, microwave,full fridge, plates and utensils).
+Overall I had a good experience with my stay.  The location (for me) was perfect.  There is a Safeway grocery store just over a mile away and the Hacienda Colorado (Mexican Restaurant) a very short walk away (100 yards).
+ROOMS:
+Decent size with a half desk and rolling chair.  Electric receptacles were numerous and conveniently located.  Rooms were clean but the hotel is definitely dated.  Carpet appeared very worn and the hallways had that hint of an old smell.  Room smell had a faintly old smell to it not nothing that would be unbearable or offending.  It was not neutral, meaning no smells at all but what you would normally/probably expect for a hotel of this age.
+STAFF:
+Friendly but a bit clueless.  I had reservations through my business reservation system and the front desk girl did not show I had made them.  After several minutes she figured it out.  Room was not ready but she said 30 minutes and she would call me.  I returned (no call) and she gave me the room keys only to find the maid still cleaning the room.  Back to the front desk for another room!
+BED:
+I found the bed pretty comfortable...The location is real good as it is only two blocks away from the rail line that leads into the heart of downtown Denver.  Price is also very reasonable for suite style rooms (kitchen - stove, microwave,full fridge, plates and utensils).Overall I had a good experience with my stay.  The location (for me) was perfect.  There is a Safeway grocery store just over a mile away and the Hacienda Colorado (Mexican Restaurant) a very short walk away (100 yards).ROOMS:Decent size with a half desk and rolling chair.  Electric receptacles were numerous and conveniently located.  Rooms were clean but the hotel is definitely dated.  Carpet appeared very worn and the hallways had that hint of an old smell.  Room smell had a faintly old smell to it not nothing that would be unbearable or offending.  It was not neutral, meaning no smells at all but what you would normally/probably expect for a hotel of this age.STAFF:Friendly but a bit clueless.  I had reservations through my business reservation system and the front desk girl did not show I had made them.  After several minutes she figured it out.  Room was not ready but she said 30 minutes and she would call me.  I returned (no call) and she gave me the room keys only to find the maid still cleaning the room.  Back to the front desk for another room!BED:I found the bed pretty comfortable especially for sleeping in it for five days.  It was medium firmness.  Pillows were also nice and comfortable.ROOM CLEANLINESS:It was clean and but I think the room could have used a top to down cleaning.  I bring disinfectant wipes to go over all knobs, switches and handles just to make sure.  Those wipes came up pretty dirty when I inspected them.  note, most hotels do not do this anyway so it might be a bit picky to call them out.BATHROOM SHOWER:All faucets worked adequately.  The shower was easy to use.  Hot water was plentiful and stayed hot throughout the showering.LOBBY AREA:A bit small and right in front of the automatic doors so you constantly have to move away and make room for folks entering or leaving the hotel. not that big of a deal.  During my stay the the tile area was constantly wet and slippery (it snowed almost everyday) They did not do a very good job of removing the water and had to be careful not to bust.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded March 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2015</t>
+  </si>
+  <si>
+    <t>The location is real good as it is only two blocks away from the rail line that leads into the heart of downtown Denver.  Price is also very reasonable for suite style rooms (kitchen - stove, microwave,full fridge, plates and utensils).
+Overall I had a good experience with my stay.  The location (for me) was perfect.  There is a Safeway grocery store just over a mile away and the Hacienda Colorado (Mexican Restaurant) a very short walk away (100 yards).
+ROOMS:
+Decent size with a half desk and rolling chair.  Electric receptacles were numerous and conveniently located.  Rooms were clean but the hotel is definitely dated.  Carpet appeared very worn and the hallways had that hint of an old smell.  Room smell had a faintly old smell to it not nothing that would be unbearable or offending.  It was not neutral, meaning no smells at all but what you would normally/probably expect for a hotel of this age.
+STAFF:
+Friendly but a bit clueless.  I had reservations through my business reservation system and the front desk girl did not show I had made them.  After several minutes she figured it out.  Room was not ready but she said 30 minutes and she would call me.  I returned (no call) and she gave me the room keys only to find the maid still cleaning the room.  Back to the front desk for another room!
+BED:
+I found the bed pretty comfortable...The location is real good as it is only two blocks away from the rail line that leads into the heart of downtown Denver.  Price is also very reasonable for suite style rooms (kitchen - stove, microwave,full fridge, plates and utensils).Overall I had a good experience with my stay.  The location (for me) was perfect.  There is a Safeway grocery store just over a mile away and the Hacienda Colorado (Mexican Restaurant) a very short walk away (100 yards).ROOMS:Decent size with a half desk and rolling chair.  Electric receptacles were numerous and conveniently located.  Rooms were clean but the hotel is definitely dated.  Carpet appeared very worn and the hallways had that hint of an old smell.  Room smell had a faintly old smell to it not nothing that would be unbearable or offending.  It was not neutral, meaning no smells at all but what you would normally/probably expect for a hotel of this age.STAFF:Friendly but a bit clueless.  I had reservations through my business reservation system and the front desk girl did not show I had made them.  After several minutes she figured it out.  Room was not ready but she said 30 minutes and she would call me.  I returned (no call) and she gave me the room keys only to find the maid still cleaning the room.  Back to the front desk for another room!BED:I found the bed pretty comfortable especially for sleeping in it for five days.  It was medium firmness.  Pillows were also nice and comfortable.ROOM CLEANLINESS:It was clean and but I think the room could have used a top to down cleaning.  I bring disinfectant wipes to go over all knobs, switches and handles just to make sure.  Those wipes came up pretty dirty when I inspected them.  note, most hotels do not do this anyway so it might be a bit picky to call them out.BATHROOM SHOWER:All faucets worked adequately.  The shower was easy to use.  Hot water was plentiful and stayed hot throughout the showering.LOBBY AREA:A bit small and right in front of the automatic doors so you constantly have to move away and make room for folks entering or leaving the hotel. not that big of a deal.  During my stay the the tile area was constantly wet and slippery (it snowed almost everyday) They did not do a very good job of removing the water and had to be careful not to bust.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r241655063-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>241655063</t>
+  </si>
+  <si>
+    <t>11/26/2014</t>
+  </si>
+  <si>
+    <t>Nice Accommodations - Clean, Up To Date and Quiet</t>
+  </si>
+  <si>
+    <t>Nice Accommodations - Clean, Up To Date and Quiet.  No amenities like restaurants within walking distance, but it is quiet and great location for those looking for peace and rest or working at one of the nearby business centers/buildings.  Totally quiet on the weekends.  Friendly and helpful staff, clean rooms and property. Free parking, close to freeway and safe area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>David H, Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded December 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2014</t>
+  </si>
+  <si>
+    <t>Nice Accommodations - Clean, Up To Date and Quiet.  No amenities like restaurants within walking distance, but it is quiet and great location for those looking for peace and rest or working at one of the nearby business centers/buildings.  Totally quiet on the weekends.  Friendly and helpful staff, clean rooms and property. Free parking, close to freeway and safe area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r239728682-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>239728682</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t>Our stay was relaxing and the room was suitable. The location worked for what we needed. The staff was polite and helpful. The room looks nicer in person than the photos actually show. We will definitely be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>David H, Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded December 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2014</t>
+  </si>
+  <si>
+    <t>Our stay was relaxing and the room was suitable. The location worked for what we needed. The staff was polite and helpful. The room looks nicer in person than the photos actually show. We will definitely be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r239683543-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>239683543</t>
+  </si>
+  <si>
+    <t>Clean and Friendly!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last month while visiting family and we LOVED it! The staff members were very friendly and helpful, the rooms were comfortable and clean and the kitchen was great too! No complaints and we will definitely be staying here during our next visit. Very pleased. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last month while visiting family and we LOVED it! The staff members were very friendly and helpful, the rooms were comfortable and clean and the kitchen was great too! No complaints and we will definitely be staying here during our next visit. Very pleased. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r235744721-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>235744721</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>Great Place!</t>
+  </si>
+  <si>
+    <t>Had a 3 night stay... very warm and friendly.. the staff was wonderful... very courteous and professional. My room was nice and clean.. but without a doubt, the staff was a step above what I usually see when I travel for business.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>David H, Front Office Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Had a 3 night stay... very warm and friendly.. the staff was wonderful... very courteous and professional. My room was nice and clean.. but without a doubt, the staff was a step above what I usually see when I travel for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r235279320-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>235279320</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Amazing!</t>
+  </si>
+  <si>
+    <t>We came to Denver with another couple for the weekend to watch the Bronco vs 49ers game. When we checked in, they were out of king size bedrooms. So we were put up in 2 separate suites. Well the other couple were put in a 2 bedroom suite; our suite only had 1 bedroom. So we asked to cancel our room and room with them. They had no problem with that and even credited back our room we didn't stay in. I've never heard of any hotel doing that, ever! They are clean and cozy. Home away from home. They are also conveniently located by the RDT E-Line to get downtown easily. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>David H, Front Office Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2014</t>
+  </si>
+  <si>
+    <t>We came to Denver with another couple for the weekend to watch the Bronco vs 49ers game. When we checked in, they were out of king size bedrooms. So we were put up in 2 separate suites. Well the other couple were put in a 2 bedroom suite; our suite only had 1 bedroom. So we asked to cancel our room and room with them. They had no problem with that and even credited back our room we didn't stay in. I've never heard of any hotel doing that, ever! They are clean and cozy. Home away from home. They are also conveniently located by the RDT E-Line to get downtown easily. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r230120407-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>230120407</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Had a 9 night stay at this Candlewood. Staff was welcoming and always helpful. However the property looked tired, corridor was somehow quite dark. Room was spacious but the sofa and carpet were not exactly what you call clean. The full kitchen was a plus. Room was fair, pillow was good but there were holes in the bedding. One thing was that the air conditioning was loud, it switched itself on every 10 minutes and made quality sleep impossible. No breakfast included and weekly housekeeping is a downside. For nearby places at a lower rate breakfast is available, I think Candlewood should consider making them available.Average stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Had a 9 night stay at this Candlewood. Staff was welcoming and always helpful. However the property looked tired, corridor was somehow quite dark. Room was spacious but the sofa and carpet were not exactly what you call clean. The full kitchen was a plus. Room was fair, pillow was good but there were holes in the bedding. One thing was that the air conditioning was loud, it switched itself on every 10 minutes and made quality sleep impossible. No breakfast included and weekly housekeeping is a downside. For nearby places at a lower rate breakfast is available, I think Candlewood should consider making them available.Average stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r229365238-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>229365238</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Great last minute option</t>
+  </si>
+  <si>
+    <t>Went home to visit and noticed that a lot of the normal hotels that I've stayed in the past were booked. Got this one on the whim and it was better than expected. spacious rooms, full kitchens that were complete with everything, down to the dish soap. really loved the FREE laundry and the BBQ grilling area. Staff was also great and accomodating. Very clean and well kept. Hidden away in a business park, but close to highway and shopping, plus golf course and cute park nearby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r222005547-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>222005547</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>My mom has been staying here since March 2014. I have visited, having my own room, 3 different times since she's been here.The furnishings are a little older but they have been kept clean. The beds are comfortable, a little on the firm side. The bathroom is up-to-date. People have mentioned traffic noise on the I-25 side in other reviews but I never heard it the 3 times I've stayed (&amp; I had a napping toddler, too). By far this hotel has the friendliest staff I have ever encountered. Sometimes they're in the back office when you walk through but they're always prompt when you need something. The maintenance man consistently makes sure things are kept in working order. The hotel is a little older but I appreciate that the staff works hard to keep things nice. Overall, cleanliness and friendliness get my vote every time!MoreShow less</t>
+  </si>
+  <si>
+    <t>My mom has been staying here since March 2014. I have visited, having my own room, 3 different times since she's been here.The furnishings are a little older but they have been kept clean. The beds are comfortable, a little on the firm side. The bathroom is up-to-date. People have mentioned traffic noise on the I-25 side in other reviews but I never heard it the 3 times I've stayed (&amp; I had a napping toddler, too). By far this hotel has the friendliest staff I have ever encountered. Sometimes they're in the back office when you walk through but they're always prompt when you need something. The maintenance man consistently makes sure things are kept in working order. The hotel is a little older but I appreciate that the staff works hard to keep things nice. Overall, cleanliness and friendliness get my vote every time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r221454889-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>221454889</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>This hotel provided everything needed, but didn't make you feel good. The halls and rooms are a bit drab and dreary. Almost nothing stood out as anything above average. The one thing that was great was the towels -- they were extra thick and soft -- something note found in anything except the best luxury hotels these days. The kitchen is nice to have, and the rooms have full-size refrigerators. We had a couple of issues with the room, and the friendly staff took care of things immediately.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded August 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2014</t>
+  </si>
+  <si>
+    <t>This hotel provided everything needed, but didn't make you feel good. The halls and rooms are a bit drab and dreary. Almost nothing stood out as anything above average. The one thing that was great was the towels -- they were extra thick and soft -- something note found in anything except the best luxury hotels these days. The kitchen is nice to have, and the rooms have full-size refrigerators. We had a couple of issues with the room, and the friendly staff took care of things immediately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r200260692-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>200260692</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>Good but not good enough</t>
+  </si>
+  <si>
+    <t>The room was clean and the staff was friendly. What was not good is the Wi-Fi was terrible and for the most part I wasn't able to perform my business functions at night without using my cell phone as a hotspot. My call to the front desk about the Wi-Fi issues resulted in me being phone transferred to the support people for the Wi-Fi. For a business traveler this hotels Wi-Fi from the room I was in was a nightmare.
+Hint - I don't own the hotel and I don't need to fix the hotels Wi-Fi issues. If I ask for Wi-Fi to be fixed the hotel needs to be on the support line and not me, I am a business traveler, my stuff works because it has to work, hence the mobile hotspot as a backup.
+The second issue I have to illustrate is the toilet seat. The toilet seat in the room I was in was not actually sized appropriately for the toilet and it felt like they spent about $1.99 on the seat itself. Once side of the seat was roughly an inch inside the porcelain ring while the other side sat on top the porcelain as you would expect. I was waiting for rear end splash down into  the porcelain bowl any moment, admittedly it did the job but the toilet isn't a place I want any adventures.
+Lastly, the tv had all sorts of issues...The room was clean and the staff was friendly. What was not good is the Wi-Fi was terrible and for the most part I wasn't able to perform my business functions at night without using my cell phone as a hotspot. My call to the front desk about the Wi-Fi issues resulted in me being phone transferred to the support people for the Wi-Fi. For a business traveler this hotels Wi-Fi from the room I was in was a nightmare.Hint - I don't own the hotel and I don't need to fix the hotels Wi-Fi issues. If I ask for Wi-Fi to be fixed the hotel needs to be on the support line and not me, I am a business traveler, my stuff works because it has to work, hence the mobile hotspot as a backup.The second issue I have to illustrate is the toilet seat. The toilet seat in the room I was in was not actually sized appropriately for the toilet and it felt like they spent about $1.99 on the seat itself. Once side of the seat was roughly an inch inside the porcelain ring while the other side sat on top the porcelain as you would expect. I was waiting for rear end splash down into  the porcelain bowl any moment, admittedly it did the job but the toilet isn't a place I want any adventures.Lastly, the tv had all sorts of issues that resulted in me being told to unplug the tv and plug it in again. For a business traveler I don't have time for this nonsense, when my day is over I need to monitor some business details and relax and I really couldn't do that here.The room itself was clean and average.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded April 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2014</t>
+  </si>
+  <si>
+    <t>The room was clean and the staff was friendly. What was not good is the Wi-Fi was terrible and for the most part I wasn't able to perform my business functions at night without using my cell phone as a hotspot. My call to the front desk about the Wi-Fi issues resulted in me being phone transferred to the support people for the Wi-Fi. For a business traveler this hotels Wi-Fi from the room I was in was a nightmare.
+Hint - I don't own the hotel and I don't need to fix the hotels Wi-Fi issues. If I ask for Wi-Fi to be fixed the hotel needs to be on the support line and not me, I am a business traveler, my stuff works because it has to work, hence the mobile hotspot as a backup.
+The second issue I have to illustrate is the toilet seat. The toilet seat in the room I was in was not actually sized appropriately for the toilet and it felt like they spent about $1.99 on the seat itself. Once side of the seat was roughly an inch inside the porcelain ring while the other side sat on top the porcelain as you would expect. I was waiting for rear end splash down into  the porcelain bowl any moment, admittedly it did the job but the toilet isn't a place I want any adventures.
+Lastly, the tv had all sorts of issues...The room was clean and the staff was friendly. What was not good is the Wi-Fi was terrible and for the most part I wasn't able to perform my business functions at night without using my cell phone as a hotspot. My call to the front desk about the Wi-Fi issues resulted in me being phone transferred to the support people for the Wi-Fi. For a business traveler this hotels Wi-Fi from the room I was in was a nightmare.Hint - I don't own the hotel and I don't need to fix the hotels Wi-Fi issues. If I ask for Wi-Fi to be fixed the hotel needs to be on the support line and not me, I am a business traveler, my stuff works because it has to work, hence the mobile hotspot as a backup.The second issue I have to illustrate is the toilet seat. The toilet seat in the room I was in was not actually sized appropriately for the toilet and it felt like they spent about $1.99 on the seat itself. Once side of the seat was roughly an inch inside the porcelain ring while the other side sat on top the porcelain as you would expect. I was waiting for rear end splash down into  the porcelain bowl any moment, admittedly it did the job but the toilet isn't a place I want any adventures.Lastly, the tv had all sorts of issues that resulted in me being told to unplug the tv and plug it in again. For a business traveler I don't have time for this nonsense, when my day is over I need to monitor some business details and relax and I really couldn't do that here.The room itself was clean and average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r197909823-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>197909823</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>Worst Candlewood I've stayed in</t>
+  </si>
+  <si>
+    <t>I travel for a living and I've stayed at several Candlewood properties. Usually, they are clean, and a very good value for the money. That wasn't the case here. When I arrived, the front desk clerk was confused and poorly trained. It took ten minutes to get checked in. The lobby had a foul odor, similar to a wet dog. The property was dirty in general, with poorly lit corridors and obvious signs of wear and tear. When I arrived to my room, I found that my bathroom had not been cleaned and a used bar of soap was sitting in the shower. For all I know, the sheets on my bed may have been used by the last guest as well. The Candlewood Cupboard was poorly stocked, with a few boxes of cereal and no milk. When I mentioned this to the desk clerk she shrugged and said "Oh well". If you are looking for a run down property, dirty rooms with used soap in the shower and an apathetic staff that could care less about the issues, then this is your hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded April 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2014</t>
+  </si>
+  <si>
+    <t>I travel for a living and I've stayed at several Candlewood properties. Usually, they are clean, and a very good value for the money. That wasn't the case here. When I arrived, the front desk clerk was confused and poorly trained. It took ten minutes to get checked in. The lobby had a foul odor, similar to a wet dog. The property was dirty in general, with poorly lit corridors and obvious signs of wear and tear. When I arrived to my room, I found that my bathroom had not been cleaned and a used bar of soap was sitting in the shower. For all I know, the sheets on my bed may have been used by the last guest as well. The Candlewood Cupboard was poorly stocked, with a few boxes of cereal and no milk. When I mentioned this to the desk clerk she shrugged and said "Oh well". If you are looking for a run down property, dirty rooms with used soap in the shower and an apathetic staff that could care less about the issues, then this is your hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r195511327-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>195511327</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not recommend </t>
+  </si>
+  <si>
+    <t>Unexpected extra night in area and needed a room. Based on staying at other hotels of this chain, we chose this one... What a mistake. 
+Upon pulling up to check in, a large black dog was at the entrance with several people obviously hanging out around front desk.  A strong odor (reminded me of urine) was in the reception desk area... Elevator dirty. 
+Room heater was blasting when we entered ... Musty smell. Turned off heat and turned on AC. Large king bed with 4 small (actually just regular sized pillows, not King or even Queen sized. Very flat and mushy and 2 had yellowish cases on them. Called and asked for 2 more... Not much better. Pitiful. Bed is way too firm and linens look very worn and cheap. 
+Bathroom not bad, but really.... 4 bars of soap stacked on the counter and 1 small bottle of shampoo. Awkward room... King bed almost against one wall on one side with a single nightstand on one side only... There's two of us!  
+Just a cheesy, experience all around.       
+Management: instead of apologizing profusely to the not so great reviews, most of which mention crappy bed linens and bad odors, DO something about it. We stay in hotels often and this one is sub-par... We've stayed in MANY supposedly lower end places that were better than this.  Put your money where your mouth is and perhaps offer a discount at another...Unexpected extra night in area and needed a room. Based on staying at other hotels of this chain, we chose this one... What a mistake. Upon pulling up to check in, a large black dog was at the entrance with several people obviously hanging out around front desk.  A strong odor (reminded me of urine) was in the reception desk area... Elevator dirty. Room heater was blasting when we entered ... Musty smell. Turned off heat and turned on AC. Large king bed with 4 small (actually just regular sized pillows, not King or even Queen sized. Very flat and mushy and 2 had yellowish cases on them. Called and asked for 2 more... Not much better. Pitiful. Bed is way too firm and linens look very worn and cheap. Bathroom not bad, but really.... 4 bars of soap stacked on the counter and 1 small bottle of shampoo. Awkward room... King bed almost against one wall on one side with a single nightstand on one side only... There's two of us!  Just a cheesy, experience all around.       Management: instead of apologizing profusely to the not so great reviews, most of which mention crappy bed linens and bad odors, DO something about it. We stay in hotels often and this one is sub-par... We've stayed in MANY supposedly lower end places that were better than this.  Put your money where your mouth is and perhaps offer a discount at another hotel in the chain... Or money back on this stay. I'm laying in this shabby bed wishing we had gone elsewhere, and writing this review. If we weren't so tired and had time, I would leave now.... MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded March 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2014</t>
+  </si>
+  <si>
+    <t>Unexpected extra night in area and needed a room. Based on staying at other hotels of this chain, we chose this one... What a mistake. 
+Upon pulling up to check in, a large black dog was at the entrance with several people obviously hanging out around front desk.  A strong odor (reminded me of urine) was in the reception desk area... Elevator dirty. 
+Room heater was blasting when we entered ... Musty smell. Turned off heat and turned on AC. Large king bed with 4 small (actually just regular sized pillows, not King or even Queen sized. Very flat and mushy and 2 had yellowish cases on them. Called and asked for 2 more... Not much better. Pitiful. Bed is way too firm and linens look very worn and cheap. 
+Bathroom not bad, but really.... 4 bars of soap stacked on the counter and 1 small bottle of shampoo. Awkward room... King bed almost against one wall on one side with a single nightstand on one side only... There's two of us!  
+Just a cheesy, experience all around.       
+Management: instead of apologizing profusely to the not so great reviews, most of which mention crappy bed linens and bad odors, DO something about it. We stay in hotels often and this one is sub-par... We've stayed in MANY supposedly lower end places that were better than this.  Put your money where your mouth is and perhaps offer a discount at another...Unexpected extra night in area and needed a room. Based on staying at other hotels of this chain, we chose this one... What a mistake. Upon pulling up to check in, a large black dog was at the entrance with several people obviously hanging out around front desk.  A strong odor (reminded me of urine) was in the reception desk area... Elevator dirty. Room heater was blasting when we entered ... Musty smell. Turned off heat and turned on AC. Large king bed with 4 small (actually just regular sized pillows, not King or even Queen sized. Very flat and mushy and 2 had yellowish cases on them. Called and asked for 2 more... Not much better. Pitiful. Bed is way too firm and linens look very worn and cheap. Bathroom not bad, but really.... 4 bars of soap stacked on the counter and 1 small bottle of shampoo. Awkward room... King bed almost against one wall on one side with a single nightstand on one side only... There's two of us!  Just a cheesy, experience all around.       Management: instead of apologizing profusely to the not so great reviews, most of which mention crappy bed linens and bad odors, DO something about it. We stay in hotels often and this one is sub-par... We've stayed in MANY supposedly lower end places that were better than this.  Put your money where your mouth is and perhaps offer a discount at another hotel in the chain... Or money back on this stay. I'm laying in this shabby bed wishing we had gone elsewhere, and writing this review. If we weren't so tired and had time, I would leave now.... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r188718234-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>188718234</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>My home away from home</t>
+  </si>
+  <si>
+    <t>I travel regularly for business purposes to Denver and elsewhere and consider myself a pretty good authority on what constitutes a quality hotel. With that said, the Candlewood Suites at the Denver Tech Center has been— and will continue to be—my preferred destination for my trips to Denver. From my very first visit, the professional front desk staff has been extremely friendly and accommodating and I am greeted by name upon arrival. The rooms are spacious, quiet, well-furnished, clean and comfortable. The nature of my visits often requires the room double as an office so I appreciate the large desk provided and, when my stay extends beyond what I had planned, the guest laundry facilities come in handy. Toss in the fact that the Candlewood Suites at the Denver Tech Center is, in my opinion, a tremendous value and is conveniently located near my business interests; I can’t imagine staying anywhere else when I’m in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I travel regularly for business purposes to Denver and elsewhere and consider myself a pretty good authority on what constitutes a quality hotel. With that said, the Candlewood Suites at the Denver Tech Center has been— and will continue to be—my preferred destination for my trips to Denver. From my very first visit, the professional front desk staff has been extremely friendly and accommodating and I am greeted by name upon arrival. The rooms are spacious, quiet, well-furnished, clean and comfortable. The nature of my visits often requires the room double as an office so I appreciate the large desk provided and, when my stay extends beyond what I had planned, the guest laundry facilities come in handy. Toss in the fact that the Candlewood Suites at the Denver Tech Center is, in my opinion, a tremendous value and is conveniently located near my business interests; I can’t imagine staying anywhere else when I’m in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r186873713-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>186873713</t>
+  </si>
+  <si>
+    <t>12/05/2013</t>
+  </si>
+  <si>
+    <t>I detest the phone call from the front desk</t>
+  </si>
+  <si>
+    <t>No problems with the property or the service, but, I detest the phone call from the front desk (especially at 9pm) asking if everything is okay in my room. #1) You have had access to the room much longer than I have and should already know the answer.#2) If I have a problem I think you can help with, I'll call you! I have your number.#3) Don't bother me! I may be working/relaxing/on the phone, etc. Leave me aloneMoreShow less</t>
+  </si>
+  <si>
+    <t>Dennis R, Front Office Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded December 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2013</t>
+  </si>
+  <si>
+    <t>No problems with the property or the service, but, I detest the phone call from the front desk (especially at 9pm) asking if everything is okay in my room. #1) You have had access to the room much longer than I have and should already know the answer.#2) If I have a problem I think you can help with, I'll call you! I have your number.#3) Don't bother me! I may be working/relaxing/on the phone, etc. Leave me aloneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r186262498-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>186262498</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>Accommodating Staff</t>
+  </si>
+  <si>
+    <t>The staff at this hotel was very friendly and able to work with me.  They allowed me to check in early with no charge because they had a room ready at the time.  This has always been something that agitated me, if the room is ready why would other hotels charge me to check in early.  Anyways, a nice thing about this hotel which I have not seen at others was that the room had directv hd programming.  It was nice to have a variety of channels instead of the typical 20 channels that you are stuck with at other places.  My room had a kitchen, and I think every room does, that had nice granite (I think, for sure it is real stone tho) countertops that were also in the bathroom and shower.  This hotels served my needs nicely and had some added benefits, like kitchen and driectv, and with the rate I paid I think it was a great value.  If im in the area again I will give them a call.  Shout out to front desk guy Dennis, guy was really helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Dennis R, Front Office Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded December 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2013</t>
+  </si>
+  <si>
+    <t>The staff at this hotel was very friendly and able to work with me.  They allowed me to check in early with no charge because they had a room ready at the time.  This has always been something that agitated me, if the room is ready why would other hotels charge me to check in early.  Anyways, a nice thing about this hotel which I have not seen at others was that the room had directv hd programming.  It was nice to have a variety of channels instead of the typical 20 channels that you are stuck with at other places.  My room had a kitchen, and I think every room does, that had nice granite (I think, for sure it is real stone tho) countertops that were also in the bathroom and shower.  This hotels served my needs nicely and had some added benefits, like kitchen and driectv, and with the rate I paid I think it was a great value.  If im in the area again I will give them a call.  Shout out to front desk guy Dennis, guy was really helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r178885539-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>178885539</t>
+  </si>
+  <si>
+    <t>09/27/2013</t>
+  </si>
+  <si>
+    <t>Great, clean,nice area, Great place to stay!</t>
+  </si>
+  <si>
+    <t>A very nice clean fairly new hotel in a wonderful area of town. Plenty of parking in a well lit area. Room was very clean, hotel must be very new as it was very clean and smelled new! Staff are very friendly upon check in even though they had the stress of being sold out due to FEMA sending local residents there that had flood damage. Great place to spend a day or a week!</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r177069058-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>177069058</t>
+  </si>
+  <si>
+    <t>09/13/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel and great service</t>
+  </si>
+  <si>
+    <t>Stayed two nights. Their elevator was broken so they basically upgraded us to a one bedroom suite on the first floor. Clean and quiet. Would stay there again. Nice to have kitchenette to make small meals too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r174685173-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>174685173</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>Ok...</t>
+  </si>
+  <si>
+    <t>After 9 hours on the road with a toddler, I had to stop.  I tried to stay at the Hilton Garden Inn, but they wouldn't honor a discounted rate.  Upset and tired, I got in the car to find somewhere else to stay and the Candlewood is literally right next door.  So, that was why we ended up there.The hotel is ok, bordering on dirty and run-down.  Because I was so tired, I decided to close my eyes and make the best of it.  For some reason, even though I know it is an extended stay type of hotel, I expected they would have a breakfast.  But they don't...just be aware.The room itself was awkward.  One giant room with a kitchen, 2 beds and a sitting area.  This is unlike a Homewood Suites that separates the living area and bedroom area.  I found it odd and not entirely comfortable.  Although, even though we faced the front of the hotel, right by the front door, I found the room quiet.  Oh, they do have window A/C units...which I generally hate, but this one wasn't so bad.Like I said, it was ok.  I'm glad it was just one night and not an extended stay.  And honestly, I wouldn't return.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded September 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2013</t>
+  </si>
+  <si>
+    <t>After 9 hours on the road with a toddler, I had to stop.  I tried to stay at the Hilton Garden Inn, but they wouldn't honor a discounted rate.  Upset and tired, I got in the car to find somewhere else to stay and the Candlewood is literally right next door.  So, that was why we ended up there.The hotel is ok, bordering on dirty and run-down.  Because I was so tired, I decided to close my eyes and make the best of it.  For some reason, even though I know it is an extended stay type of hotel, I expected they would have a breakfast.  But they don't...just be aware.The room itself was awkward.  One giant room with a kitchen, 2 beds and a sitting area.  This is unlike a Homewood Suites that separates the living area and bedroom area.  I found it odd and not entirely comfortable.  Although, even though we faced the front of the hotel, right by the front door, I found the room quiet.  Oh, they do have window A/C units...which I generally hate, but this one wasn't so bad.Like I said, it was ok.  I'm glad it was just one night and not an extended stay.  And honestly, I wouldn't return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r171959524-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>171959524</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>Nice, friendly hotel. Good kitchen amenities and front desk staff was very friendly and accommodating. Clean room and quiet. The doors to the rooms also closed very slowly so no loud door slams at night. Restaurants and running/walking trails all close by. Right off of the interstate and just a short trip to Downtown Denver. Good walk-in cooler/snack bar as well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r171677809-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>171677809</t>
+  </si>
+  <si>
+    <t>08/10/2013</t>
+  </si>
+  <si>
+    <t>would I stay again?  maybe  maybe not</t>
+  </si>
+  <si>
+    <t>spent a night at this place sight unseen    staff and checkin very smooth and friendly.  nice touch....free drinks from the small concession adjacent to check in for gold members.  room large kitchen well equipped.  a/c going on and off all night long like a jet engine, most annoying!  one bath towel in the room!  not good for a party of 4!didnt use the pool  lots of free parking   good location to the interstate and shopping at park meadows   could be a very nice property, but needs some management savvy and some thought re the cooling!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded August 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2013</t>
+  </si>
+  <si>
+    <t>spent a night at this place sight unseen    staff and checkin very smooth and friendly.  nice touch....free drinks from the small concession adjacent to check in for gold members.  room large kitchen well equipped.  a/c going on and off all night long like a jet engine, most annoying!  one bath towel in the room!  not good for a party of 4!didnt use the pool  lots of free parking   good location to the interstate and shopping at park meadows   could be a very nice property, but needs some management savvy and some thought re the cooling!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r171675416-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>171675416</t>
+  </si>
+  <si>
+    <t>Quiet hotel</t>
+  </si>
+  <si>
+    <t>We had a great night's sleep here (very quiet), even though the room was not as clean as I would have liked. The bedding was stained, and there were some stains in the bathroom. The indoor pool is open 24/7, which was nice because we arrived late and could still swim. It's probably convenient for business travelers working in the area, but is not close to restaurants and other sites in the Denver area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r161886387-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>161886387</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Terrible hotel, Terrible staff</t>
+  </si>
+  <si>
+    <t>I stayed here in April and was completely dissatisfied with my stay.  First, I called around 9:00pm that night to let them know I wouldn't be checking in until around 5:00am and that I WOULD be there.  When I arrived, at 5:13am, the front desk gentlemen acted like I didn't have a reservation.  He wanted my confirmation number and said with a rude tone that he was told I would arrive around 3:00am and since I didn't show he cancelled my reservation that was a 2 night stay.  I was not happy after driving 6 hours to get there in the middle of the night.  Then after waiting 15 more minutes he hands me keys and a paper for me to sign that were sitting next to him the entire time.  So he had my reservation and information to begin with but had to have me wait a total of 20 minutes to check in...  I wanted to switch my credit card and he said I was already charged! What kind of hotel ALREADY CHARGES you?  I have worked at a hotel for 5 years and I know that your card may be authorized at check in but not charged.  I wanted the amount they charged me to be refunded and put on a different card but he said he would have to have someone else do that.  I told him fine I would like a phone call later that...I stayed here in April and was completely dissatisfied with my stay.  First, I called around 9:00pm that night to let them know I wouldn't be checking in until around 5:00am and that I WOULD be there.  When I arrived, at 5:13am, the front desk gentlemen acted like I didn't have a reservation.  He wanted my confirmation number and said with a rude tone that he was told I would arrive around 3:00am and since I didn't show he cancelled my reservation that was a 2 night stay.  I was not happy after driving 6 hours to get there in the middle of the night.  Then after waiting 15 more minutes he hands me keys and a paper for me to sign that were sitting next to him the entire time.  So he had my reservation and information to begin with but had to have me wait a total of 20 minutes to check in...  I wanted to switch my credit card and he said I was already charged! What kind of hotel ALREADY CHARGES you?  I have worked at a hotel for 5 years and I know that your card may be authorized at check in but not charged.  I wanted the amount they charged me to be refunded and put on a different card but he said he would have to have someone else do that.  I told him fine I would like a phone call later that day from the General Manager he said he would.  I never got a phone call from the general manager for the 2 days I stayed.  When my fiance went done to the desk to check us out he waited 15 minutes before someone came up to the desk, which was the general manager, who said he would find someone to check us out.  Did not help us out at all! Besides that, the staff takes personal phone calls at the desk and they DON'T ASK FOR A PHOTO ID AT CHECK IN even when I gave my credit card! That is mandatory.  TERRIBLE STAY!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Glenn W, General Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded May 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here in April and was completely dissatisfied with my stay.  First, I called around 9:00pm that night to let them know I wouldn't be checking in until around 5:00am and that I WOULD be there.  When I arrived, at 5:13am, the front desk gentlemen acted like I didn't have a reservation.  He wanted my confirmation number and said with a rude tone that he was told I would arrive around 3:00am and since I didn't show he cancelled my reservation that was a 2 night stay.  I was not happy after driving 6 hours to get there in the middle of the night.  Then after waiting 15 more minutes he hands me keys and a paper for me to sign that were sitting next to him the entire time.  So he had my reservation and information to begin with but had to have me wait a total of 20 minutes to check in...  I wanted to switch my credit card and he said I was already charged! What kind of hotel ALREADY CHARGES you?  I have worked at a hotel for 5 years and I know that your card may be authorized at check in but not charged.  I wanted the amount they charged me to be refunded and put on a different card but he said he would have to have someone else do that.  I told him fine I would like a phone call later that...I stayed here in April and was completely dissatisfied with my stay.  First, I called around 9:00pm that night to let them know I wouldn't be checking in until around 5:00am and that I WOULD be there.  When I arrived, at 5:13am, the front desk gentlemen acted like I didn't have a reservation.  He wanted my confirmation number and said with a rude tone that he was told I would arrive around 3:00am and since I didn't show he cancelled my reservation that was a 2 night stay.  I was not happy after driving 6 hours to get there in the middle of the night.  Then after waiting 15 more minutes he hands me keys and a paper for me to sign that were sitting next to him the entire time.  So he had my reservation and information to begin with but had to have me wait a total of 20 minutes to check in...  I wanted to switch my credit card and he said I was already charged! What kind of hotel ALREADY CHARGES you?  I have worked at a hotel for 5 years and I know that your card may be authorized at check in but not charged.  I wanted the amount they charged me to be refunded and put on a different card but he said he would have to have someone else do that.  I told him fine I would like a phone call later that day from the General Manager he said he would.  I never got a phone call from the general manager for the 2 days I stayed.  When my fiance went done to the desk to check us out he waited 15 minutes before someone came up to the desk, which was the general manager, who said he would find someone to check us out.  Did not help us out at all! Besides that, the staff takes personal phone calls at the desk and they DON'T ASK FOR A PHOTO ID AT CHECK IN even when I gave my credit card! That is mandatory.  TERRIBLE STAY!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r158154716-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>158154716</t>
+  </si>
+  <si>
+    <t>04/18/2013</t>
+  </si>
+  <si>
+    <t>Room availability &amp; Customer service lacking</t>
+  </si>
+  <si>
+    <t>As someone that has worked in the hospitality industry for many years, I find it a total lack of customer service when the reserved room is not available.  Let me clarify - if you book a certain type of room, and another guest that was already in the hotel decides to spend another night, at least have the courtesy to pick up the phone and call the one with the reservation.  This is happening way too frequently.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded May 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2013</t>
+  </si>
+  <si>
+    <t>As someone that has worked in the hospitality industry for many years, I find it a total lack of customer service when the reserved room is not available.  Let me clarify - if you book a certain type of room, and another guest that was already in the hotel decides to spend another night, at least have the courtesy to pick up the phone and call the one with the reservation.  This is happening way too frequently.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r152217549-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>152217549</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>I stayed here for 13 days. The area is loaded with shops, grocery store, movie theater, etc. but you have to drive. This place was OK. Not OK like alright. OK like so-so. Its definitely on the lower end of the Candlewood scale. Check in was good and they seemed to have fixed the odor problem others wrote about, as I didn't notice anything. The room was fine, clean and properly stocked. The pillows were soft so I went to front desk to get firm ones. Since they had to wait for clean cases he said he would bring them to my room, which after a little while he did. Since I had 2 beds I only exchanged pillows on one and after I put the new cases on the firm pillows I noticed a huge difference. The new cases were fresh and white the other cases were so dirty they were literally yellow! Clearly they do not clean the cases after each stay. OK I understand not cleaning the spread, but the pillow cases have scalp oils, drool, acne ooze and who knows what else from each person. I often throw extra pillows on the floor to block sound and light from under the door. They should be cleaned every time and these looked to have gone several months! Yuk Thankfully I do bring my own pillow to sleep on. On the plus side the firm pillows were very...I stayed here for 13 days. The area is loaded with shops, grocery store, movie theater, etc. but you have to drive. This place was OK. Not OK like alright. OK like so-so. Its definitely on the lower end of the Candlewood scale. Check in was good and they seemed to have fixed the odor problem others wrote about, as I didn't notice anything. The room was fine, clean and properly stocked. The pillows were soft so I went to front desk to get firm ones. Since they had to wait for clean cases he said he would bring them to my room, which after a little while he did. Since I had 2 beds I only exchanged pillows on one and after I put the new cases on the firm pillows I noticed a huge difference. The new cases were fresh and white the other cases were so dirty they were literally yellow! Clearly they do not clean the cases after each stay. OK I understand not cleaning the spread, but the pillow cases have scalp oils, drool, acne ooze and who knows what else from each person. I often throw extra pillows on the floor to block sound and light from under the door. They should be cleaned every time and these looked to have gone several months! Yuk Thankfully I do bring my own pillow to sleep on. On the plus side the firm pillows were very nice.The bed was firm, the decor is the usual Candlewood updates except they opted for the cheap looking light cabinets over the dark espresso with glass inserts that I usually see. The desk/eating table was a bit small but workable. The bathroom was OK. Although the towels seemed a bit worn. The shower head was terrible. My room, 323, faced the freeway but I heard nothing. Usually there are trash cans at the end of the hall, in fact it says so on the cabinet door under the sink, but there are none. I asked the front desk where they were and he said they don't have any trash cans anywhere, I should just put my trash outside the door. I dislike that. It's low class, looks bad, contributes to bad odors and attracts bugs. I don't want to walk by or see bags of trash in the hallway of my hotel. I expect that at other types of hotels but not Candlewood.The laundry "room" consisted of 4 each front load washer/dryers stacked into a small closet area with nothing else. Barely space for 2 people, definitely no room for folding or sorting.  I did not use the food Cupboard, but it was also the smallest I have ever seen at a Candlewood.The worst part came near the end of my stay when the fire alarm went off at 4am. The alarm itself had no obvious fire notations. For instance the room I am in right now has FIRE on it in big red letters. And a black stick figure running from a red flame, that can be seen across the room. The one here had nothing just a small running stick figure molded into the case in the same color that I could not see until I inspected it up close later. So when it went off, I wasn't sure what it was, especially since I was in a dead sleep. Additionally it was so loud my ears felt brutally assaulted and rang for a full day afterward. When I called the front desk, the teen casually informed me "That's our fire alarm" I asked was it real should I leave and he said "I suggest you do"  Yes I am an adult, but I was sleepy, startled and a bit confused I would have appreciated a little more info. "That's our fire alarm, please gather your valuables and proceed to the lobby or parking lot via the stairs"-would have been better. I looked into the hallway and saw firemen who mentioned it was burning food, so I opted to stay in my room. Then the family of 4 who burnt the popcorn was moved to the room next to mine, so I knew it was time to go. I checked out the next morning and thought how terrible it would be if something serious happened and there was nothing but teenagers running the hotel. Which seems to be the case these days. Most of the kids here were pleasant but it would be nice if retired persons were hired for these positions, I'm sure I would have gotten more helpful support with the fire event if the front desk people were adults.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded February 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for 13 days. The area is loaded with shops, grocery store, movie theater, etc. but you have to drive. This place was OK. Not OK like alright. OK like so-so. Its definitely on the lower end of the Candlewood scale. Check in was good and they seemed to have fixed the odor problem others wrote about, as I didn't notice anything. The room was fine, clean and properly stocked. The pillows were soft so I went to front desk to get firm ones. Since they had to wait for clean cases he said he would bring them to my room, which after a little while he did. Since I had 2 beds I only exchanged pillows on one and after I put the new cases on the firm pillows I noticed a huge difference. The new cases were fresh and white the other cases were so dirty they were literally yellow! Clearly they do not clean the cases after each stay. OK I understand not cleaning the spread, but the pillow cases have scalp oils, drool, acne ooze and who knows what else from each person. I often throw extra pillows on the floor to block sound and light from under the door. They should be cleaned every time and these looked to have gone several months! Yuk Thankfully I do bring my own pillow to sleep on. On the plus side the firm pillows were very...I stayed here for 13 days. The area is loaded with shops, grocery store, movie theater, etc. but you have to drive. This place was OK. Not OK like alright. OK like so-so. Its definitely on the lower end of the Candlewood scale. Check in was good and they seemed to have fixed the odor problem others wrote about, as I didn't notice anything. The room was fine, clean and properly stocked. The pillows were soft so I went to front desk to get firm ones. Since they had to wait for clean cases he said he would bring them to my room, which after a little while he did. Since I had 2 beds I only exchanged pillows on one and after I put the new cases on the firm pillows I noticed a huge difference. The new cases were fresh and white the other cases were so dirty they were literally yellow! Clearly they do not clean the cases after each stay. OK I understand not cleaning the spread, but the pillow cases have scalp oils, drool, acne ooze and who knows what else from each person. I often throw extra pillows on the floor to block sound and light from under the door. They should be cleaned every time and these looked to have gone several months! Yuk Thankfully I do bring my own pillow to sleep on. On the plus side the firm pillows were very nice.The bed was firm, the decor is the usual Candlewood updates except they opted for the cheap looking light cabinets over the dark espresso with glass inserts that I usually see. The desk/eating table was a bit small but workable. The bathroom was OK. Although the towels seemed a bit worn. The shower head was terrible. My room, 323, faced the freeway but I heard nothing. Usually there are trash cans at the end of the hall, in fact it says so on the cabinet door under the sink, but there are none. I asked the front desk where they were and he said they don't have any trash cans anywhere, I should just put my trash outside the door. I dislike that. It's low class, looks bad, contributes to bad odors and attracts bugs. I don't want to walk by or see bags of trash in the hallway of my hotel. I expect that at other types of hotels but not Candlewood.The laundry "room" consisted of 4 each front load washer/dryers stacked into a small closet area with nothing else. Barely space for 2 people, definitely no room for folding or sorting.  I did not use the food Cupboard, but it was also the smallest I have ever seen at a Candlewood.The worst part came near the end of my stay when the fire alarm went off at 4am. The alarm itself had no obvious fire notations. For instance the room I am in right now has FIRE on it in big red letters. And a black stick figure running from a red flame, that can be seen across the room. The one here had nothing just a small running stick figure molded into the case in the same color that I could not see until I inspected it up close later. So when it went off, I wasn't sure what it was, especially since I was in a dead sleep. Additionally it was so loud my ears felt brutally assaulted and rang for a full day afterward. When I called the front desk, the teen casually informed me "That's our fire alarm" I asked was it real should I leave and he said "I suggest you do"  Yes I am an adult, but I was sleepy, startled and a bit confused I would have appreciated a little more info. "That's our fire alarm, please gather your valuables and proceed to the lobby or parking lot via the stairs"-would have been better. I looked into the hallway and saw firemen who mentioned it was burning food, so I opted to stay in my room. Then the family of 4 who burnt the popcorn was moved to the room next to mine, so I knew it was time to go. I checked out the next morning and thought how terrible it would be if something serious happened and there was nothing but teenagers running the hotel. Which seems to be the case these days. Most of the kids here were pleasant but it would be nice if retired persons were hired for these positions, I'm sure I would have gotten more helpful support with the fire event if the front desk people were adults.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r141703492-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>141703492</t>
+  </si>
+  <si>
+    <t>09/30/2012</t>
+  </si>
+  <si>
+    <t>Noisy, not clean, inadequate drapes</t>
+  </si>
+  <si>
+    <t>This motel has little to distinguish itself.  The drapes blocked neither sunlight nor ambient light pollution from the area.  Room cleanliness was OK but the hallways were filthy and not cleaned during my stay, nor was the elevator working.  My room was directly above a function room on the first floor, which hosted a wedding reception - the dj was so loud my room shook.  No response from the front desk other than to give me the closing time - luckily the reception ended early.  The refrigerator was malfunctioning - I unplugged it rather than wait for a fix.  No worthwhile food service in the motel or nearby - take your pick from the strip malls nearby.  There is a good fitness center within a 5-minute drive, but otherwise the area is sterile in terms of attractions.  Stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded October 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2012</t>
+  </si>
+  <si>
+    <t>This motel has little to distinguish itself.  The drapes blocked neither sunlight nor ambient light pollution from the area.  Room cleanliness was OK but the hallways were filthy and not cleaned during my stay, nor was the elevator working.  My room was directly above a function room on the first floor, which hosted a wedding reception - the dj was so loud my room shook.  No response from the front desk other than to give me the closing time - luckily the reception ended early.  The refrigerator was malfunctioning - I unplugged it rather than wait for a fix.  No worthwhile food service in the motel or nearby - take your pick from the strip malls nearby.  There is a good fitness center within a 5-minute drive, but otherwise the area is sterile in terms of attractions.  Stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r134701460-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>134701460</t>
+  </si>
+  <si>
+    <t>07/17/2012</t>
+  </si>
+  <si>
+    <t>I agree, not a clean place</t>
+  </si>
+  <si>
+    <t>Horrible smell in hallways and bed sheets. I spent 3 nights sleeping in the living room to avoid the bedroom odor. Extremely unpleasant stay. Avoid.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r134100304-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>134100304</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>Enjoyed Visit</t>
+  </si>
+  <si>
+    <t>Good service at front desk.  For families, in a bit of a tough location for easy access to restaurants.  But had a great rate and the rooms were clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r125663761-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>125663761</t>
+  </si>
+  <si>
+    <t>03/05/2012</t>
+  </si>
+  <si>
+    <t>Not a great place t stay</t>
+  </si>
+  <si>
+    <t>I booked the hotel for a week for a business visit in Englewood. Hotel Smells very bad. No hot water was provided for 2.5 days and management asked us to look for an alternate hotel when asked for any alternate means.No hot water on a Cold Feb night is terrible. Hotel management does not understand the pain of the travellersMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded March 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2012</t>
+  </si>
+  <si>
+    <t>I booked the hotel for a week for a business visit in Englewood. Hotel Smells very bad. No hot water was provided for 2.5 days and management asked us to look for an alternate hotel when asked for any alternate means.No hot water on a Cold Feb night is terrible. Hotel management does not understand the pain of the travellersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r125530803-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>125530803</t>
+  </si>
+  <si>
+    <t>03/02/2012</t>
+  </si>
+  <si>
+    <t>This is NOT one of the nicest Candlewoods</t>
+  </si>
+  <si>
+    <t>Waited 20min at front desk  when I arrived (along with another gentleman) to check in at 10:00pm front desk girl no where to be found! Shower head a joke! Sprayed all Over the bathroom and the shower head felt like it was pelting you. I walked by the front desk and heard another guest complaining about their shower head too- so isn't wasn't just mine. The jacuzzi had so much chlorine my husband and I could only bare it doe about 3min it was burning our eyes So bad. Overall stay ok- but they need to change something's..!MoreShow less</t>
+  </si>
+  <si>
+    <t>Waited 20min at front desk  when I arrived (along with another gentleman) to check in at 10:00pm front desk girl no where to be found! Shower head a joke! Sprayed all Over the bathroom and the shower head felt like it was pelting you. I walked by the front desk and heard another guest complaining about their shower head too- so isn't wasn't just mine. The jacuzzi had so much chlorine my husband and I could only bare it doe about 3min it was burning our eyes So bad. Overall stay ok- but they need to change something's..!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r125061277-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>125061277</t>
+  </si>
+  <si>
+    <t>02/22/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>This is an ok hotel. Looks nice. Nice price. Spacious one bedroom with full kitchen. Only bad thing is that this hotel has a bad smell. Take air freshener , and scented candles to cover the bad smells. No breakfast here but the have a little store by lobby to purchase a variety of stuff. Great great prices on everything here. Cool place ...free washer and dryer too :) and free movie rentalsMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded March 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2012</t>
+  </si>
+  <si>
+    <t>This is an ok hotel. Looks nice. Nice price. Spacious one bedroom with full kitchen. Only bad thing is that this hotel has a bad smell. Take air freshener , and scented candles to cover the bad smells. No breakfast here but the have a little store by lobby to purchase a variety of stuff. Great great prices on everything here. Cool place ...free washer and dryer too :) and free movie rentalsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r85714333-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>85714333</t>
+  </si>
+  <si>
+    <t>11/02/2010</t>
+  </si>
+  <si>
+    <t>Home away from home!</t>
+  </si>
+  <si>
+    <t>I stayed here for 5 months while working in the Denver area. I have to say I was sad to leave. Everyone on the staff was friendly and accommodating. The hotel is new and clean. The bed was comfortable. Flat screens in living room and bedroom. Free Laundry. This place was perfect for my stay away from home. This is a extended stay above the rest and I've stayed at many. If you want to be pampered like a luxury hotel don't bother.  If you want a good value, friendly staff, comfortable no hassles of typical corporate hotels. I recommend this place. I even made friends with other residents and we took site seeing trips on weekends and met at the BBQ grill on sunday evenings some friends for life.  Danny, KCMOMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>I stayed here for 5 months while working in the Denver area. I have to say I was sad to leave. Everyone on the staff was friendly and accommodating. The hotel is new and clean. The bed was comfortable. Flat screens in living room and bedroom. Free Laundry. This place was perfect for my stay away from home. This is a extended stay above the rest and I've stayed at many. If you want to be pampered like a luxury hotel don't bother.  If you want a good value, friendly staff, comfortable no hassles of typical corporate hotels. I recommend this place. I even made friends with other residents and we took site seeing trips on weekends and met at the BBQ grill on sunday evenings some friends for life.  Danny, KCMOMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r83179521-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>83179521</t>
+  </si>
+  <si>
+    <t>10/12/2010</t>
+  </si>
+  <si>
+    <t>Excellent Place To Stay</t>
+  </si>
+  <si>
+    <t>We took a trip to Denver for a short vacation in August, 2010 and stayed at the hotel. It was a great place and fairly new.  The rooms were great that included a kitchenette.   We would highly recommend it.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r58022759-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>58022759</t>
+  </si>
+  <si>
+    <t>03/08/2010</t>
+  </si>
+  <si>
+    <t>this is a very poorly run hotel, i dont recommend staying here</t>
+  </si>
+  <si>
+    <t>well where do i start. for beginners i called the property prior to my arrival and asked if they had a airport shuttle and i was advised that they didn't and was told that i could get a taxi for 50 dollars.  WRONG. it was 80 dollars. do you think they even said they were sorry when i arrived furious, nope they sure didn't.  Then I requested to be on the top floor (4th floor) as I cannot tolerate hearing people stomp above me, keeping in mind that I am a platinum member with this chain which is the highest recognition that one can be. They put me on the 3rd floor and I was to stay 80 nights but after a whole week of stomping above me 24/7 and I could not get the management to do anything about it I checked out and took my business elsewhere. They did after I complained for 4 days offer to downgrade me to a studio from a one bedroom. This hotel is set up just like an apartment and intended for long term business, however they have turned it into a apartment complex, when I complained about the noise one final time I was advised that the people above me had been there over a year. I guess that gives them the right to disturb others. I can tell you the problem the management there are all very young. the general...well where do i start. for beginners i called the property prior to my arrival and asked if they had a airport shuttle and i was advised that they didn't and was told that i could get a taxi for 50 dollars.  WRONG. it was 80 dollars. do you think they even said they were sorry when i arrived furious, nope they sure didn't.  Then I requested to be on the top floor (4th floor) as I cannot tolerate hearing people stomp above me, keeping in mind that I am a platinum member with this chain which is the highest recognition that one can be. They put me on the 3rd floor and I was to stay 80 nights but after a whole week of stomping above me 24/7 and I could not get the management to do anything about it I checked out and took my business elsewhere. They did after I complained for 4 days offer to downgrade me to a studio from a one bedroom. This hotel is set up just like an apartment and intended for long term business, however they have turned it into a apartment complex, when I complained about the noise one final time I was advised that the people above me had been there over a year. I guess that gives them the right to disturb others. I can tell you the problem the management there are all very young. the general manager is in his early 20's and the operations manger is under 21. They wear whatever they want to work and don't take their jobs very seriously. Good luck if you ask one of them for a taxi or directions or where the nearest restaurants, shopping are. They have no clue. I wouldn't be so bothered by that if they said something along the lines of "I don't know but let me get online and look it up for you". Since I brought up internet let me tell you what a joke the internet is there, dial-up is by far much faster. The company that they use gives them 1.5mbps for the entire property. They don't have any mac filtering so one can do anything they want on their while everyone else suffers. Let's move on to the pool and jacuzzi, we went down and got into the jacuzzi the first night we were there and when we turned the jets on and the water started moving this terrible smell started rising from the water. So we immediately got out and notified the management who said we will call someone, what did they do? Glad you asked, they went out there 2 days later and just emptied the water and filled the jacuzzi back up with water and NO chemicals whatsoever. I'm guessing the health department doesn't inspect these places too often. There was always towels and trash all around the pool area because the front desk staff never gets up out of their chairs to do anything. Since they have people just living out of this property they allow them to do whatever they want to, children unattended running the halls all hours of the day and night like they are on a playground somewhere. People putting trash outside their doors and it sits there for days. The sad part is that this is a really nice hotel, they need to have a more mature and experienced management who plays an active role in the daily management and maintenance and upkeep of the property. Customer service needs much improvement. And security at night would be a really good idea.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>well where do i start. for beginners i called the property prior to my arrival and asked if they had a airport shuttle and i was advised that they didn't and was told that i could get a taxi for 50 dollars.  WRONG. it was 80 dollars. do you think they even said they were sorry when i arrived furious, nope they sure didn't.  Then I requested to be on the top floor (4th floor) as I cannot tolerate hearing people stomp above me, keeping in mind that I am a platinum member with this chain which is the highest recognition that one can be. They put me on the 3rd floor and I was to stay 80 nights but after a whole week of stomping above me 24/7 and I could not get the management to do anything about it I checked out and took my business elsewhere. They did after I complained for 4 days offer to downgrade me to a studio from a one bedroom. This hotel is set up just like an apartment and intended for long term business, however they have turned it into a apartment complex, when I complained about the noise one final time I was advised that the people above me had been there over a year. I guess that gives them the right to disturb others. I can tell you the problem the management there are all very young. the general...well where do i start. for beginners i called the property prior to my arrival and asked if they had a airport shuttle and i was advised that they didn't and was told that i could get a taxi for 50 dollars.  WRONG. it was 80 dollars. do you think they even said they were sorry when i arrived furious, nope they sure didn't.  Then I requested to be on the top floor (4th floor) as I cannot tolerate hearing people stomp above me, keeping in mind that I am a platinum member with this chain which is the highest recognition that one can be. They put me on the 3rd floor and I was to stay 80 nights but after a whole week of stomping above me 24/7 and I could not get the management to do anything about it I checked out and took my business elsewhere. They did after I complained for 4 days offer to downgrade me to a studio from a one bedroom. This hotel is set up just like an apartment and intended for long term business, however they have turned it into a apartment complex, when I complained about the noise one final time I was advised that the people above me had been there over a year. I guess that gives them the right to disturb others. I can tell you the problem the management there are all very young. the general manager is in his early 20's and the operations manger is under 21. They wear whatever they want to work and don't take their jobs very seriously. Good luck if you ask one of them for a taxi or directions or where the nearest restaurants, shopping are. They have no clue. I wouldn't be so bothered by that if they said something along the lines of "I don't know but let me get online and look it up for you". Since I brought up internet let me tell you what a joke the internet is there, dial-up is by far much faster. The company that they use gives them 1.5mbps for the entire property. They don't have any mac filtering so one can do anything they want on their while everyone else suffers. Let's move on to the pool and jacuzzi, we went down and got into the jacuzzi the first night we were there and when we turned the jets on and the water started moving this terrible smell started rising from the water. So we immediately got out and notified the management who said we will call someone, what did they do? Glad you asked, they went out there 2 days later and just emptied the water and filled the jacuzzi back up with water and NO chemicals whatsoever. I'm guessing the health department doesn't inspect these places too often. There was always towels and trash all around the pool area because the front desk staff never gets up out of their chairs to do anything. Since they have people just living out of this property they allow them to do whatever they want to, children unattended running the halls all hours of the day and night like they are on a playground somewhere. People putting trash outside their doors and it sits there for days. The sad part is that this is a really nice hotel, they need to have a more mature and experienced management who plays an active role in the daily management and maintenance and upkeep of the property. Customer service needs much improvement. And security at night would be a really good idea.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r22789915-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>22789915</t>
+  </si>
+  <si>
+    <t>12/16/2008</t>
+  </si>
+  <si>
+    <t>Will stay again</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by this hotel. For $85 you can stay in a 1br apartment with 32" LCD HDTV in your bedroom and dining room. Of course, suite comes with kitchen with full amenities.Staff is friendly, building is clean and seems it is recently built. The only problem was that water's temperature in shower was between 'cool' and 'warm', however water was quite hot in kitchen. Next morning it still was not hot enough to enjoy shower more than 5 minutes.I hope this was localized incident. I plan to stay there again while in Denver.</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r20233778-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>20233778</t>
+  </si>
+  <si>
+    <t>09/20/2008</t>
+  </si>
+  <si>
+    <t>Nice, clean and convenient</t>
+  </si>
+  <si>
+    <t>This is your typical long term stay hotel with suites and kitchenettes.  It is new (about a year old) and the people are friendly and it is very clean (even though there is no daily housekeeping service - it is weekly).  There is a small pool and workout area and the pool even has a small hottub.  There is no continental breakfast as each unit has a small kitchenette with refrig., microwave, dishwasher and stove-top.  I like this touch as I get tired of eating out so much and it is nice to come back to your room and cook what you want.  There are some nice restaurants right next door (Hacienda, Pan-Asia Bistro, Carrabas, etc.).  This hotel is located in the Meridian Business Park and there is a nice golf course right across the street (didn't play it but it looked nice).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>This is your typical long term stay hotel with suites and kitchenettes.  It is new (about a year old) and the people are friendly and it is very clean (even though there is no daily housekeeping service - it is weekly).  There is a small pool and workout area and the pool even has a small hottub.  There is no continental breakfast as each unit has a small kitchenette with refrig., microwave, dishwasher and stove-top.  I like this touch as I get tired of eating out so much and it is nice to come back to your room and cook what you want.  There are some nice restaurants right next door (Hacienda, Pan-Asia Bistro, Carrabas, etc.).  This hotel is located in the Meridian Business Park and there is a nice golf course right across the street (didn't play it but it looked nice).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r17751404-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>17751404</t>
+  </si>
+  <si>
+    <t>07/10/2008</t>
+  </si>
+  <si>
+    <t>Clean and Functional for Families</t>
+  </si>
+  <si>
+    <t>Just got back from a 2.5 day stay at the Candlewood in Englewood, Co during the 4th of July weekend.  I think the hotel is very clean as it is fairly new and very functional for families.  We had booked two suites, a 2-bedroom and a 1 bedroom suite.  When we arrived at approximately 12:30 PM 2.5 hours prior to check-in, we were told our two bedroom had been given to someone else--rather that the people had been there for several weeks already but they chose to extend their stay.  Needless to say we needed this two bedroom for a new couple with three children and the grandmother.  We chose this room for the extra 2 beds in the 2nd bedroom and the sofa sleeper in addition to the privacy of having 2 bedrooms with 3 little girls in the suite.  So Gary, the hotel manager gave us 3 1-bedroom suites along with a king studio suite for the price we would pay for the 2 rooms we initially reserved (with credit card and confirmation numbers).  This was a great deal except the rooms were on two separate floors and a couple of doors down from each other.  But again, it was a great deal.  Gary was adamant that he was going to make this situation right for us.  Thanks, Gary!!!!
+The only problems we really had with our accommodations was the elevator kept breaking down.  There only appeared to...Just got back from a 2.5 day stay at the Candlewood in Englewood, Co during the 4th of July weekend.  I think the hotel is very clean as it is fairly new and very functional for families.  We had booked two suites, a 2-bedroom and a 1 bedroom suite.  When we arrived at approximately 12:30 PM 2.5 hours prior to check-in, we were told our two bedroom had been given to someone else--rather that the people had been there for several weeks already but they chose to extend their stay.  Needless to say we needed this two bedroom for a new couple with three children and the grandmother.  We chose this room for the extra 2 beds in the 2nd bedroom and the sofa sleeper in addition to the privacy of having 2 bedrooms with 3 little girls in the suite.  So Gary, the hotel manager gave us 3 1-bedroom suites along with a king studio suite for the price we would pay for the 2 rooms we initially reserved (with credit card and confirmation numbers).  This was a great deal except the rooms were on two separate floors and a couple of doors down from each other.  But again, it was a great deal.  Gary was adamant that he was going to make this situation right for us.  Thanks, Gary!!!!The only problems we really had with our accommodations was the elevator kept breaking down.  There only appeared to be one elevator which is slow as molasses anyway....  but worse to have to walk up 4 flights of stairs to one pair of rooms (and 3 flights to the 2nd pair of rooms).  Last winter, the grandmother broke her leg in several places and although is pretty much healed, has to walk with a cane and very slowly.  So the broken elevators did not go over very well.They have a nice canteen/snack area at reasonal prices--50 cents for a coca cola and other brand name sodas.  $1.00 for juice, Otis Spunkemeyer muffins, fruit, toiletries, etc.  The pool is very small, but better than no pool at all.  Small exercise room, but neverless they had one.  Parking is free.  Again the hotel is new and you can't go wrong with a nice new, clean hotel.  They should have had two elevators though....  And need to make sure the one they have is always working.Oh, we were able to secure a late check out so I was able to go to church and check out at 2:00 p.m.  Again, hats off to Gary and his staff!!!!!Yes, I would definitely stay here again.  I highly recommend it for families.  Two TVs in the 1 bedroom suites, kitchen, sofa sleeper, big sitting chair, pots and pans, dishes, silverware, free popcorn in the microwave, two burner stove, large fridge, potholders, t-towels, etc.  I assume the same for 2 bedrooms.  They were running a manager's special, so we had an extremely good deal.Located in a brand new area in Englewood.  Minutes from Denver on I-25.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just got back from a 2.5 day stay at the Candlewood in Englewood, Co during the 4th of July weekend.  I think the hotel is very clean as it is fairly new and very functional for families.  We had booked two suites, a 2-bedroom and a 1 bedroom suite.  When we arrived at approximately 12:30 PM 2.5 hours prior to check-in, we were told our two bedroom had been given to someone else--rather that the people had been there for several weeks already but they chose to extend their stay.  Needless to say we needed this two bedroom for a new couple with three children and the grandmother.  We chose this room for the extra 2 beds in the 2nd bedroom and the sofa sleeper in addition to the privacy of having 2 bedrooms with 3 little girls in the suite.  So Gary, the hotel manager gave us 3 1-bedroom suites along with a king studio suite for the price we would pay for the 2 rooms we initially reserved (with credit card and confirmation numbers).  This was a great deal except the rooms were on two separate floors and a couple of doors down from each other.  But again, it was a great deal.  Gary was adamant that he was going to make this situation right for us.  Thanks, Gary!!!!
+The only problems we really had with our accommodations was the elevator kept breaking down.  There only appeared to...Just got back from a 2.5 day stay at the Candlewood in Englewood, Co during the 4th of July weekend.  I think the hotel is very clean as it is fairly new and very functional for families.  We had booked two suites, a 2-bedroom and a 1 bedroom suite.  When we arrived at approximately 12:30 PM 2.5 hours prior to check-in, we were told our two bedroom had been given to someone else--rather that the people had been there for several weeks already but they chose to extend their stay.  Needless to say we needed this two bedroom for a new couple with three children and the grandmother.  We chose this room for the extra 2 beds in the 2nd bedroom and the sofa sleeper in addition to the privacy of having 2 bedrooms with 3 little girls in the suite.  So Gary, the hotel manager gave us 3 1-bedroom suites along with a king studio suite for the price we would pay for the 2 rooms we initially reserved (with credit card and confirmation numbers).  This was a great deal except the rooms were on two separate floors and a couple of doors down from each other.  But again, it was a great deal.  Gary was adamant that he was going to make this situation right for us.  Thanks, Gary!!!!The only problems we really had with our accommodations was the elevator kept breaking down.  There only appeared to be one elevator which is slow as molasses anyway....  but worse to have to walk up 4 flights of stairs to one pair of rooms (and 3 flights to the 2nd pair of rooms).  Last winter, the grandmother broke her leg in several places and although is pretty much healed, has to walk with a cane and very slowly.  So the broken elevators did not go over very well.They have a nice canteen/snack area at reasonal prices--50 cents for a coca cola and other brand name sodas.  $1.00 for juice, Otis Spunkemeyer muffins, fruit, toiletries, etc.  The pool is very small, but better than no pool at all.  Small exercise room, but neverless they had one.  Parking is free.  Again the hotel is new and you can't go wrong with a nice new, clean hotel.  They should have had two elevators though....  And need to make sure the one they have is always working.Oh, we were able to secure a late check out so I was able to go to church and check out at 2:00 p.m.  Again, hats off to Gary and his staff!!!!!Yes, I would definitely stay here again.  I highly recommend it for families.  Two TVs in the 1 bedroom suites, kitchen, sofa sleeper, big sitting chair, pots and pans, dishes, silverware, free popcorn in the microwave, two burner stove, large fridge, potholders, t-towels, etc.  I assume the same for 2 bedrooms.  They were running a manager's special, so we had an extremely good deal.Located in a brand new area in Englewood.  Minutes from Denver on I-25.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2042,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2074,4339 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>142</v>
+      </c>
+      <c r="X14" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>150</v>
+      </c>
+      <c r="X15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>150</v>
+      </c>
+      <c r="X18" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>182</v>
+      </c>
+      <c r="O19" t="s">
+        <v>183</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>150</v>
+      </c>
+      <c r="X19" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J23" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>207</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>208</v>
+      </c>
+      <c r="X23" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" t="s">
+        <v>214</v>
+      </c>
+      <c r="L24" t="s">
+        <v>215</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>207</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>216</v>
+      </c>
+      <c r="X24" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>207</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>224</v>
+      </c>
+      <c r="X25" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>232</v>
+      </c>
+      <c r="O26" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>233</v>
+      </c>
+      <c r="X26" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>237</v>
+      </c>
+      <c r="J27" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>233</v>
+      </c>
+      <c r="X27" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>255</v>
+      </c>
+      <c r="J30" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" t="s">
+        <v>258</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>259</v>
+      </c>
+      <c r="O30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>262</v>
+      </c>
+      <c r="J31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>266</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>267</v>
+      </c>
+      <c r="X31" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>275</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>276</v>
+      </c>
+      <c r="X32" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>280</v>
+      </c>
+      <c r="J33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s">
+        <v>282</v>
+      </c>
+      <c r="L33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>284</v>
+      </c>
+      <c r="X33" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" t="s">
+        <v>281</v>
+      </c>
+      <c r="K34" t="s">
+        <v>289</v>
+      </c>
+      <c r="L34" t="s">
+        <v>290</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>284</v>
+      </c>
+      <c r="X34" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>293</v>
+      </c>
+      <c r="J35" t="s">
+        <v>294</v>
+      </c>
+      <c r="K35" t="s">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s">
+        <v>296</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>297</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>298</v>
+      </c>
+      <c r="X35" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>302</v>
+      </c>
+      <c r="J36" t="s">
+        <v>303</v>
+      </c>
+      <c r="K36" t="s">
+        <v>304</v>
+      </c>
+      <c r="L36" t="s">
+        <v>305</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>306</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>307</v>
+      </c>
+      <c r="X36" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>311</v>
+      </c>
+      <c r="J37" t="s">
+        <v>312</v>
+      </c>
+      <c r="K37" t="s">
+        <v>313</v>
+      </c>
+      <c r="L37" t="s">
+        <v>314</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>315</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>316</v>
+      </c>
+      <c r="X37" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" t="s">
+        <v>322</v>
+      </c>
+      <c r="L38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>315</v>
+      </c>
+      <c r="O38" t="s">
+        <v>101</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>325</v>
+      </c>
+      <c r="J39" t="s">
+        <v>326</v>
+      </c>
+      <c r="K39" t="s">
+        <v>327</v>
+      </c>
+      <c r="L39" t="s">
+        <v>328</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>331</v>
+      </c>
+      <c r="J40" t="s">
+        <v>332</v>
+      </c>
+      <c r="K40" t="s">
+        <v>333</v>
+      </c>
+      <c r="L40" t="s">
+        <v>334</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>297</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>335</v>
+      </c>
+      <c r="X40" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>338</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>339</v>
+      </c>
+      <c r="J41" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" t="s">
+        <v>341</v>
+      </c>
+      <c r="L41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>343</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>344</v>
+      </c>
+      <c r="X41" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>347</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>352</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>353</v>
+      </c>
+      <c r="X42" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>356</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>357</v>
+      </c>
+      <c r="J43" t="s">
+        <v>358</v>
+      </c>
+      <c r="K43" t="s">
+        <v>359</v>
+      </c>
+      <c r="L43" t="s">
+        <v>360</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>361</v>
+      </c>
+      <c r="X43" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>364</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>365</v>
+      </c>
+      <c r="J44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K44" t="s">
+        <v>367</v>
+      </c>
+      <c r="L44" t="s">
+        <v>368</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>369</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>371</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>372</v>
+      </c>
+      <c r="J45" t="s">
+        <v>373</v>
+      </c>
+      <c r="K45" t="s">
+        <v>374</v>
+      </c>
+      <c r="L45" t="s">
+        <v>375</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>369</v>
+      </c>
+      <c r="O45" t="s">
+        <v>101</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>376</v>
+      </c>
+      <c r="X45" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>380</v>
+      </c>
+      <c r="J46" t="s">
+        <v>381</v>
+      </c>
+      <c r="K46" t="s">
+        <v>382</v>
+      </c>
+      <c r="L46" t="s">
+        <v>383</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>384</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>385</v>
+      </c>
+      <c r="X46" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>388</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>389</v>
+      </c>
+      <c r="J47" t="s">
+        <v>390</v>
+      </c>
+      <c r="K47" t="s">
+        <v>391</v>
+      </c>
+      <c r="L47" t="s">
+        <v>392</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>393</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>394</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>395</v>
+      </c>
+      <c r="J48" t="s">
+        <v>396</v>
+      </c>
+      <c r="K48" t="s">
+        <v>397</v>
+      </c>
+      <c r="L48" t="s">
+        <v>398</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>399</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>400</v>
+      </c>
+      <c r="J49" t="s">
+        <v>401</v>
+      </c>
+      <c r="K49" t="s">
+        <v>402</v>
+      </c>
+      <c r="L49" t="s">
+        <v>403</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>404</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>405</v>
+      </c>
+      <c r="X49" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>408</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>409</v>
+      </c>
+      <c r="J50" t="s">
+        <v>410</v>
+      </c>
+      <c r="K50" t="s">
+        <v>411</v>
+      </c>
+      <c r="L50" t="s">
+        <v>412</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>404</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>413</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>414</v>
+      </c>
+      <c r="J51" t="s">
+        <v>415</v>
+      </c>
+      <c r="K51" t="s">
+        <v>416</v>
+      </c>
+      <c r="L51" t="s">
+        <v>417</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>404</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>418</v>
+      </c>
+      <c r="X51" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>421</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>422</v>
+      </c>
+      <c r="J52" t="s">
+        <v>415</v>
+      </c>
+      <c r="K52" t="s">
+        <v>423</v>
+      </c>
+      <c r="L52" t="s">
+        <v>424</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>404</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>425</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>426</v>
+      </c>
+      <c r="J53" t="s">
+        <v>427</v>
+      </c>
+      <c r="K53" t="s">
+        <v>428</v>
+      </c>
+      <c r="L53" t="s">
+        <v>429</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>430</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>431</v>
+      </c>
+      <c r="X53" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>434</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>435</v>
+      </c>
+      <c r="J54" t="s">
+        <v>436</v>
+      </c>
+      <c r="K54" t="s">
+        <v>437</v>
+      </c>
+      <c r="L54" t="s">
+        <v>438</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>430</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>439</v>
+      </c>
+      <c r="X54" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>442</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>443</v>
+      </c>
+      <c r="J55" t="s">
+        <v>444</v>
+      </c>
+      <c r="K55" t="s">
+        <v>445</v>
+      </c>
+      <c r="L55" t="s">
+        <v>446</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>447</v>
+      </c>
+      <c r="O55" t="s">
+        <v>183</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>448</v>
+      </c>
+      <c r="X55" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>451</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>452</v>
+      </c>
+      <c r="J56" t="s">
+        <v>453</v>
+      </c>
+      <c r="K56" t="s">
+        <v>454</v>
+      </c>
+      <c r="L56" t="s">
+        <v>455</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>456</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>457</v>
+      </c>
+      <c r="X56" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>460</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>461</v>
+      </c>
+      <c r="J57" t="s">
+        <v>462</v>
+      </c>
+      <c r="K57" t="s">
+        <v>463</v>
+      </c>
+      <c r="L57" t="s">
+        <v>464</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>465</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>466</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>467</v>
+      </c>
+      <c r="J58" t="s">
+        <v>468</v>
+      </c>
+      <c r="K58" t="s">
+        <v>469</v>
+      </c>
+      <c r="L58" t="s">
+        <v>470</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>465</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>471</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>472</v>
+      </c>
+      <c r="J59" t="s">
+        <v>473</v>
+      </c>
+      <c r="K59" t="s">
+        <v>474</v>
+      </c>
+      <c r="L59" t="s">
+        <v>475</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>476</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>477</v>
+      </c>
+      <c r="X59" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>480</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>481</v>
+      </c>
+      <c r="J60" t="s">
+        <v>482</v>
+      </c>
+      <c r="K60" t="s">
+        <v>483</v>
+      </c>
+      <c r="L60" t="s">
+        <v>484</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>477</v>
+      </c>
+      <c r="X60" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>486</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>487</v>
+      </c>
+      <c r="J61" t="s">
+        <v>488</v>
+      </c>
+      <c r="K61" t="s">
+        <v>489</v>
+      </c>
+      <c r="L61" t="s">
+        <v>490</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>491</v>
+      </c>
+      <c r="X61" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>494</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>495</v>
+      </c>
+      <c r="J62" t="s">
+        <v>496</v>
+      </c>
+      <c r="K62" t="s">
+        <v>497</v>
+      </c>
+      <c r="L62" t="s">
+        <v>498</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>499</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>501</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>502</v>
+      </c>
+      <c r="J63" t="s">
+        <v>503</v>
+      </c>
+      <c r="K63" t="s">
+        <v>504</v>
+      </c>
+      <c r="L63" t="s">
+        <v>505</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>506</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>507</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>508</v>
+      </c>
+      <c r="J64" t="s">
+        <v>509</v>
+      </c>
+      <c r="K64" t="s">
+        <v>510</v>
+      </c>
+      <c r="L64" t="s">
+        <v>511</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>512</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>514</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>515</v>
+      </c>
+      <c r="J65" t="s">
+        <v>516</v>
+      </c>
+      <c r="K65" t="s">
+        <v>517</v>
+      </c>
+      <c r="L65" t="s">
+        <v>518</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>519</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>520</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>521</v>
+      </c>
+      <c r="J66" t="s">
+        <v>522</v>
+      </c>
+      <c r="K66" t="s">
+        <v>523</v>
+      </c>
+      <c r="L66" t="s">
+        <v>524</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>525</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>527</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>528</v>
+      </c>
+      <c r="J67" t="s">
+        <v>529</v>
+      </c>
+      <c r="K67" t="s">
+        <v>530</v>
+      </c>
+      <c r="L67" t="s">
+        <v>531</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_21.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_21.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="856">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,82 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r608305579-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33412</t>
+  </si>
+  <si>
+    <t>672646</t>
+  </si>
+  <si>
+    <t>608305579</t>
+  </si>
+  <si>
+    <t>August 20, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r576289353-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>576289353</t>
+  </si>
+  <si>
+    <t>04/28/2018</t>
+  </si>
+  <si>
+    <t>Amazing staff, clean &amp; comfortable rooms</t>
+  </si>
+  <si>
+    <t>We stayed here April 23-24 and the staff were fantastic and amazingly helpful -- they made us feel welcome and our stay was really enjoyable. The woman who checked us in and out was very helpful and friendly, and the guy working the night shift was fantastic as well. Rooms were clean, comfortable, and fully equipped with a kitchenette. Location was convenient because you can easily access the freeway if you're on the way to the airport. Anyway, the staff are really doing something right here!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r596515537-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>596515537</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>A basic functional Candlewood</t>
+  </si>
+  <si>
+    <t>Hard-to-find after exiting I-25. Hotel is in a southern suburban Denver location requiring several winding and hilly tech-park turns. Once found, however, it is a convenient short walk to the light rail station for frequent rail service to central Denver.
+Neighborhood is tech-park clean and safe, but not pedestrian-friendly for strolling to restaurants, supermarkets, or any other retail stores, as there is none. The suburban tech-park layout is ideal for getting in and out of one's car to do tasks elsewhere.
+Once at the hotel, parking is easy, next to the trademark Candlewood gazebo that's available for barbecuing or a smoke break.
+No verbal acknowledgement was made of my IHG Gold membership, though a later online check showed that the usual IHG.com booking welcome points were in fact credited.
+The lock of my first assigned room on the top floor failed after my roommate and I had carried our luggage to the room door, necessitating a return to the front desk to re-program the key, which again failed to trigger any response on the door lock. On my second return, the person on duty speculated that the battery must have been exhausted. She apologized, then reassigned me to a basic suite around the elevator shaft on a lower floor.
+That standard suite met all Candlewood housekeeping standards. The microwave, stove, fridge (complete with the one-cube-at-a-time ice maker in the freezer), all functioned well. Detergent, sponge, bathroom soap, shampoo, lotion, and...Hard-to-find after exiting I-25. Hotel is in a southern suburban Denver location requiring several winding and hilly tech-park turns. Once found, however, it is a convenient short walk to the light rail station for frequent rail service to central Denver.Neighborhood is tech-park clean and safe, but not pedestrian-friendly for strolling to restaurants, supermarkets, or any other retail stores, as there is none. The suburban tech-park layout is ideal for getting in and out of one's car to do tasks elsewhere.Once at the hotel, parking is easy, next to the trademark Candlewood gazebo that's available for barbecuing or a smoke break.No verbal acknowledgement was made of my IHG Gold membership, though a later online check showed that the usual IHG.com booking welcome points were in fact credited.The lock of my first assigned room on the top floor failed after my roommate and I had carried our luggage to the room door, necessitating a return to the front desk to re-program the key, which again failed to trigger any response on the door lock. On my second return, the person on duty speculated that the battery must have been exhausted. She apologized, then reassigned me to a basic suite around the elevator shaft on a lower floor.That standard suite met all Candlewood housekeeping standards. The microwave, stove, fridge (complete with the one-cube-at-a-time ice maker in the freezer), all functioned well. Detergent, sponge, bathroom soap, shampoo, lotion, and clean towels were all duly supplied.The usual Candlewood gym and free laundry appeared to be available at this property, but on this visit I used neither.My request for a 30-minute extension to the standard check-out time was perfunctorily granted by a female person on the phone. When I asked a male receptionist in person at the desk five minutes later whether or not I needed to re-program my room key in order to re-enter my room during this extra half hour, he queried who had authorized the extra time. That indicated that any IHG Club standing allowing for an extended check-out was irrelevant according to his training. The hotel's rate is competitive, and I can understand that the resultant high occupancy necessitates getting most guests out of their rooms early to allow for a timely start to housekeeping activities.Many brands of south Denver tech-park hotels offering competitive rates can be found along this five-mile I-25 corridor. I chose this hotel to accrue a few IHG stays to qualify for the current IHG promo called Accelerate. No outstanding features, such as staff member charm, will draw me back to specifically this Candlewood, though its facilities did meet my basic expectations of any Candlewood property.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Hard-to-find after exiting I-25. Hotel is in a southern suburban Denver location requiring several winding and hilly tech-park turns. Once found, however, it is a convenient short walk to the light rail station for frequent rail service to central Denver.
+Neighborhood is tech-park clean and safe, but not pedestrian-friendly for strolling to restaurants, supermarkets, or any other retail stores, as there is none. The suburban tech-park layout is ideal for getting in and out of one's car to do tasks elsewhere.
+Once at the hotel, parking is easy, next to the trademark Candlewood gazebo that's available for barbecuing or a smoke break.
+No verbal acknowledgement was made of my IHG Gold membership, though a later online check showed that the usual IHG.com booking welcome points were in fact credited.
+The lock of my first assigned room on the top floor failed after my roommate and I had carried our luggage to the room door, necessitating a return to the front desk to re-program the key, which again failed to trigger any response on the door lock. On my second return, the person on duty speculated that the battery must have been exhausted. She apologized, then reassigned me to a basic suite around the elevator shaft on a lower floor.
+That standard suite met all Candlewood housekeeping standards. The microwave, stove, fridge (complete with the one-cube-at-a-time ice maker in the freezer), all functioned well. Detergent, sponge, bathroom soap, shampoo, lotion, and...Hard-to-find after exiting I-25. Hotel is in a southern suburban Denver location requiring several winding and hilly tech-park turns. Once found, however, it is a convenient short walk to the light rail station for frequent rail service to central Denver.Neighborhood is tech-park clean and safe, but not pedestrian-friendly for strolling to restaurants, supermarkets, or any other retail stores, as there is none. The suburban tech-park layout is ideal for getting in and out of one's car to do tasks elsewhere.Once at the hotel, parking is easy, next to the trademark Candlewood gazebo that's available for barbecuing or a smoke break.No verbal acknowledgement was made of my IHG Gold membership, though a later online check showed that the usual IHG.com booking welcome points were in fact credited.The lock of my first assigned room on the top floor failed after my roommate and I had carried our luggage to the room door, necessitating a return to the front desk to re-program the key, which again failed to trigger any response on the door lock. On my second return, the person on duty speculated that the battery must have been exhausted. She apologized, then reassigned me to a basic suite around the elevator shaft on a lower floor.That standard suite met all Candlewood housekeeping standards. The microwave, stove, fridge (complete with the one-cube-at-a-time ice maker in the freezer), all functioned well. Detergent, sponge, bathroom soap, shampoo, lotion, and clean towels were all duly supplied.The usual Candlewood gym and free laundry appeared to be available at this property, but on this visit I used neither.My request for a 30-minute extension to the standard check-out time was perfunctorily granted by a female person on the phone. When I asked a male receptionist in person at the desk five minutes later whether or not I needed to re-program my room key in order to re-enter my room during this extra half hour, he queried who had authorized the extra time. That indicated that any IHG Club standing allowing for an extended check-out was irrelevant according to his training. The hotel's rate is competitive, and I can understand that the resultant high occupancy necessitates getting most guests out of their rooms early to allow for a timely start to housekeeping activities.Many brands of south Denver tech-park hotels offering competitive rates can be found along this five-mile I-25 corridor. I chose this hotel to accrue a few IHG stays to qualify for the current IHG promo called Accelerate. No outstanding features, such as staff member charm, will draw me back to specifically this Candlewood, though its facilities did meet my basic expectations of any Candlewood property.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r589088809-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
-    <t>33412</t>
-  </si>
-  <si>
-    <t>672646</t>
-  </si>
-  <si>
     <t>589088809</t>
   </si>
   <si>
@@ -204,9 +268,6 @@
     <t>Had quite the experience during my stay. I arrived at the hotel around 11 PM and was greeted by the night manager. He asked me for my CC and Drivers license which I put on the counter for him. He proceeded to immediately give them back to me and say "I will take these when you give them to me". I was a bit surprised thinking he was joking however didn't crack a single smile. Heading to my room, the hotel had a bit of a funky smell to it but didn't bother me too much. Got into my room to find a few odd things. The door frame was recently painted and they must not have cared to tape off the area because the carpet had paint all over it. I got into my room and picked up a pillow to find someone else's hair on it (Not just one strand, multiple and easily visible) which makes me question their housekeeping standards. Given this was late in the night and the manager was already hostile that night, I did not bother immediately reporting and ended up sleeping on the couch in the room. I reported the issue in the morning and the staff during the day offered to change out the sheets as well as discount my room so they made a good effort to rectify the issue. Lastly, the cable service in my room was not working properly...Had quite the experience during my stay. I arrived at the hotel around 11 PM and was greeted by the night manager. He asked me for my CC and Drivers license which I put on the counter for him. He proceeded to immediately give them back to me and say "I will take these when you give them to me". I was a bit surprised thinking he was joking however didn't crack a single smile. Heading to my room, the hotel had a bit of a funky smell to it but didn't bother me too much. Got into my room to find a few odd things. The door frame was recently painted and they must not have cared to tape off the area because the carpet had paint all over it. I got into my room and picked up a pillow to find someone else's hair on it (Not just one strand, multiple and easily visible) which makes me question their housekeeping standards. Given this was late in the night and the manager was already hostile that night, I did not bother immediately reporting and ended up sleeping on the couch in the room. I reported the issue in the morning and the staff during the day offered to change out the sheets as well as discount my room so they made a good effort to rectify the issue. Lastly, the cable service in my room was not working properly and required me to plug and unplug the cable box to get it working. This wasn't the worst stay ever, but there's an awful lot this hotel can improve upon.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -237,6 +298,36 @@
     <t>This sketchy hotel is out-of-place.  It is located in a beautiful business district, next to a golf course, walking trails, and a beautiful park with a duck pond.  The cities of Lone Tree and Parker are really nice.  The hotel itself is poorly maintained, which could be overlooked if the hotel manager has his stuff together.   He was involved in my check-in because apparently the 2-room suite I reserved was given to someone else.  There was a possible story about the person in the room I reserved being a friend of the owner, so he didn't have to pay, and he certainly couldn't be asked to change rooms.  My husband didn't want to try to find another hotel on graduation/Memorial weekend, so we settled for the adjoining rooms they offered.  There wasn't much apology,  it was just matter-of-fact:  "we gave your room away."  I felt like I was in the Seinfeld episode at the car rental counter where Jerry reserves the mid-size car, but the rental car company gave them all away and gives him a compact car.  From the front desk, guests can see into the manager's office: food, trash, crumbs were on the desk and the floor, which made me worried about how the rest of the hotel looked.  It was on par.  see pictures. What's missing from the pictures is the mold growing in the shower grout.  And yes, that's a picture of a stain on the...This sketchy hotel is out-of-place.  It is located in a beautiful business district, next to a golf course, walking trails, and a beautiful park with a duck pond.  The cities of Lone Tree and Parker are really nice.  The hotel itself is poorly maintained, which could be overlooked if the hotel manager has his stuff together.   He was involved in my check-in because apparently the 2-room suite I reserved was given to someone else.  There was a possible story about the person in the room I reserved being a friend of the owner, so he didn't have to pay, and he certainly couldn't be asked to change rooms.  My husband didn't want to try to find another hotel on graduation/Memorial weekend, so we settled for the adjoining rooms they offered.  There wasn't much apology,  it was just matter-of-fact:  "we gave your room away."  I felt like I was in the Seinfeld episode at the car rental counter where Jerry reserves the mid-size car, but the rental car company gave them all away and gives him a compact car.  From the front desk, guests can see into the manager's office: food, trash, crumbs were on the desk and the floor, which made me worried about how the rest of the hotel looked.  It was on par.  see pictures. What's missing from the pictures is the mold growing in the shower grout.  And yes, that's a picture of a stain on the sheet of the bed in one of our rooms.  The check-out process was equally lacking in customer service.  A gentleman (playing fast &amp; loose with that word) who smelled like an ashtray handled my check-out.  He asked me "which room?", handed me a receipt, stepped aside to a computer and began typing.  After a minute or so, he looked up and said, "you can go," with the tone you use to tell someone "what are you waiting for? just leave."  If you are considering this hotel, know that the location is lovely, the hotel is terrible.  And since the culture is set from the top (manager and possibly even the owner), the prognosis that things will be better anytime soon is poor.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r569700078-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>569700078</t>
+  </si>
+  <si>
+    <t>March 30, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r545543902-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>545543902</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Helpful staff, clean and lovely rooms.</t>
+  </si>
+  <si>
+    <t>We stayed one night at this hotel, and found the staff to be very helpful.  Especially, Sam, Matt and Tanya.  Sam helped get us directions without driving on I-25 to a store in Aurora - she was a godsend!  Room was VERY clean!  Lovely, large room. Quiet.  Love staying in a suites hotel with a kitchenette - especially one with utensils, cookware and dishes, etc. as some suites hotels have nothing in the kitchen but the appliances.  So, very, very happy with our stay!  Director of Sales Sophia Vander also very helpful. We will definitely stay here again!  Kudos to housekeeping staff - I don't have anyone's name or would praise them here.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>We stayed one night at this hotel, and found the staff to be very helpful.  Especially, Sam, Matt and Tanya.  Sam helped get us directions without driving on I-25 to a store in Aurora - she was a godsend!  Room was VERY clean!  Lovely, large room. Quiet.  Love staying in a suites hotel with a kitchenette - especially one with utensils, cookware and dishes, etc. as some suites hotels have nothing in the kitchen but the appliances.  So, very, very happy with our stay!  Director of Sales Sophia Vander also very helpful. We will definitely stay here again!  Kudos to housekeeping staff - I don't have anyone's name or would praise them here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r542740089-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -252,12 +343,6 @@
     <t>when we arrived we were greated  by samatha at the front desk. she was so helpful. fulfilled our every request. this place has anything you need when youre far from home. game consoles, toasters you name it. its 25-30 minutes from denver international. we liked how well we were treated by samantha and all the staff we decided to stay here at the end of our trip. thanks samantha! youre wonderful!</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r523871131-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -303,6 +388,57 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r502605181-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>502605181</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Avoid this hotel!</t>
+  </si>
+  <si>
+    <t>The good (kind of): The bed was comfortable, but one edge of the bed was 8 inches from the side wall so it was all but impossible to get out of it unless you crawled to the end, or rolled over your partner to the other side. The AC cooled the room, but it cycled on and off every 5 minutes and was very loud.
+The bad: Their so-called 'continental breakfast' is a coffee machine with a choice of 3 prepackaged breakfast bars. Not anyone's normal definition of that type of breakfast.
+     Was woken up at 2am on the second night by the front desk calling my room to let me know I had left my credit card there. Only...it was not my credit card. "Oops so sorry, hope you can get back to sleep".
+     The last night we were there was highlighted by a track meet in the room above us for over FOUR hours. Put up with it until 9pm then called the front desk who said they would take care of it. Forty-five minutes later the track meet was still in progress. Who the heck clomps back and forth in their hotel room non-stop for that long? Went down to the front desk at 9:45 and they again said they would take care of it. Still no luck. Went down the last time at 11:15pm and talked to a new person at the desk. Got to meet...The good (kind of): The bed was comfortable, but one edge of the bed was 8 inches from the side wall so it was all but impossible to get out of it unless you crawled to the end, or rolled over your partner to the other side. The AC cooled the room, but it cycled on and off every 5 minutes and was very loud.The bad: Their so-called 'continental breakfast' is a coffee machine with a choice of 3 prepackaged breakfast bars. Not anyone's normal definition of that type of breakfast.     Was woken up at 2am on the second night by the front desk calling my room to let me know I had left my credit card there. Only...it was not my credit card. "Oops so sorry, hope you can get back to sleep".     The last night we were there was highlighted by a track meet in the room above us for over FOUR hours. Put up with it until 9pm then called the front desk who said they would take care of it. Forty-five minutes later the track meet was still in progress. Who the heck clomps back and forth in their hotel room non-stop for that long? Went down to the front desk at 9:45 and they again said they would take care of it. Still no luck. Went down the last time at 11:15pm and talked to a new person at the desk. Got to meet another lady who was also complaining about the noise in the hotel. The desk clerk said he would make a 'walk through' to check it out. Also said he could move ME to a different room. WTF? How about moving the person who is keeping everyone else awake to a new room or better yet a new hotel? I guess the track meet ended around 11:40 and I was able to sleep for about 4 whole hours before I had to catch my flight. Never, ever again will I stay at a Candlewood.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>The good (kind of): The bed was comfortable, but one edge of the bed was 8 inches from the side wall so it was all but impossible to get out of it unless you crawled to the end, or rolled over your partner to the other side. The AC cooled the room, but it cycled on and off every 5 minutes and was very loud.
+The bad: Their so-called 'continental breakfast' is a coffee machine with a choice of 3 prepackaged breakfast bars. Not anyone's normal definition of that type of breakfast.
+     Was woken up at 2am on the second night by the front desk calling my room to let me know I had left my credit card there. Only...it was not my credit card. "Oops so sorry, hope you can get back to sleep".
+     The last night we were there was highlighted by a track meet in the room above us for over FOUR hours. Put up with it until 9pm then called the front desk who said they would take care of it. Forty-five minutes later the track meet was still in progress. Who the heck clomps back and forth in their hotel room non-stop for that long? Went down to the front desk at 9:45 and they again said they would take care of it. Still no luck. Went down the last time at 11:15pm and talked to a new person at the desk. Got to meet...The good (kind of): The bed was comfortable, but one edge of the bed was 8 inches from the side wall so it was all but impossible to get out of it unless you crawled to the end, or rolled over your partner to the other side. The AC cooled the room, but it cycled on and off every 5 minutes and was very loud.The bad: Their so-called 'continental breakfast' is a coffee machine with a choice of 3 prepackaged breakfast bars. Not anyone's normal definition of that type of breakfast.     Was woken up at 2am on the second night by the front desk calling my room to let me know I had left my credit card there. Only...it was not my credit card. "Oops so sorry, hope you can get back to sleep".     The last night we were there was highlighted by a track meet in the room above us for over FOUR hours. Put up with it until 9pm then called the front desk who said they would take care of it. Forty-five minutes later the track meet was still in progress. Who the heck clomps back and forth in their hotel room non-stop for that long? Went down to the front desk at 9:45 and they again said they would take care of it. Still no luck. Went down the last time at 11:15pm and talked to a new person at the desk. Got to meet another lady who was also complaining about the noise in the hotel. The desk clerk said he would make a 'walk through' to check it out. Also said he could move ME to a different room. WTF? How about moving the person who is keeping everyone else awake to a new room or better yet a new hotel? I guess the track meet ended around 11:40 and I was able to sleep for about 4 whole hours before I had to catch my flight. Never, ever again will I stay at a Candlewood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r502336264-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>502336264</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>Keep driving if you see this place.A true flea bag hotel.More dogs than people,which makes me sick. Literally.Unkept,dirty.An expensive Motel 6 Our son called twice but the receptionist would not put the call through. ?? The door to our room was so warped that it took both our shoulders to get it open.The only good thing about the place was the toilet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Keep driving if you see this place.A true flea bag hotel.More dogs than people,which makes me sick. Literally.Unkept,dirty.An expensive Motel 6 Our son called twice but the receptionist would not put the call through. ?? The door to our room was so warped that it took both our shoulders to get it open.The only good thing about the place was the toilet.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r472112240-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -321,9 +457,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded April 18, 2017</t>
   </si>
   <si>
@@ -369,6 +502,63 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r427689538-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>427689538</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Not great.</t>
+  </si>
+  <si>
+    <t>Booked this hotel as it was affordable and quite near my brother and his family.  My husband is a paraplegic and is in a manual wheelchair.  We were traveling with our two teenagers, as well.  I had called the hotel prior to booking the room because the description of the ADA rooms on the website were sort of ambiguous.  I was assured that the room I wanted was completely wheelchair accessible and the room had two queen beds, which is the least we can really function with.  When we arrived, the room was HEARING accessible, which means not at all wheelchair accessible.  They moved us to a room that is wheelchair accessible, but only had two full size beds.  Who even has full-size beds?  So we had one kid sleeping the floor the whole trip, as they also have no roll-aways.  The manager was very shrill and most of the staff look a little rough and don't seem to know what's going on.  Another poster mentioned that three of four clothes washers were out of service.  That was true for us, as well.  One woman said that she stays there regularly and 2 of the 4 have been broken since early summer.  On the Saturday night we were there, our whole wing smelled like pot smoke.  I know we're in Denver, but I've never experienced that being acceptable in any other hotel.Won't stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2016</t>
+  </si>
+  <si>
+    <t>Booked this hotel as it was affordable and quite near my brother and his family.  My husband is a paraplegic and is in a manual wheelchair.  We were traveling with our two teenagers, as well.  I had called the hotel prior to booking the room because the description of the ADA rooms on the website were sort of ambiguous.  I was assured that the room I wanted was completely wheelchair accessible and the room had two queen beds, which is the least we can really function with.  When we arrived, the room was HEARING accessible, which means not at all wheelchair accessible.  They moved us to a room that is wheelchair accessible, but only had two full size beds.  Who even has full-size beds?  So we had one kid sleeping the floor the whole trip, as they also have no roll-aways.  The manager was very shrill and most of the staff look a little rough and don't seem to know what's going on.  Another poster mentioned that three of four clothes washers were out of service.  That was true for us, as well.  One woman said that she stays there regularly and 2 of the 4 have been broken since early summer.  On the Saturday night we were there, our whole wing smelled like pot smoke.  I know we're in Denver, but I've never experienced that being acceptable in any other hotel.Won't stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r427357173-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>427357173</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>What a Disappointment!!</t>
+  </si>
+  <si>
+    <t>With the exception of a reasonable nightly rate and a relatively clean establishment,  our stay was extremely disappointing!  
+For starters, our room had both a broken toilet seat as well as a very old squeaky and uncomfortable mattress.  The side of the mattress was also pushed within a few inches from the wall.  How is that suppose to work for two people??  
+On our third night, I requested some extra wash clothes; front desk staff told me to wander around my floor and maybe I'd find the cleaning staff!  What a lazy response!
+Three of the four washers were out of service, along with 1 of the dryers!  How does that happen?  It wouldn't with proper oversight and management.  When I inquired about timing of repair, I barely got a shrug from the front desk. Obviousely, no sense of urgency on their part.
+Lastly, I left a couple of personal hair products behind.  After 5 phone calls, including to the Assistant GM and the GM, followed up by 3 emails of inquiry, I've yet to get a response or status, much less see my items being returned.  When I forgot my sunglasses a few years ago at a well managed facility, the hotel staff overnighted to me immediately and followed up to ensure I received them.  
+I did not expect such a lack of customer service, accountability and quality of staff interaction.   
+Time to make some improvements and establish better...With the exception of a reasonable nightly rate and a relatively clean establishment,  our stay was extremely disappointing!  For starters, our room had both a broken toilet seat as well as a very old squeaky and uncomfortable mattress.  The side of the mattress was also pushed within a few inches from the wall.  How is that suppose to work for two people??  On our third night, I requested some extra wash clothes; front desk staff told me to wander around my floor and maybe I'd find the cleaning staff!  What a lazy response!Three of the four washers were out of service, along with 1 of the dryers!  How does that happen?  It wouldn't with proper oversight and management.  When I inquired about timing of repair, I barely got a shrug from the front desk. Obviousely, no sense of urgency on their part.Lastly, I left a couple of personal hair products behind.  After 5 phone calls, including to the Assistant GM and the GM, followed up by 3 emails of inquiry, I've yet to get a response or status, much less see my items being returned.  When I forgot my sunglasses a few years ago at a well managed facility, the hotel staff overnighted to me immediately and followed up to ensure I received them.  I did not expect such a lack of customer service, accountability and quality of staff interaction.   Time to make some improvements and establish better standards!MoreShow less</t>
+  </si>
+  <si>
+    <t>With the exception of a reasonable nightly rate and a relatively clean establishment,  our stay was extremely disappointing!  
+For starters, our room had both a broken toilet seat as well as a very old squeaky and uncomfortable mattress.  The side of the mattress was also pushed within a few inches from the wall.  How is that suppose to work for two people??  
+On our third night, I requested some extra wash clothes; front desk staff told me to wander around my floor and maybe I'd find the cleaning staff!  What a lazy response!
+Three of the four washers were out of service, along with 1 of the dryers!  How does that happen?  It wouldn't with proper oversight and management.  When I inquired about timing of repair, I barely got a shrug from the front desk. Obviousely, no sense of urgency on their part.
+Lastly, I left a couple of personal hair products behind.  After 5 phone calls, including to the Assistant GM and the GM, followed up by 3 emails of inquiry, I've yet to get a response or status, much less see my items being returned.  When I forgot my sunglasses a few years ago at a well managed facility, the hotel staff overnighted to me immediately and followed up to ensure I received them.  
+I did not expect such a lack of customer service, accountability and quality of staff interaction.   
+Time to make some improvements and establish better...With the exception of a reasonable nightly rate and a relatively clean establishment,  our stay was extremely disappointing!  For starters, our room had both a broken toilet seat as well as a very old squeaky and uncomfortable mattress.  The side of the mattress was also pushed within a few inches from the wall.  How is that suppose to work for two people??  On our third night, I requested some extra wash clothes; front desk staff told me to wander around my floor and maybe I'd find the cleaning staff!  What a lazy response!Three of the four washers were out of service, along with 1 of the dryers!  How does that happen?  It wouldn't with proper oversight and management.  When I inquired about timing of repair, I barely got a shrug from the front desk. Obviousely, no sense of urgency on their part.Lastly, I left a couple of personal hair products behind.  After 5 phone calls, including to the Assistant GM and the GM, followed up by 3 emails of inquiry, I've yet to get a response or status, much less see my items being returned.  When I forgot my sunglasses a few years ago at a well managed facility, the hotel staff overnighted to me immediately and followed up to ensure I received them.  I did not expect such a lack of customer service, accountability and quality of staff interaction.   Time to make some improvements and establish better standards!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r415283861-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -426,6 +616,51 @@
     <t>Location is quite good with quick access to light rail and the interstate. Rooms, and amenities are of superior quality. The value is found in a stellar staff providing a five star customer service experience. Combine that with their competitive pricing and you have an outstanding value for your stay here at Candlewood Suites.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r408992141-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>408992141</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>A very nice surprise!</t>
+  </si>
+  <si>
+    <t>I had not stayed at a Candlewood Suites before this stay. I was on vacation with my husband and 2 kids and we needed a place to stay en route to Colorado Springs. The room was a decent size with a fully equipped kitchenette with full size fridge. They had free laundry which was such a nice treat as we were about halfway through our vacation and needed to do laundry. They also had a small pantry market with frozen dinners, breakfast cereal and snacks -- we were tired from driving so we bought frozen dinners and made them in the room. Much cheaper and easier than going out. They also had a nice pool and hot tub. The front desk staff was very friendly. It's located in an office park close to the highway and not far from shops and a Starbucks. I'd recommend it if you're in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I had not stayed at a Candlewood Suites before this stay. I was on vacation with my husband and 2 kids and we needed a place to stay en route to Colorado Springs. The room was a decent size with a fully equipped kitchenette with full size fridge. They had free laundry which was such a nice treat as we were about halfway through our vacation and needed to do laundry. They also had a small pantry market with frozen dinners, breakfast cereal and snacks -- we were tired from driving so we bought frozen dinners and made them in the room. Much cheaper and easier than going out. They also had a nice pool and hot tub. The front desk staff was very friendly. It's located in an office park close to the highway and not far from shops and a Starbucks. I'd recommend it if you're in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r402613700-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>402613700</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>Roz at the front desk was nice. It's great to be greeted with a smile after a 6 hours on the road. All the staff are nice and friendly. It's a home away from home indeed! We have a little kitchenette in our room, room is spacious and clean. I love their swimming pool coz it's indoor and heated the water was at perfect temperature. We saved a lot compared to the hotel downtown coz parking lot here is free, we can always cook foods and kitchenette is a big help. Will stay here again. And I recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Roz at the front desk was nice. It's great to be greeted with a smile after a 6 hours on the road. All the staff are nice and friendly. It's a home away from home indeed! We have a little kitchenette in our room, room is spacious and clean. I love their swimming pool coz it's indoor and heated the water was at perfect temperature. We saved a lot compared to the hotel downtown coz parking lot here is free, we can always cook foods and kitchenette is a big help. Will stay here again. And I recommend this hotel. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r398553861-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -441,9 +676,6 @@
     <t>Conveniently located in Meridian Business district. Staff are welcoming and friendly and give 5 star service. Hotel itself is a solid 3 star - room was clean, A/C worked great and coffee in room a plus. Older hotel without many amenities but value priced. Didn't miss lack of restaurant with Hacienda across the parking lot.MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>Management response:Responded July 29, 2016</t>
   </si>
   <si>
@@ -504,6 +736,45 @@
     <t>When we checked in the room smelled so strongly of dog urine.  We were stuck and could not move to another hotel because all hotels were booked.  When I asked at the front desk if there could be anything done the clerk gave me a bottle of deodorizing spray, her perfume, and told me to open the window and pop a bag of popcorn to mask the smell.  She did not ask what my room number was so that leads to believe it is problem in many of the rooms so why bother to ask which room I was staying in.   It was a horrible experience and I would not recommend anyone stay at this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r391504409-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>391504409</t>
+  </si>
+  <si>
+    <t>Long term stay</t>
+  </si>
+  <si>
+    <t>We have relocated and having to stay in a hotel for a extended stay can be hard on a family. From the first day of check in the G.M. Hope has made it wonderful. She is very friendly and still very professional. She has taken care of some issues for us with no problem, and has gone above and beyond to make our stay wonderful. She is an amazing G.M. with out a doubt, her supervisors should know they have such an awesome G.M. running their hotel. If you need a wonderful hotel for extended stay or even a few days this should be your first choice. MoreShow less</t>
+  </si>
+  <si>
+    <t>We have relocated and having to stay in a hotel for a extended stay can be hard on a family. From the first day of check in the G.M. Hope has made it wonderful. She is very friendly and still very professional. She has taken care of some issues for us with no problem, and has gone above and beyond to make our stay wonderful. She is an amazing G.M. with out a doubt, her supervisors should know they have such an awesome G.M. running their hotel. If you need a wonderful hotel for extended stay or even a few days this should be your first choice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r385381972-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>385381972</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>It's ok, not the best.</t>
+  </si>
+  <si>
+    <t>Location is nice. Near shopping and restuarants. The outside is nice, however the inside could use some major updating. Rooms needs painting and furniture needs to be replaced. Rooms are small and kinda cramped. It was ok, but would not stay here again. A/C is loud.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded July 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2016</t>
+  </si>
+  <si>
+    <t>Location is nice. Near shopping and restuarants. The outside is nice, however the inside could use some major updating. Rooms needs painting and furniture needs to be replaced. Rooms are small and kinda cramped. It was ok, but would not stay here again. A/C is loud.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r382009166-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -573,6 +844,51 @@
     <t>I was so impressed right off the bat with the front desk staff. Then when i got to my room, I was elated. A terrific, bed with attention to the bedding, thank you! A kitchen with utensils and plates and a coffee pot! (Why is it places have a kitchen with no cookware or dishes to use in it?)  I had a terrific stay, amazingly clean, and friendliness to go with it. And at an affordable price point.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r371449974-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>371449974</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>We camped out at this hotel for 3 nights, and could not be more pleased with our stay. We stayed on IHG rewards points, but I can honestly say its worth the value. The General Manager was incredibly receptive to our special requests, and every front desk agent was friendly and helpful. The rooms are great, and if you are staying awhile, I recommend getting a suite, its pretty much like living in an apartment. There are tons of amenities, and its far enough away from the hub bub of the city that you feel rested after a long day. It's a simple hotel, but with 2 young kids, it was exactly what we needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>We camped out at this hotel for 3 nights, and could not be more pleased with our stay. We stayed on IHG rewards points, but I can honestly say its worth the value. The General Manager was incredibly receptive to our special requests, and every front desk agent was friendly and helpful. The rooms are great, and if you are staying awhile, I recommend getting a suite, its pretty much like living in an apartment. There are tons of amenities, and its far enough away from the hub bub of the city that you feel rested after a long day. It's a simple hotel, but with 2 young kids, it was exactly what we needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r326383488-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>326383488</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Standard Candlewood Suites, decent</t>
+  </si>
+  <si>
+    <t>Decent for the price if you're going to be Englewood, especially for an extended stay. The facility was clean and neat, but plain. It's what you would expect from any Candlewood Suites in good condition.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Hopie25, General Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Decent for the price if you're going to be Englewood, especially for an extended stay. The facility was clean and neat, but plain. It's what you would expect from any Candlewood Suites in good condition.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r312913113-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -624,6 +940,50 @@
     <t>We were traveling to Utah and this was a good stopping point on the way. I was in a huge hurry to get to the room and watch OSU vs VCU. I thought that someone was playing a trick on me as the channel was stuck on the cartoon network.  After a couple of efforts to resolve, we were moved to another room. The guy working the front desk was very friendly and understanding. Rooms were clean and had everything that we needed. For the price, this is a great value motel. Would definately stay again if we are in the area .</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r308806656-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>308806656</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Nice and relaxing</t>
+  </si>
+  <si>
+    <t>My friend and I stayed here for three nights on vacation!  The hotel is a little outdated, but otherwise was great!  Had a few small issues the bathroom door would stick, and the toaster in the room didn't work, but we got a replacement.   One thing to make note of is the hotel is a little tricky to get to especially if you're coming in at night.  We had our gps that made it much easier, there are multiple buildings in the area so it's not directly off the main hwy.  Wouldn't mind staying there again if we're ever back in that area!!  Forgot to get her name but the lady that checked us out was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>My friend and I stayed here for three nights on vacation!  The hotel is a little outdated, but otherwise was great!  Had a few small issues the bathroom door would stick, and the toaster in the room didn't work, but we got a replacement.   One thing to make note of is the hotel is a little tricky to get to especially if you're coming in at night.  We had our gps that made it much easier, there are multiple buildings in the area so it's not directly off the main hwy.  Wouldn't mind staying there again if we're ever back in that area!!  Forgot to get her name but the lady that checked us out was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r299690363-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>299690363</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home construction delay force horrible hotel stay </t>
+  </si>
+  <si>
+    <t>To say our stay here has been displeasing, would be a gross understatement. What started out as a bad situation with our new home being delayed, was made much, much worse by staying in this disgusting hotel. We checked in on the 18th of June in hopes of having a safe, clean and welcoming place to stay for the next 30-40 nights while we wait for our new home to be completed. Suffices to say, it was the exact opposite. 
+Anyway,  Not only is the hotel absolutely disgusting (and I have PLENTY of in depth photos of our room as well as the hotel in general), but the staff is beyond rude and ill tempered, it seems like EVERYTHING is a total inconvenience to them. The Wi-Fi is a joke (intermittent at best), there are bugs everywhere in the pool area (that seems to never be cleaned even though I brought it up when we first checked in, including to you, David, who continued to ignore it --- it is still not clean nearly a month later now), flickering lights in the hallways for weeks and nobody fixes, trash overflowing everywhere, even YOU stand at the front doors of the hotel with your staff and smoke cigarettes, the staff brings their infant children into work and plays with them behind the desk while ignoring hotel guests, the housekeeping staff brings their kids in and lets them play in the hallways...To say our stay here has been displeasing, would be a gross understatement. What started out as a bad situation with our new home being delayed, was made much, much worse by staying in this disgusting hotel. We checked in on the 18th of June in hopes of having a safe, clean and welcoming place to stay for the next 30-40 nights while we wait for our new home to be completed. Suffices to say, it was the exact opposite. Anyway,  Not only is the hotel absolutely disgusting (and I have PLENTY of in depth photos of our room as well as the hotel in general), but the staff is beyond rude and ill tempered, it seems like EVERYTHING is a total inconvenience to them. The Wi-Fi is a joke (intermittent at best), there are bugs everywhere in the pool area (that seems to never be cleaned even though I brought it up when we first checked in, including to you, David, who continued to ignore it --- it is still not clean nearly a month later now), flickering lights in the hallways for weeks and nobody fixes, trash overflowing everywhere, even YOU stand at the front doors of the hotel with your staff and smoke cigarettes, the staff brings their infant children into work and plays with them behind the desk while ignoring hotel guests, the housekeeping staff brings their kids in and lets them play in the hallways while they work (because they say they don't make enough money here to afford baby sitters, which is sad), smelly hallways, nobody has fixed the key lock on the outside entrance for guest safety, ceiling falling down above shower, mould in showers (LOTS of mould), dirty furniture, carpets and draperies, a good years worth or MORE of dust and filth on the air conditioning units in the room (pictures to prove) and the pool was broken down for days, multiple times and the rude desk person yelled at my parents saying "I told you already that my son is working on it!!" (Is he qualified?)  Long story short, nobody in this hotel has a clue what is going on, including the GM. I can't wait to share all of my photos and story across these review sites because people should be WARNED... This place is a total armpit of a hotel and it's literally unsafe to stay at. ***Excuse me, but when even the housekeeping staff complains about how gross the hotel is, and blames the management for lack of employees and feeling unappreciated... That's a HUGE sign that something needs to change, and fast! The mold growth in our shower and room has reached a point that both my family and I need to leave the hotel because it has infected our lungs, we all feel sick and will have it looked into further by medical professionals. To top it all off, Mr Halverson, you made my parents trip here from Illinois a nightmare, my dad has muscle tissue damage and couldn't wait to relax in the hot tub, which was OUT OF ORDER for their entire weeks stay, including the pool as well! The staff was rude to them on multiple occasions, their room was a dump, their fridge didn't work and the dishes were dirty the day they checked in! Pictures will say a thousand words about this hotel, but if that isn't enough, I have so many stories to tell.You had plenty of opportunities to make things right, including this email being sent to you, as you so kindly ask for the opportunity to fix the situation on your SIGNS POSTED ALL OVER THE HOTEL, and yet... You didn't take any opportunity to reach out to us last month when you has all the time in the world to do so prior to me posting this, which will now be all over the Internet. Let's not forget how I also contacted IGH corporate and they too were embarrassed that you didn't respond to us in any way (I have those emails from IHG as well explaining their level of disgust in you and your establishment). Please don't forget, David, I've tried multiple times to sort this out with you, and your staff, but everyone was rude and unwilling to help. You post signs saying you want a 5 star rating on travel sites, but listening to other guests in the hotel... You'd be lucky to receive 1 star. This hotel can't continue to run this way, somebody will become violently ill and need to be rushed to the ER, it's that bad. You allow crazy partying to go on, garbage all left behind afterwards, drug dealing going on in your parking lot (so much so that multiple people called the police during our stay), and just overall unsafe living conditions for your guests. You should be embarrassed and I hope these reviews will show other people that this is NOT the place to spend your hard earned money and defiantly not a place for children. Your sign BOLDLY asks for "good reviews"... To me that says a lot about you. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>To say our stay here has been displeasing, would be a gross understatement. What started out as a bad situation with our new home being delayed, was made much, much worse by staying in this disgusting hotel. We checked in on the 18th of June in hopes of having a safe, clean and welcoming place to stay for the next 30-40 nights while we wait for our new home to be completed. Suffices to say, it was the exact opposite. 
+Anyway,  Not only is the hotel absolutely disgusting (and I have PLENTY of in depth photos of our room as well as the hotel in general), but the staff is beyond rude and ill tempered, it seems like EVERYTHING is a total inconvenience to them. The Wi-Fi is a joke (intermittent at best), there are bugs everywhere in the pool area (that seems to never be cleaned even though I brought it up when we first checked in, including to you, David, who continued to ignore it --- it is still not clean nearly a month later now), flickering lights in the hallways for weeks and nobody fixes, trash overflowing everywhere, even YOU stand at the front doors of the hotel with your staff and smoke cigarettes, the staff brings their infant children into work and plays with them behind the desk while ignoring hotel guests, the housekeeping staff brings their kids in and lets them play in the hallways...To say our stay here has been displeasing, would be a gross understatement. What started out as a bad situation with our new home being delayed, was made much, much worse by staying in this disgusting hotel. We checked in on the 18th of June in hopes of having a safe, clean and welcoming place to stay for the next 30-40 nights while we wait for our new home to be completed. Suffices to say, it was the exact opposite. Anyway,  Not only is the hotel absolutely disgusting (and I have PLENTY of in depth photos of our room as well as the hotel in general), but the staff is beyond rude and ill tempered, it seems like EVERYTHING is a total inconvenience to them. The Wi-Fi is a joke (intermittent at best), there are bugs everywhere in the pool area (that seems to never be cleaned even though I brought it up when we first checked in, including to you, David, who continued to ignore it --- it is still not clean nearly a month later now), flickering lights in the hallways for weeks and nobody fixes, trash overflowing everywhere, even YOU stand at the front doors of the hotel with your staff and smoke cigarettes, the staff brings their infant children into work and plays with them behind the desk while ignoring hotel guests, the housekeeping staff brings their kids in and lets them play in the hallways while they work (because they say they don't make enough money here to afford baby sitters, which is sad), smelly hallways, nobody has fixed the key lock on the outside entrance for guest safety, ceiling falling down above shower, mould in showers (LOTS of mould), dirty furniture, carpets and draperies, a good years worth or MORE of dust and filth on the air conditioning units in the room (pictures to prove) and the pool was broken down for days, multiple times and the rude desk person yelled at my parents saying "I told you already that my son is working on it!!" (Is he qualified?)  Long story short, nobody in this hotel has a clue what is going on, including the GM. I can't wait to share all of my photos and story across these review sites because people should be WARNED... This place is a total armpit of a hotel and it's literally unsafe to stay at. ***Excuse me, but when even the housekeeping staff complains about how gross the hotel is, and blames the management for lack of employees and feeling unappreciated... That's a HUGE sign that something needs to change, and fast! The mold growth in our shower and room has reached a point that both my family and I need to leave the hotel because it has infected our lungs, we all feel sick and will have it looked into further by medical professionals. To top it all off, Mr Halverson, you made my parents trip here from Illinois a nightmare, my dad has muscle tissue damage and couldn't wait to relax in the hot tub, which was OUT OF ORDER for their entire weeks stay, including the pool as well! The staff was rude to them on multiple occasions, their room was a dump, their fridge didn't work and the dishes were dirty the day they checked in! Pictures will say a thousand words about this hotel, but if that isn't enough, I have so many stories to tell.You had plenty of opportunities to make things right, including this email being sent to you, as you so kindly ask for the opportunity to fix the situation on your SIGNS POSTED ALL OVER THE HOTEL, and yet... You didn't take any opportunity to reach out to us last month when you has all the time in the world to do so prior to me posting this, which will now be all over the Internet. Let's not forget how I also contacted IGH corporate and they too were embarrassed that you didn't respond to us in any way (I have those emails from IHG as well explaining their level of disgust in you and your establishment). Please don't forget, David, I've tried multiple times to sort this out with you, and your staff, but everyone was rude and unwilling to help. You post signs saying you want a 5 star rating on travel sites, but listening to other guests in the hotel... You'd be lucky to receive 1 star. This hotel can't continue to run this way, somebody will become violently ill and need to be rushed to the ER, it's that bad. You allow crazy partying to go on, garbage all left behind afterwards, drug dealing going on in your parking lot (so much so that multiple people called the police during our stay), and just overall unsafe living conditions for your guests. You should be embarrassed and I hope these reviews will show other people that this is NOT the place to spend your hard earned money and defiantly not a place for children. Your sign BOLDLY asks for "good reviews"... To me that says a lot about you. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r296031161-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -697,6 +1057,52 @@
   </si>
   <si>
     <t>The room was big and had a full kitchen, but each night I came back there was an odor of something,  I"m not sure how to describe it, but the room was clean and no I did not report the odor after working all day I decided to just turn up the a/c to circulate the air.  My biggest beef with this hotel is the wretched internet, if you are going to stay there and have to sometimes work from the room, don't do it.  My first night there I couldn't get onto the internet at all.  I ended up having to call their IT help desk.  We finally got me connected, the problem was the log in  page, the authentication page would not come up on Chrome.  When I did get connected the connections was worthless it was being used by too many people, my vpn wouldn't connect.  The next night, all three of their connections were showing limited connection, so I called again. The help desk isolated the MAC address of my laptop and tried to buy pass certain restrictions to give me more bandwidth but it was still really bad, painfully slow.  I got a work call at 3am and had to log on and use the vpn and at 3am it was still painfully slow, it took me twice as long as it should have.  I will not stay here again unless I absolutely have to....The room was big and had a full kitchen, but each night I came back there was an odor of something,  I"m not sure how to describe it, but the room was clean and no I did not report the odor after working all day I decided to just turn up the a/c to circulate the air.  My biggest beef with this hotel is the wretched internet, if you are going to stay there and have to sometimes work from the room, don't do it.  My first night there I couldn't get onto the internet at all.  I ended up having to call their IT help desk.  We finally got me connected, the problem was the log in  page, the authentication page would not come up on Chrome.  When I did get connected the connections was worthless it was being used by too many people, my vpn wouldn't connect.  The next night, all three of their connections were showing limited connection, so I called again. The help desk isolated the MAC address of my laptop and tried to buy pass certain restrictions to give me more bandwidth but it was still really bad, painfully slow.  I got a work call at 3am and had to log on and use the vpn and at 3am it was still painfully slow, it took me twice as long as it should have.  I will not stay here again unless I absolutely have to.  The bed was comfy, I have no complaints about the room itself, it was the internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r285956637-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>285956637</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Meh, it was alright</t>
+  </si>
+  <si>
+    <t>I'm not a big traveler like my lady, so I really don't have a keen sense of a great stay. But this place is good for a two night slumber, no more. The staff we encountered were really nice and had great customer service. However, when we arrived to our room, it had a very different odor to it. I could not put my finger on it at first, but then I felt like it was hello time at the old folks home. Yea, the room smelled like a nursing home. I figured it might be due to the fact that someone murdered the toilet in a previous stay, therefore I showed a little understanding. 
+Now after a long day of hiking in these beautiful mountains, one tends to build up a personal swamp in their underpants. This clearly is the sign that a nice hot shower is in dire need. Getting into the shower was like trying out for cirque de sole. Not only did I see my life flash before my eyes as I performed acrobats into the shower, I'm pretty sure my lady was on the phone at the same time, increasing the life insurance. 
+After I stuck the double axle into the shower, the rush of the water was phenomenal. Finally taking a hot shower felt like a scene out of that grey book of shades. But before i knew it, my heavenly shower would be...I'm not a big traveler like my lady, so I really don't have a keen sense of a great stay. But this place is good for a two night slumber, no more. The staff we encountered were really nice and had great customer service. However, when we arrived to our room, it had a very different odor to it. I could not put my finger on it at first, but then I felt like it was hello time at the old folks home. Yea, the room smelled like a nursing home. I figured it might be due to the fact that someone murdered the toilet in a previous stay, therefore I showed a little understanding. Now after a long day of hiking in these beautiful mountains, one tends to build up a personal swamp in their underpants. This clearly is the sign that a nice hot shower is in dire need. Getting into the shower was like trying out for cirque de sole. Not only did I see my life flash before my eyes as I performed acrobats into the shower, I'm pretty sure my lady was on the phone at the same time, increasing the life insurance. After I stuck the double axle into the shower, the rush of the water was phenomenal. Finally taking a hot shower felt like a scene out of that grey book of shades. But before i knew it, my heavenly shower would be dwarfed by the flood in our bathroom it had caused. I like a good shower just like the next person, but the bathroom floor looked like an aerial view after Katrina. . . . . . too soon? Overall, decent place with a couple of quirks, and great service.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>I'm not a big traveler like my lady, so I really don't have a keen sense of a great stay. But this place is good for a two night slumber, no more. The staff we encountered were really nice and had great customer service. However, when we arrived to our room, it had a very different odor to it. I could not put my finger on it at first, but then I felt like it was hello time at the old folks home. Yea, the room smelled like a nursing home. I figured it might be due to the fact that someone murdered the toilet in a previous stay, therefore I showed a little understanding. 
+Now after a long day of hiking in these beautiful mountains, one tends to build up a personal swamp in their underpants. This clearly is the sign that a nice hot shower is in dire need. Getting into the shower was like trying out for cirque de sole. Not only did I see my life flash before my eyes as I performed acrobats into the shower, I'm pretty sure my lady was on the phone at the same time, increasing the life insurance. 
+After I stuck the double axle into the shower, the rush of the water was phenomenal. Finally taking a hot shower felt like a scene out of that grey book of shades. But before i knew it, my heavenly shower would be...I'm not a big traveler like my lady, so I really don't have a keen sense of a great stay. But this place is good for a two night slumber, no more. The staff we encountered were really nice and had great customer service. However, when we arrived to our room, it had a very different odor to it. I could not put my finger on it at first, but then I felt like it was hello time at the old folks home. Yea, the room smelled like a nursing home. I figured it might be due to the fact that someone murdered the toilet in a previous stay, therefore I showed a little understanding. Now after a long day of hiking in these beautiful mountains, one tends to build up a personal swamp in their underpants. This clearly is the sign that a nice hot shower is in dire need. Getting into the shower was like trying out for cirque de sole. Not only did I see my life flash before my eyes as I performed acrobats into the shower, I'm pretty sure my lady was on the phone at the same time, increasing the life insurance. After I stuck the double axle into the shower, the rush of the water was phenomenal. Finally taking a hot shower felt like a scene out of that grey book of shades. But before i knew it, my heavenly shower would be dwarfed by the flood in our bathroom it had caused. I like a good shower just like the next person, but the bathroom floor looked like an aerial view after Katrina. . . . . . too soon? Overall, decent place with a couple of quirks, and great service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r285448084-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>285448084</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>Impressive for 2 Star hotel,but not perfect.</t>
+  </si>
+  <si>
+    <t>Stayed for one night and overall had an enjoyable experience. Pros: Staff was friendly and welcoming. The single queen rooms were pretty roomy with an unexpected kitchenette stocked with plates, cups, silverware and paper towels. Bathroom was clean and water pressure was excellent. The room was quiet and cozy with a comfortable bed and chair and the TV came with DirectTV with a nice channel selection. Cons: Wifi was troublesome and finnicky. It was also slow. Elevator was also extremely slow for a 4 story building. Air Conditioner/heater was impressively loud, even on low. Overall, these annoyances are pretty minor compared to my general experience, especially since I paid about 3/4 of what it was worth, even considering it was July 4th weekend. Great hotel, needs a few minor adjustments. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for one night and overall had an enjoyable experience. Pros: Staff was friendly and welcoming. The single queen rooms were pretty roomy with an unexpected kitchenette stocked with plates, cups, silverware and paper towels. Bathroom was clean and water pressure was excellent. The room was quiet and cozy with a comfortable bed and chair and the TV came with DirectTV with a nice channel selection. Cons: Wifi was troublesome and finnicky. It was also slow. Elevator was also extremely slow for a 4 story building. Air Conditioner/heater was impressively loud, even on low. Overall, these annoyances are pretty minor compared to my general experience, especially since I paid about 3/4 of what it was worth, even considering it was July 4th weekend. Great hotel, needs a few minor adjustments. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r283471379-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
@@ -764,6 +1170,39 @@
 There were only two issues at the hotel, one minor and one major.  the minor one is that the elevator is painfully slow.  It will often take multiple minutes for it to get to you which is weird given that this is only a four story hotel.  The big problem is the wi-fi.  Do you miss dial up?  Did you find dial up to be too fast?  If so, then this is the place for you.  It would often take 10 minutes just to get your device online and then even once you did, you couldn't actually get to any pages because the connection was so slow.  The hotel lacks a unified SSID, so there are a bunch of different ones to connect to.  It doesn't matter which one you use though, as they're all horrible.  There is no excuse in this day and age for wi-fi this bad.  While this was fine since I was there with my...Let me start out with the positives.  The rooms are clean.  They're not fancy by any stretch of the imagination, but they are relatively large.  The bed was comfortable and the sheets and towels were surprisingly soft for this level of hotel.  The staff was amazing.  They were quick to respond to any request (e.g. extra towels) and very, very friendly.  The hotel was very quiet and even though it is next to a major highway, we heard no road noise.There were only two issues at the hotel, one minor and one major.  the minor one is that the elevator is painfully slow.  It will often take multiple minutes for it to get to you which is weird given that this is only a four story hotel.  The big problem is the wi-fi.  Do you miss dial up?  Did you find dial up to be too fast?  If so, then this is the place for you.  It would often take 10 minutes just to get your device online and then even once you did, you couldn't actually get to any pages because the connection was so slow.  The hotel lacks a unified SSID, so there are a bunch of different ones to connect to.  It doesn't matter which one you use though, as they're all horrible.  There is no excuse in this day and age for wi-fi this bad.  While this was fine since I was there with my family, I would be unable to stay there for business due to this issue.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r278117489-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>278117489</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Good sleep, convenient location.</t>
+  </si>
+  <si>
+    <t>Easy to find on a business park with other hotels. Plenty of parking. Very helpful staff. Room good size and clean. Well equipped everything you could possibly need for a short or long stay. A little tired in some communal areas but otherwise a good choice to stay.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r271820024-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>271820024</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We stayed here for our honeymoon, even though it's a business hotel, and it was awesome. Staff was helpful and nice and we didn't have any problems. We weren't charged when weather prevented us from arriving on time, and we were even allowed a late checkout. David was especially nice even when the fire alarm was tripped, he handled it very well! Thanks for a great trip...!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r271627307-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -777,9 +1216,6 @@
   </si>
   <si>
     <t xml:space="preserve">Staff is really nice,  hotel is clean,  but it is a little dated.  Halls smelled funny but room was fine.  Bed was comfortable. They don't have restaurant but have good voucher for but not very good selection.  I would stay again for sure. </t>
-  </si>
-  <si>
-    <t>May 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r265677839-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
@@ -844,6 +1280,60 @@
 I found the bed pretty comfortable...The location is real good as it is only two blocks away from the rail line that leads into the heart of downtown Denver.  Price is also very reasonable for suite style rooms (kitchen - stove, microwave,full fridge, plates and utensils).Overall I had a good experience with my stay.  The location (for me) was perfect.  There is a Safeway grocery store just over a mile away and the Hacienda Colorado (Mexican Restaurant) a very short walk away (100 yards).ROOMS:Decent size with a half desk and rolling chair.  Electric receptacles were numerous and conveniently located.  Rooms were clean but the hotel is definitely dated.  Carpet appeared very worn and the hallways had that hint of an old smell.  Room smell had a faintly old smell to it not nothing that would be unbearable or offending.  It was not neutral, meaning no smells at all but what you would normally/probably expect for a hotel of this age.STAFF:Friendly but a bit clueless.  I had reservations through my business reservation system and the front desk girl did not show I had made them.  After several minutes she figured it out.  Room was not ready but she said 30 minutes and she would call me.  I returned (no call) and she gave me the room keys only to find the maid still cleaning the room.  Back to the front desk for another room!BED:I found the bed pretty comfortable especially for sleeping in it for five days.  It was medium firmness.  Pillows were also nice and comfortable.ROOM CLEANLINESS:It was clean and but I think the room could have used a top to down cleaning.  I bring disinfectant wipes to go over all knobs, switches and handles just to make sure.  Those wipes came up pretty dirty when I inspected them.  note, most hotels do not do this anyway so it might be a bit picky to call them out.BATHROOM SHOWER:All faucets worked adequately.  The shower was easy to use.  Hot water was plentiful and stayed hot throughout the showering.LOBBY AREA:A bit small and right in front of the automatic doors so you constantly have to move away and make room for folks entering or leaving the hotel. not that big of a deal.  During my stay the the tile area was constantly wet and slippery (it snowed almost everyday) They did not do a very good job of removing the water and had to be careful not to bust.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r253171411-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>253171411</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>Basic, but clean, quiet and convenient</t>
+  </si>
+  <si>
+    <t>We stayed for 7 nights in January and the hotel met our expectations.  We had a studio room with a king bed and it was basic, but very clean and incredibly quiet.  The kitchen area had pretty much everything we needed in order to make some simple meals.  During our stay we noticed that the toilet was continuously running.  When the maintenance man came to fix it he brought us some cookies for the inconvenience.  So nice!  The location is very, very convenient.  There is only one Mexican restaurant within walking distance, but Interstate 25 is a two minute drive and just on the other side of it are Target and tons of restaurants.  We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>David H, General Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded February 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2015</t>
+  </si>
+  <si>
+    <t>We stayed for 7 nights in January and the hotel met our expectations.  We had a studio room with a king bed and it was basic, but very clean and incredibly quiet.  The kitchen area had pretty much everything we needed in order to make some simple meals.  During our stay we noticed that the toilet was continuously running.  When the maintenance man came to fix it he brought us some cookies for the inconvenience.  So nice!  The location is very, very convenient.  There is only one Mexican restaurant within walking distance, but Interstate 25 is a two minute drive and just on the other side of it are Target and tons of restaurants.  We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r245033697-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>245033697</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Great Hospitality</t>
+  </si>
+  <si>
+    <t>This is a very good place to stay. It's centrally located and just a short drive to downtown Denver. from Denver. The staff is very helpful. Trina, at the front desk, is very friendly. She made arrangements for me to use a meeting room. David, the GM, helped me work out a deal for an upcoming stay in January. The room was spacious, clean and comfortable. I truly enjoyed my stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>David H, Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded December 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2014</t>
+  </si>
+  <si>
+    <t>This is a very good place to stay. It's centrally located and just a short drive to downtown Denver. from Denver. The staff is very helpful. Trina, at the front desk, is very friendly. She made arrangements for me to use a meeting room. David, the GM, helped me work out a deal for an upcoming stay in January. The room was spacious, clean and comfortable. I truly enjoyed my stay here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r241655063-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -910,6 +1400,51 @@
     <t>I stayed at this hotel last month while visiting family and we LOVED it! The staff members were very friendly and helpful, the rooms were comfortable and clean and the kitchen was great too! No complaints and we will definitely be staying here during our next visit. Very pleased. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r238705557-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>238705557</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>A great fit for our family</t>
+  </si>
+  <si>
+    <t>My sister lives in Englewood but cannot accommodate my entire family when we visit so we stayed at the Candlewood Suites when we came to town last month. It was our first time staying there and what a great impression. The clean, comfortable two-bedroom suite was perfect for our family and the kitchen allowed us to save a few bucks on eating out. I also have to give a shoutout to the friendly and attentive staff who made us feel welcome and appreciated. We'll be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>My sister lives in Englewood but cannot accommodate my entire family when we visit so we stayed at the Candlewood Suites when we came to town last month. It was our first time staying there and what a great impression. The clean, comfortable two-bedroom suite was perfect for our family and the kitchen allowed us to save a few bucks on eating out. I also have to give a shoutout to the friendly and attentive staff who made us feel welcome and appreciated. We'll be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r236273853-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>236273853</t>
+  </si>
+  <si>
+    <t>10/25/2014</t>
+  </si>
+  <si>
+    <t>Clean rooms &amp; great staff!</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights and will be staying again when visiting friends. The room was clean and a good size. Very comfy! But, by far the staff was one of the best!! Fast and courteous check in and they really seemed to want to make our stay a great one. Thank you for the great customer service!MoreShow less</t>
+  </si>
+  <si>
+    <t>David H, Front Office Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded October 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2014</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights and will be staying again when visiting friends. The room was clean and a good size. Very comfy! But, by far the staff was one of the best!! Fast and courteous check in and they really seemed to want to make our stay a great one. Thank you for the great customer service!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r235744721-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -952,9 +1487,6 @@
     <t>We came to Denver with another couple for the weekend to watch the Bronco vs 49ers game. When we checked in, they were out of king size bedrooms. So we were put up in 2 separate suites. Well the other couple were put in a 2 bedroom suite; our suite only had 1 bedroom. So we asked to cancel our room and room with them. They had no problem with that and even credited back our room we didn't stay in. I've never heard of any hotel doing that, ever! They are clean and cozy. Home away from home. They are also conveniently located by the RDT E-Line to get downtown easily. MoreShow less</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
     <t>David H, Front Office Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded October 21, 2014</t>
   </si>
   <si>
@@ -991,6 +1523,59 @@
     <t>Had a 9 night stay at this Candlewood. Staff was welcoming and always helpful. However the property looked tired, corridor was somehow quite dark. Room was spacious but the sofa and carpet were not exactly what you call clean. The full kitchen was a plus. Room was fair, pillow was good but there were holes in the bedding. One thing was that the air conditioning was loud, it switched itself on every 10 minutes and made quality sleep impossible. No breakfast included and weekly housekeeping is a downside. For nearby places at a lower rate breakfast is available, I think Candlewood should consider making them available.Average stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r229916717-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>229916717</t>
+  </si>
+  <si>
+    <t>09/20/2014</t>
+  </si>
+  <si>
+    <t>what a disappointment!</t>
+  </si>
+  <si>
+    <t>Positives*warm welcome*reception area welcoming*30-40 minutes to denver international airportNegatives*musty smell in room*curtains hanging off rail*voile drapes at window very dirty with holes*veneer peeling off kitchen surfaces*carpet fraying at edges*revolting plastic/faux leather valance covering base of bed*tv wouldn't work-had to phone reception*lacking in cutlery*constant noise of loud fans/fridges *dogs barkingThis hotel was the conclusion to our self drive holiday in the USA - what a disappointing note to end on! We have stayed in another candlewood suites, holiday inn expresses and holiday inns during this trip and they have all lived up to and in some cases exceeded our expectations but not this one! We would not recommend staying here at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded October 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2014</t>
+  </si>
+  <si>
+    <t>Positives*warm welcome*reception area welcoming*30-40 minutes to denver international airportNegatives*musty smell in room*curtains hanging off rail*voile drapes at window very dirty with holes*veneer peeling off kitchen surfaces*carpet fraying at edges*revolting plastic/faux leather valance covering base of bed*tv wouldn't work-had to phone reception*lacking in cutlery*constant noise of loud fans/fridges *dogs barkingThis hotel was the conclusion to our self drive holiday in the USA - what a disappointing note to end on! We have stayed in another candlewood suites, holiday inn expresses and holiday inns during this trip and they have all lived up to and in some cases exceeded our expectations but not this one! We would not recommend staying here at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r229788135-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>229788135</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Not WORTH It!!!</t>
+  </si>
+  <si>
+    <t>This hotel was so not worth the rate that it quotes...or at least it wasn't when I stayed there. Just the day before my reservation ended, I had decided to make an official complaint to the corporate office and after I made this complaint, the very next day, corporate made a visit to their establishment and this is when I began to notice the staff on site actually start to perform their duties. Things that I had complained on were getting addressed.  Prior to the complaint, I was an extended stay guest for a month, the exterior looked appealing, but the interior didn't match, with the hallways and stairwells always filthy full of outside leaves, pet hair and trash and reeked of dog poop. The carpet in the hallways on every floor and stairwells were most definitely in need of a shampoo cleansing. The laundry room consistently had either the dryers or the washing machines on the blink and always had linen and specks of trash on the floor. The gym had equipment that either didn't function or had missing parts plus there were no sanitized wipes provided, which also makes the gym equipment unsanitary. The business center on the 4th floor didn't always function either. 
+During my stay, there were several noise disturbances that I encountered daily and nightly from stomping in the halls, to kids running in the hallways, to adjacent neighbors slamming drawers/cabinets and even banging on...This hotel was so not worth the rate that it quotes...or at least it wasn't when I stayed there. Just the day before my reservation ended, I had decided to make an official complaint to the corporate office and after I made this complaint, the very next day, corporate made a visit to their establishment and this is when I began to notice the staff on site actually start to perform their duties. Things that I had complained on were getting addressed.  Prior to the complaint, I was an extended stay guest for a month, the exterior looked appealing, but the interior didn't match, with the hallways and stairwells always filthy full of outside leaves, pet hair and trash and reeked of dog poop. The carpet in the hallways on every floor and stairwells were most definitely in need of a shampoo cleansing. The laundry room consistently had either the dryers or the washing machines on the blink and always had linen and specks of trash on the floor. The gym had equipment that either didn't function or had missing parts plus there were no sanitized wipes provided, which also makes the gym equipment unsanitary. The business center on the 4th floor didn't always function either. During my stay, there were several noise disturbances that I encountered daily and nightly from stomping in the halls, to kids running in the hallways, to adjacent neighbors slamming drawers/cabinets and even banging on the walls/headboard. and I informed management on several occasions, but it was never addressed nor ceased!   Now usually when I book at hotels, I don't utilize the housekeeping service, but while I was there I decided to use their service one day and when I came back to my room, I had no new towels, the used ones were still there, and my bed wasn't made or linen changed. Needless to say, I didn't continue to use the service! Another day, I had decided to place my receptacle out in front of my door in the morning, so it would be emptied by housekeeping, but unfortunately later that afternoon, I noticed that every other guest's can was emptied except for mine. For both incidents, I was forced to make a complaint to the management. I thought, 'what kind of business is this when staff cannot fulfill their professional duties unless their is a complaint made?' There were a couple of encounters that I endured from other staff members that I felt were a little less than professional: One is where maintenance entered my room unannounced and I just happen to be in there with the shower running. There was a situation when the mgr. “mistakenly” opens a letter that was addressed to me, but what raised a *red flag* was when I was given my letter in another envelope and not the one it arrived in.             Every single issue, I encountered, I complained to the onsite management and I was ignored, until I contacted the corporate headquarters. But by then, I was vacating the hotel!            So, hopefully the next guest won't have to endure the same inhabitable conditions as I.           But,  Good Luck if you reserve with this hotel....seems as though it might be a gamble!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded October 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was so not worth the rate that it quotes...or at least it wasn't when I stayed there. Just the day before my reservation ended, I had decided to make an official complaint to the corporate office and after I made this complaint, the very next day, corporate made a visit to their establishment and this is when I began to notice the staff on site actually start to perform their duties. Things that I had complained on were getting addressed.  Prior to the complaint, I was an extended stay guest for a month, the exterior looked appealing, but the interior didn't match, with the hallways and stairwells always filthy full of outside leaves, pet hair and trash and reeked of dog poop. The carpet in the hallways on every floor and stairwells were most definitely in need of a shampoo cleansing. The laundry room consistently had either the dryers or the washing machines on the blink and always had linen and specks of trash on the floor. The gym had equipment that either didn't function or had missing parts plus there were no sanitized wipes provided, which also makes the gym equipment unsanitary. The business center on the 4th floor didn't always function either. 
+During my stay, there were several noise disturbances that I encountered daily and nightly from stomping in the halls, to kids running in the hallways, to adjacent neighbors slamming drawers/cabinets and even banging on...This hotel was so not worth the rate that it quotes...or at least it wasn't when I stayed there. Just the day before my reservation ended, I had decided to make an official complaint to the corporate office and after I made this complaint, the very next day, corporate made a visit to their establishment and this is when I began to notice the staff on site actually start to perform their duties. Things that I had complained on were getting addressed.  Prior to the complaint, I was an extended stay guest for a month, the exterior looked appealing, but the interior didn't match, with the hallways and stairwells always filthy full of outside leaves, pet hair and trash and reeked of dog poop. The carpet in the hallways on every floor and stairwells were most definitely in need of a shampoo cleansing. The laundry room consistently had either the dryers or the washing machines on the blink and always had linen and specks of trash on the floor. The gym had equipment that either didn't function or had missing parts plus there were no sanitized wipes provided, which also makes the gym equipment unsanitary. The business center on the 4th floor didn't always function either. During my stay, there were several noise disturbances that I encountered daily and nightly from stomping in the halls, to kids running in the hallways, to adjacent neighbors slamming drawers/cabinets and even banging on the walls/headboard. and I informed management on several occasions, but it was never addressed nor ceased!   Now usually when I book at hotels, I don't utilize the housekeeping service, but while I was there I decided to use their service one day and when I came back to my room, I had no new towels, the used ones were still there, and my bed wasn't made or linen changed. Needless to say, I didn't continue to use the service! Another day, I had decided to place my receptacle out in front of my door in the morning, so it would be emptied by housekeeping, but unfortunately later that afternoon, I noticed that every other guest's can was emptied except for mine. For both incidents, I was forced to make a complaint to the management. I thought, 'what kind of business is this when staff cannot fulfill their professional duties unless their is a complaint made?' There were a couple of encounters that I endured from other staff members that I felt were a little less than professional: One is where maintenance entered my room unannounced and I just happen to be in there with the shower running. There was a situation when the mgr. “mistakenly” opens a letter that was addressed to me, but what raised a *red flag* was when I was given my letter in another envelope and not the one it arrived in.             Every single issue, I encountered, I complained to the onsite management and I was ignored, until I contacted the corporate headquarters. But by then, I was vacating the hotel!            So, hopefully the next guest won't have to endure the same inhabitable conditions as I.           But,  Good Luck if you reserve with this hotel....seems as though it might be a gamble!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r229365238-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1046,6 +1631,57 @@
   </si>
   <si>
     <t>This hotel provided everything needed, but didn't make you feel good. The halls and rooms are a bit drab and dreary. Almost nothing stood out as anything above average. The one thing that was great was the towels -- they were extra thick and soft -- something note found in anything except the best luxury hotels these days. The kitchen is nice to have, and the rooms have full-size refrigerators. We had a couple of issues with the room, and the friendly staff took care of things immediately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r218755578-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>218755578</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Economical for long stay visitors but not Business Travellers</t>
+  </si>
+  <si>
+    <t>First time at this property as I normally stay at the Hilton Inn next door. Great value for the price but drawbacks:- A/C units on windows not central so noise at night disrupts sleep-Gym small. Acceptable if machines work. Half did not and with one of each, there should be a sign during peak use for limits by guests.-Given no meal service, perhaps a shuttle to take guests w/o autos to nearby mall.Solution to gym...nice trail outside parallel to golf course.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded August 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2014</t>
+  </si>
+  <si>
+    <t>First time at this property as I normally stay at the Hilton Inn next door. Great value for the price but drawbacks:- A/C units on windows not central so noise at night disrupts sleep-Gym small. Acceptable if machines work. Half did not and with one of each, there should be a sign during peak use for limits by guests.-Given no meal service, perhaps a shuttle to take guests w/o autos to nearby mall.Solution to gym...nice trail outside parallel to golf course.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r207348384-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>207348384</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>It was better at this candlewood suites</t>
+  </si>
+  <si>
+    <t>Me and my little brother stayed in many candlewood suites. This is one that is ruff around the edges but not to bad. This is a place with great potential because it is not far from Denver public transportation. I did have one issue. The room we were put in was a smoking room as I have serious upper resp problems. I have on my profile as well as the request for a hyper allergenic rooms. But instead of that we were put in a smoking room. The first room we were put in had a pillow case that was yellow but was suppose to be white. Lol. Well, I did bring that to the front desk to relate to the housekeeping managers. I was basically brushed off. I guess if you are not platinum anymore, than who cares what a regular guest feel. Well, that's sort of how I felt. Not to much as to talk about. The bathrooms were lacking some appeal as a IHG property. But other than that, it was ok stay.  I can honestly say that this candlewood is better than the other one that is in golden co. I would stay here again, providing there is better linen on beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>David H, General Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Me and my little brother stayed in many candlewood suites. This is one that is ruff around the edges but not to bad. This is a place with great potential because it is not far from Denver public transportation. I did have one issue. The room we were put in was a smoking room as I have serious upper resp problems. I have on my profile as well as the request for a hyper allergenic rooms. But instead of that we were put in a smoking room. The first room we were put in had a pillow case that was yellow but was suppose to be white. Lol. Well, I did bring that to the front desk to relate to the housekeeping managers. I was basically brushed off. I guess if you are not platinum anymore, than who cares what a regular guest feel. Well, that's sort of how I felt. Not to much as to talk about. The bathrooms were lacking some appeal as a IHG property. But other than that, it was ok stay.  I can honestly say that this candlewood is better than the other one that is in golden co. I would stay here again, providing there is better linen on beds.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r200260692-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
@@ -1142,6 +1778,54 @@
 Management: instead of apologizing profusely to the not so great reviews, most of which mention crappy bed linens and bad odors, DO something about it. We stay in hotels often and this one is sub-par... We've stayed in MANY supposedly lower end places that were better than this.  Put your money where your mouth is and perhaps offer a discount at another...Unexpected extra night in area and needed a room. Based on staying at other hotels of this chain, we chose this one... What a mistake. Upon pulling up to check in, a large black dog was at the entrance with several people obviously hanging out around front desk.  A strong odor (reminded me of urine) was in the reception desk area... Elevator dirty. Room heater was blasting when we entered ... Musty smell. Turned off heat and turned on AC. Large king bed with 4 small (actually just regular sized pillows, not King or even Queen sized. Very flat and mushy and 2 had yellowish cases on them. Called and asked for 2 more... Not much better. Pitiful. Bed is way too firm and linens look very worn and cheap. Bathroom not bad, but really.... 4 bars of soap stacked on the counter and 1 small bottle of shampoo. Awkward room... King bed almost against one wall on one side with a single nightstand on one side only... There's two of us!  Just a cheesy, experience all around.       Management: instead of apologizing profusely to the not so great reviews, most of which mention crappy bed linens and bad odors, DO something about it. We stay in hotels often and this one is sub-par... We've stayed in MANY supposedly lower end places that were better than this.  Put your money where your mouth is and perhaps offer a discount at another hotel in the chain... Or money back on this stay. I'm laying in this shabby bed wishing we had gone elsewhere, and writing this review. If we weren't so tired and had time, I would leave now.... More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r193882881-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>193882881</t>
+  </si>
+  <si>
+    <t>02/12/2014</t>
+  </si>
+  <si>
+    <t>Working television would have been nice</t>
+  </si>
+  <si>
+    <t>The room itself was fine.  We unpacked and sat down to relax for a few minutes.  Tried to turn on the television in the sitting room area - it didn't work.  Then tried the tv in the bedroom, and it didn't work either.  Called the front desk and they came up and tried to fix them but they couldn't get either to work.  So they offered us a move to a larger room which we accepted.  So we toted everything up to the new room and could not get either tv to work again.  The front desk rep came up and after some effort, got the tv in the sitting room to work.  No luck with the one in the bedroom.  Other than that, the room itself was fine.  They could have done a better job plowing the snow out of the entrance driveway and their parking area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded February 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2014</t>
+  </si>
+  <si>
+    <t>The room itself was fine.  We unpacked and sat down to relax for a few minutes.  Tried to turn on the television in the sitting room area - it didn't work.  Then tried the tv in the bedroom, and it didn't work either.  Called the front desk and they came up and tried to fix them but they couldn't get either to work.  So they offered us a move to a larger room which we accepted.  So we toted everything up to the new room and could not get either tv to work again.  The front desk rep came up and after some effort, got the tv in the sitting room to work.  No luck with the one in the bedroom.  Other than that, the room itself was fine.  They could have done a better job plowing the snow out of the entrance driveway and their parking area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r191991674-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>191991674</t>
+  </si>
+  <si>
+    <t>01/25/2014</t>
+  </si>
+  <si>
+    <t>Should have read the fine print...</t>
+  </si>
+  <si>
+    <t>When I booked it I didn't realize it was an extended stay hotel...that being said, we worked around it just fine. No breakfast currently served, but the staff says that may change in the future...so be aware of that. Room was spacious with a small kitchen. With a few groceries we made due. The staff was very helpful with what they had to work with. No shuttle service of any type. However a 5 min walk to the Light Rail connected you to the mall, restaurants and downtown Denver. This came in very handy while I worked and my wife had the days to herself. We did not try many of the hotel's amenities but felt the price was pretty reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>When I booked it I didn't realize it was an extended stay hotel...that being said, we worked around it just fine. No breakfast currently served, but the staff says that may change in the future...so be aware of that. Room was spacious with a small kitchen. With a few groceries we made due. The staff was very helpful with what they had to work with. No shuttle service of any type. However a 5 min walk to the Light Rail connected you to the mall, restaurants and downtown Denver. This came in very handy while I worked and my wife had the days to herself. We did not try many of the hotel's amenities but felt the price was pretty reasonable.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r188718234-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1214,6 +1898,45 @@
     <t>The staff at this hotel was very friendly and able to work with me.  They allowed me to check in early with no charge because they had a room ready at the time.  This has always been something that agitated me, if the room is ready why would other hotels charge me to check in early.  Anyways, a nice thing about this hotel which I have not seen at others was that the room had directv hd programming.  It was nice to have a variety of channels instead of the typical 20 channels that you are stuck with at other places.  My room had a kitchen, and I think every room does, that had nice granite (I think, for sure it is real stone tho) countertops that were also in the bathroom and shower.  This hotels served my needs nicely and had some added benefits, like kitchen and driectv, and with the rate I paid I think it was a great value.  If im in the area again I will give them a call.  Shout out to front desk guy Dennis, guy was really helpful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r179389288-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>179389288</t>
+  </si>
+  <si>
+    <t>10/01/2013</t>
+  </si>
+  <si>
+    <t>very accomodating</t>
+  </si>
+  <si>
+    <t>I don't normally take time for the good reviews - just the bad ones.  I was coming from another hotel that totally sucked, I was tired and cranky, and I arrived at Candlewood-Meridian a bit early (like 1:00-1:30).  The front desk clerk greeted me, recognized me as a platinum member.  I asked - can I check in early?  I also stated no problem if I had to come back.  He was totally accomodating and went out of his way to get me a room early (calling housekeeping several times on the radio).  I literally had no problems at this hotel.  It was quiet, clean, plats get a few comps at the snack area, good stay.  Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I don't normally take time for the good reviews - just the bad ones.  I was coming from another hotel that totally sucked, I was tired and cranky, and I arrived at Candlewood-Meridian a bit early (like 1:00-1:30).  The front desk clerk greeted me, recognized me as a platinum member.  I asked - can I check in early?  I also stated no problem if I had to come back.  He was totally accomodating and went out of his way to get me a room early (calling housekeeping several times on the radio).  I literally had no problems at this hotel.  It was quiet, clean, plats get a few comps at the snack area, good stay.  Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r178938612-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>178938612</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>Decent stay</t>
+  </si>
+  <si>
+    <t>Despite being concerned over some less than stellar reviews,my stay w/ This Candlewood was decent.it was not the best,but it was respectable.the room was clean &amp; a comfortable temp,the bed was comfortable,the fitness room was clean &amp; quiet,&amp; the pool area looked clean,though I did not use it during my stay.i stayed overnight only,&amp; although the location was not the most convenient in Denver,it was fine for what my husband &amp; I needed.there was a slight smoke smell in the hall,but I'm allergic &amp; it didn't even phase me much.Though I was somewhat disappointed that the front desk attendant didn't tell me where everything was located such as the fitness Ctr area or the laundry,&amp; I didn't get anything @ check in as a rewards member(all places so far I have such as a water or snack or something),he was very friendly &amp; nice.if overnight on the road is what you are looking for,this place is just fine.not centrally located to alot of tourist attractions,but just fine for "just passing thru".MoreShow less</t>
+  </si>
+  <si>
+    <t>Despite being concerned over some less than stellar reviews,my stay w/ This Candlewood was decent.it was not the best,but it was respectable.the room was clean &amp; a comfortable temp,the bed was comfortable,the fitness room was clean &amp; quiet,&amp; the pool area looked clean,though I did not use it during my stay.i stayed overnight only,&amp; although the location was not the most convenient in Denver,it was fine for what my husband &amp; I needed.there was a slight smoke smell in the hall,but I'm allergic &amp; it didn't even phase me much.Though I was somewhat disappointed that the front desk attendant didn't tell me where everything was located such as the fitness Ctr area or the laundry,&amp; I didn't get anything @ check in as a rewards member(all places so far I have such as a water or snack or something),he was very friendly &amp; nice.if overnight on the road is what you are looking for,this place is just fine.not centrally located to alot of tourist attractions,but just fine for "just passing thru".More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r178885539-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1229,9 +1952,6 @@
     <t>A very nice clean fairly new hotel in a wonderful area of town. Plenty of parking in a well lit area. Room was very clean, hotel must be very new as it was very clean and smelled new! Staff are very friendly upon check in even though they had the stress of being sold out due to FEMA sending local residents there that had flood damage. Great place to spend a day or a week!</t>
   </si>
   <si>
-    <t>September 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r177069058-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1274,6 +1994,56 @@
     <t>After 9 hours on the road with a toddler, I had to stop.  I tried to stay at the Hilton Garden Inn, but they wouldn't honor a discounted rate.  Upset and tired, I got in the car to find somewhere else to stay and the Candlewood is literally right next door.  So, that was why we ended up there.The hotel is ok, bordering on dirty and run-down.  Because I was so tired, I decided to close my eyes and make the best of it.  For some reason, even though I know it is an extended stay type of hotel, I expected they would have a breakfast.  But they don't...just be aware.The room itself was awkward.  One giant room with a kitchen, 2 beds and a sitting area.  This is unlike a Homewood Suites that separates the living area and bedroom area.  I found it odd and not entirely comfortable.  Although, even though we faced the front of the hotel, right by the front door, I found the room quiet.  Oh, they do have window A/C units...which I generally hate, but this one wasn't so bad.Like I said, it was ok.  I'm glad it was just one night and not an extended stay.  And honestly, I wouldn't return.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r174142694-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>174142694</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>Watch your Bill...don't have a package delivered, and don't plan on using the pool or DVD</t>
+  </si>
+  <si>
+    <t>First....let me say that the lady at the front desk and the younger gentleman who always wore bright colored business shirts....you were both marvelous.   Friendly, always said hello as we walked past, followed through as best you could on questions, requests.   Just what this Platinum member expects.   Your General Manager, Glen....and whoever does your billing.....needs to go back to school to learn the business.  
+We stayed 12 nights on points.   We had a business delivery made which was apparently delivered to the wrong room......and it took Glen five hours, and a call to IHG customer care, before it arrived.   We had paid the higher rate to have it delivered before 8am....it was delivered and signed for at 7:50am.....but when we went down just after 8am to get it Glen claimed it had been delivered, but quoted a different room and floor #.   Then he said he'd have his maintenance guy get it and deliver it to us....well, apparently they weren't sure WHERE they delivered it.  We repeatedly called and went downstairs trying to make Glen understand the urgency of this delivery.....we were there on business and needed the package in order to go to the jobsite and do the work we were hired for!   He didn't care....and basically said as much "We'll get to it" was his response when we asked when it would be delivered.   We finally called IHG customer service and less than 30 minutes later our package...First....let me say that the lady at the front desk and the younger gentleman who always wore bright colored business shirts....you were both marvelous.   Friendly, always said hello as we walked past, followed through as best you could on questions, requests.   Just what this Platinum member expects.   Your General Manager, Glen....and whoever does your billing.....needs to go back to school to learn the business.  We stayed 12 nights on points.   We had a business delivery made which was apparently delivered to the wrong room......and it took Glen five hours, and a call to IHG customer care, before it arrived.   We had paid the higher rate to have it delivered before 8am....it was delivered and signed for at 7:50am.....but when we went down just after 8am to get it Glen claimed it had been delivered, but quoted a different room and floor #.   Then he said he'd have his maintenance guy get it and deliver it to us....well, apparently they weren't sure WHERE they delivered it.  We repeatedly called and went downstairs trying to make Glen understand the urgency of this delivery.....we were there on business and needed the package in order to go to the jobsite and do the work we were hired for!   He didn't care....and basically said as much "We'll get to it" was his response when we asked when it would be delivered.   We finally called IHG customer service and less than 30 minutes later our package is finally delivered, without apology or explanation.   The pool was closed due to "maintenance issues" most of our stay with the estimate of "soon" when asked.  Really, 10 days?   DVD players are advertised as being available.....only problem is that nowhere in the hotel is there a remote....apparently these are new DVDs and they didn't come with remotes.  Per Glen they were "on order" for all 12 days but never arrived.  Per Maintenance guy, they've had the players for months but never ordered the remotes (I tend to believe him).   So, unless you have a DVD that automatically starts (i.e. no menu) you're out of luck because you can't select anything on the menu to start.    While this certainly wasn't a deciding factor in choosing a hotel, we brought our kids along and they were looking forward to watching the DVDs they brought from home.   And they couldn't swim either......not happy children.  And then there was the billing.....we were there 12 nights all on points.   Free.   Upon leaving we gave them our room keycards, confirmed that we were on points and no charges and left.   What do I find a week later on my credit card bill?   Charges for the stay.   Ummm, no.   Just now called the hotel and they say they'll correct it....no explanation, no apology, just we'll take care of it.  They have 5 days for it to show up on my credit card before I dispute the charges.   And a letter is already been emailed to IHG Customer Care about this latest problem.    I wonder how many people stay on points, get charged but because most people don't pay much attention to their bill, they never realize it.  Sorry, you picked the wrong family for that, I check my bill several times a week and caught it.    If it was an honest mistake....a "I'm sorry" would have been nice.  The hotel was ok.....a bit older.....set in an industrial park so you have to drive to restaurants, shops or anything else, but fine.   It is used by many blue collar as a long term stay, and all that this entails (but we did know this was likely at a Candlewood).   I normally would say we'd stay again, because some of the staff were great, and the hotel was fine for our needs.....but Glen, because of you, our return trip to Denver in October will be at the Marriott Residence Inn down the street and any future stays will not be at the Candlewood on El Diente Court.  Thank heavens we're Platinum members and know this is not the norm for IHG.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded September 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2013</t>
+  </si>
+  <si>
+    <t>First....let me say that the lady at the front desk and the younger gentleman who always wore bright colored business shirts....you were both marvelous.   Friendly, always said hello as we walked past, followed through as best you could on questions, requests.   Just what this Platinum member expects.   Your General Manager, Glen....and whoever does your billing.....needs to go back to school to learn the business.  
+We stayed 12 nights on points.   We had a business delivery made which was apparently delivered to the wrong room......and it took Glen five hours, and a call to IHG customer care, before it arrived.   We had paid the higher rate to have it delivered before 8am....it was delivered and signed for at 7:50am.....but when we went down just after 8am to get it Glen claimed it had been delivered, but quoted a different room and floor #.   Then he said he'd have his maintenance guy get it and deliver it to us....well, apparently they weren't sure WHERE they delivered it.  We repeatedly called and went downstairs trying to make Glen understand the urgency of this delivery.....we were there on business and needed the package in order to go to the jobsite and do the work we were hired for!   He didn't care....and basically said as much "We'll get to it" was his response when we asked when it would be delivered.   We finally called IHG customer service and less than 30 minutes later our package...First....let me say that the lady at the front desk and the younger gentleman who always wore bright colored business shirts....you were both marvelous.   Friendly, always said hello as we walked past, followed through as best you could on questions, requests.   Just what this Platinum member expects.   Your General Manager, Glen....and whoever does your billing.....needs to go back to school to learn the business.  We stayed 12 nights on points.   We had a business delivery made which was apparently delivered to the wrong room......and it took Glen five hours, and a call to IHG customer care, before it arrived.   We had paid the higher rate to have it delivered before 8am....it was delivered and signed for at 7:50am.....but when we went down just after 8am to get it Glen claimed it had been delivered, but quoted a different room and floor #.   Then he said he'd have his maintenance guy get it and deliver it to us....well, apparently they weren't sure WHERE they delivered it.  We repeatedly called and went downstairs trying to make Glen understand the urgency of this delivery.....we were there on business and needed the package in order to go to the jobsite and do the work we were hired for!   He didn't care....and basically said as much "We'll get to it" was his response when we asked when it would be delivered.   We finally called IHG customer service and less than 30 minutes later our package is finally delivered, without apology or explanation.   The pool was closed due to "maintenance issues" most of our stay with the estimate of "soon" when asked.  Really, 10 days?   DVD players are advertised as being available.....only problem is that nowhere in the hotel is there a remote....apparently these are new DVDs and they didn't come with remotes.  Per Glen they were "on order" for all 12 days but never arrived.  Per Maintenance guy, they've had the players for months but never ordered the remotes (I tend to believe him).   So, unless you have a DVD that automatically starts (i.e. no menu) you're out of luck because you can't select anything on the menu to start.    While this certainly wasn't a deciding factor in choosing a hotel, we brought our kids along and they were looking forward to watching the DVDs they brought from home.   And they couldn't swim either......not happy children.  And then there was the billing.....we were there 12 nights all on points.   Free.   Upon leaving we gave them our room keycards, confirmed that we were on points and no charges and left.   What do I find a week later on my credit card bill?   Charges for the stay.   Ummm, no.   Just now called the hotel and they say they'll correct it....no explanation, no apology, just we'll take care of it.  They have 5 days for it to show up on my credit card before I dispute the charges.   And a letter is already been emailed to IHG Customer Care about this latest problem.    I wonder how many people stay on points, get charged but because most people don't pay much attention to their bill, they never realize it.  Sorry, you picked the wrong family for that, I check my bill several times a week and caught it.    If it was an honest mistake....a "I'm sorry" would have been nice.  The hotel was ok.....a bit older.....set in an industrial park so you have to drive to restaurants, shops or anything else, but fine.   It is used by many blue collar as a long term stay, and all that this entails (but we did know this was likely at a Candlewood).   I normally would say we'd stay again, because some of the staff were great, and the hotel was fine for our needs.....but Glen, because of you, our return trip to Denver in October will be at the Marriott Residence Inn down the street and any future stays will not be at the Candlewood on El Diente Court.  Thank heavens we're Platinum members and know this is not the norm for IHG.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r173096637-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>173096637</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>What a dump.</t>
+  </si>
+  <si>
+    <t>Rundown, dumpy, under maintained and shaggy. Smells like stale smoke. Mold in shower surround, tiles all cracked and chipped, and poor job cleaning. Had to pick up phone at breakfast area to get someone at front desk. Englewood ,CO is not a third world nation, last time I checked. Lights over beds bulbs burnt and hairs on bathroom floors. Bought on Priceline so sometimes you win sometimes you lose. Thought about going elsewhere but suffered through. Didn't see any bugs, so that's a plus. Should be considered a 1 star.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded September 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2013</t>
+  </si>
+  <si>
+    <t>Rundown, dumpy, under maintained and shaggy. Smells like stale smoke. Mold in shower surround, tiles all cracked and chipped, and poor job cleaning. Had to pick up phone at breakfast area to get someone at front desk. Englewood ,CO is not a third world nation, last time I checked. Lights over beds bulbs burnt and hairs on bathroom floors. Bought on Priceline so sometimes you win sometimes you lose. Thought about going elsewhere but suffered through. Didn't see any bugs, so that's a plus. Should be considered a 1 star.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r171959524-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1325,6 +2095,57 @@
     <t>We had a great night's sleep here (very quiet), even though the room was not as clean as I would have liked. The bedding was stained, and there were some stains in the bathroom. The indoor pool is open 24/7, which was nice because we arrived late and could still swim. It's probably convenient for business travelers working in the area, but is not close to restaurants and other sites in the Denver area.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r169816587-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>169816587</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>Great Room, Poor Support</t>
+  </si>
+  <si>
+    <t>My son booked this room for a week with points knowing it was an extended stay but still expecting housekeeping when called.  Several issues here; when called for clean towels we picked them up the next afternoon, when called for a linen change no one ever showed, we checked out a day early and were told the points for the day would be credited back.  He later found out they didn't and had charged his credit card.  The matter is still in process but never should have happened.  I would never stay at this hotel again at the $113.99 per night + $10 per person starting with the 3rd.  Almost forgot about the people who the staff referred to as "long term" with children who they knew by name, the noise they made and where it was made.  The three dot rating is the average of 4.5 for the room and 1.5 for the service.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded August 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2013</t>
+  </si>
+  <si>
+    <t>My son booked this room for a week with points knowing it was an extended stay but still expecting housekeeping when called.  Several issues here; when called for clean towels we picked them up the next afternoon, when called for a linen change no one ever showed, we checked out a day early and were told the points for the day would be credited back.  He later found out they didn't and had charged his credit card.  The matter is still in process but never should have happened.  I would never stay at this hotel again at the $113.99 per night + $10 per person starting with the 3rd.  Almost forgot about the people who the staff referred to as "long term" with children who they knew by name, the noise they made and where it was made.  The three dot rating is the average of 4.5 for the room and 1.5 for the service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r167732456-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>167732456</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Not clean</t>
+  </si>
+  <si>
+    <t>I stayed for 3 nights.  I have stayed at the Marriott and HGI at the DTC in the past    This hotel is not as clean as it could or should be.  The hallways were scattered with either towels or broken coffee maker for all 3 days.  The alternate entrance was littered with cigarettes for the stay as well.  The pillows are extremely small and uncomfortable.  My bed linens while they seemed clean the pillow cases and duvet were not. The pillows had hair from a prior visitor.  The duvet had stains on it and smelled terribly.  While the price is lower than the competing hotels the quality is much less than you pay forMoreShow less</t>
+  </si>
+  <si>
+    <t>Glenn W, General Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded July 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2013</t>
+  </si>
+  <si>
+    <t>I stayed for 3 nights.  I have stayed at the Marriott and HGI at the DTC in the past    This hotel is not as clean as it could or should be.  The hallways were scattered with either towels or broken coffee maker for all 3 days.  The alternate entrance was littered with cigarettes for the stay as well.  The pillows are extremely small and uncomfortable.  My bed linens while they seemed clean the pillow cases and duvet were not. The pillows had hair from a prior visitor.  The duvet had stains on it and smelled terribly.  While the price is lower than the competing hotels the quality is much less than you pay forMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r161886387-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1403,6 +2224,39 @@
     <t>I stayed here for 13 days. The area is loaded with shops, grocery store, movie theater, etc. but you have to drive. This place was OK. Not OK like alright. OK like so-so. Its definitely on the lower end of the Candlewood scale. Check in was good and they seemed to have fixed the odor problem others wrote about, as I didn't notice anything. The room was fine, clean and properly stocked. The pillows were soft so I went to front desk to get firm ones. Since they had to wait for clean cases he said he would bring them to my room, which after a little while he did. Since I had 2 beds I only exchanged pillows on one and after I put the new cases on the firm pillows I noticed a huge difference. The new cases were fresh and white the other cases were so dirty they were literally yellow! Clearly they do not clean the cases after each stay. OK I understand not cleaning the spread, but the pillow cases have scalp oils, drool, acne ooze and who knows what else from each person. I often throw extra pillows on the floor to block sound and light from under the door. They should be cleaned every time and these looked to have gone several months! Yuk Thankfully I do bring my own pillow to sleep on. On the plus side the firm pillows were very...I stayed here for 13 days. The area is loaded with shops, grocery store, movie theater, etc. but you have to drive. This place was OK. Not OK like alright. OK like so-so. Its definitely on the lower end of the Candlewood scale. Check in was good and they seemed to have fixed the odor problem others wrote about, as I didn't notice anything. The room was fine, clean and properly stocked. The pillows were soft so I went to front desk to get firm ones. Since they had to wait for clean cases he said he would bring them to my room, which after a little while he did. Since I had 2 beds I only exchanged pillows on one and after I put the new cases on the firm pillows I noticed a huge difference. The new cases were fresh and white the other cases were so dirty they were literally yellow! Clearly they do not clean the cases after each stay. OK I understand not cleaning the spread, but the pillow cases have scalp oils, drool, acne ooze and who knows what else from each person. I often throw extra pillows on the floor to block sound and light from under the door. They should be cleaned every time and these looked to have gone several months! Yuk Thankfully I do bring my own pillow to sleep on. On the plus side the firm pillows were very nice.The bed was firm, the decor is the usual Candlewood updates except they opted for the cheap looking light cabinets over the dark espresso with glass inserts that I usually see. The desk/eating table was a bit small but workable. The bathroom was OK. Although the towels seemed a bit worn. The shower head was terrible. My room, 323, faced the freeway but I heard nothing. Usually there are trash cans at the end of the hall, in fact it says so on the cabinet door under the sink, but there are none. I asked the front desk where they were and he said they don't have any trash cans anywhere, I should just put my trash outside the door. I dislike that. It's low class, looks bad, contributes to bad odors and attracts bugs. I don't want to walk by or see bags of trash in the hallway of my hotel. I expect that at other types of hotels but not Candlewood.The laundry "room" consisted of 4 each front load washer/dryers stacked into a small closet area with nothing else. Barely space for 2 people, definitely no room for folding or sorting.  I did not use the food Cupboard, but it was also the smallest I have ever seen at a Candlewood.The worst part came near the end of my stay when the fire alarm went off at 4am. The alarm itself had no obvious fire notations. For instance the room I am in right now has FIRE on it in big red letters. And a black stick figure running from a red flame, that can be seen across the room. The one here had nothing just a small running stick figure molded into the case in the same color that I could not see until I inspected it up close later. So when it went off, I wasn't sure what it was, especially since I was in a dead sleep. Additionally it was so loud my ears felt brutally assaulted and rang for a full day afterward. When I called the front desk, the teen casually informed me "That's our fire alarm" I asked was it real should I leave and he said "I suggest you do"  Yes I am an adult, but I was sleepy, startled and a bit confused I would have appreciated a little more info. "That's our fire alarm, please gather your valuables and proceed to the lobby or parking lot via the stairs"-would have been better. I looked into the hallway and saw firemen who mentioned it was burning food, so I opted to stay in my room. Then the family of 4 who burnt the popcorn was moved to the room next to mine, so I knew it was time to go. I checked out the next morning and thought how terrible it would be if something serious happened and there was nothing but teenagers running the hotel. Which seems to be the case these days. Most of the kids here were pleasant but it would be nice if retired persons were hired for these positions, I'm sure I would have gotten more helpful support with the fire event if the front desk people were adults.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r150301436-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>150301436</t>
+  </si>
+  <si>
+    <t>01/22/2013</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>I stayed there three nights in a row this past week, the hotel is a little outdated but still holds true the candlewood look of the kitchens in all the rooms! Great location for shopping eating and a great gym close bye. The only downside is it is a very noisy place u can hear the people next to you and above u to often.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r147088801-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>147088801</t>
+  </si>
+  <si>
+    <t>12/09/2012</t>
+  </si>
+  <si>
+    <t>Decent for a last minute booking</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here while on a road trip that took us from Wyoming, through Colorado, and on to New Mexico. We needed to stop for the night and this hotel was close to the interstate and even with a late booking we were able to get an amazing rate and a large room. Because it was just a stop, sleep, then go, we didn't use any of the amenities so this review will be about the room and the property in general. The hotel is in a business park just a mile from I-25. The clerk informed us on check-in that they do not offer any type of breakfast but all room come with a full kitchen and there are grocery stores and restaurants close by. Not very convenient for us but since all we needed was a bed, it wasn't a big deal. He also told us that every room has a DVD player and they have a large selection of DVDs available to borrow. We booked a king suite and found our room on the fourth floor (top floor). First thing we noticed when stepping off the elevator was a very strong smell of cigarette smoke being unsuccessfully masked by a plug-in air freshener. The result was a bit of a sickly sweet stomach turning aroma. We weren't aware until after the fact that there are both smoking and non-smoking rooms on the same floor....My wife and I stayed here while on a road trip that took us from Wyoming, through Colorado, and on to New Mexico. We needed to stop for the night and this hotel was close to the interstate and even with a late booking we were able to get an amazing rate and a large room. Because it was just a stop, sleep, then go, we didn't use any of the amenities so this review will be about the room and the property in general. The hotel is in a business park just a mile from I-25. The clerk informed us on check-in that they do not offer any type of breakfast but all room come with a full kitchen and there are grocery stores and restaurants close by. Not very convenient for us but since all we needed was a bed, it wasn't a big deal. He also told us that every room has a DVD player and they have a large selection of DVDs available to borrow. We booked a king suite and found our room on the fourth floor (top floor). First thing we noticed when stepping off the elevator was a very strong smell of cigarette smoke being unsuccessfully masked by a plug-in air freshener. The result was a bit of a sickly sweet stomach turning aroma. We weren't aware until after the fact that there are both smoking and non-smoking rooms on the same floor. Fortunately one we entered the suite and shut the door, the smell was not noticeable. The room was very big with high ceilings, a true full kitchen (Full size fridge, microwave, stove, dishwasher, utensils, etc.), large modern bathroom, comfortable bed, and a big recliner that I could have slept in. The room was excellent. The only draw back and I'm not sure it applies to all rooms, were the curtains. There were no blackout drapes only the filmy, see through kind that do nothing to keep the light. Fortunately we had to be on the road early but had we wanted to sleep in, the sun would not have let us. We slept well and had a nice shower before checking out. On the way out of the room in the morning, we were greeted by the tobacco/pineapple smell but now it was mixed with curry and onions that someone was cooking up for there breakfast. It was so pungent and strong that my wife actually gagged. Thank god the elevator was waiting so we got out of there fast. Overall, the room was well worth the price but you may have to run the gauntlet of unpleasant odors before making it there.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here while on a road trip that took us from Wyoming, through Colorado, and on to New Mexico. We needed to stop for the night and this hotel was close to the interstate and even with a late booking we were able to get an amazing rate and a large room. Because it was just a stop, sleep, then go, we didn't use any of the amenities so this review will be about the room and the property in general. The hotel is in a business park just a mile from I-25. The clerk informed us on check-in that they do not offer any type of breakfast but all room come with a full kitchen and there are grocery stores and restaurants close by. Not very convenient for us but since all we needed was a bed, it wasn't a big deal. He also told us that every room has a DVD player and they have a large selection of DVDs available to borrow. We booked a king suite and found our room on the fourth floor (top floor). First thing we noticed when stepping off the elevator was a very strong smell of cigarette smoke being unsuccessfully masked by a plug-in air freshener. The result was a bit of a sickly sweet stomach turning aroma. We weren't aware until after the fact that there are both smoking and non-smoking rooms on the same floor....My wife and I stayed here while on a road trip that took us from Wyoming, through Colorado, and on to New Mexico. We needed to stop for the night and this hotel was close to the interstate and even with a late booking we were able to get an amazing rate and a large room. Because it was just a stop, sleep, then go, we didn't use any of the amenities so this review will be about the room and the property in general. The hotel is in a business park just a mile from I-25. The clerk informed us on check-in that they do not offer any type of breakfast but all room come with a full kitchen and there are grocery stores and restaurants close by. Not very convenient for us but since all we needed was a bed, it wasn't a big deal. He also told us that every room has a DVD player and they have a large selection of DVDs available to borrow. We booked a king suite and found our room on the fourth floor (top floor). First thing we noticed when stepping off the elevator was a very strong smell of cigarette smoke being unsuccessfully masked by a plug-in air freshener. The result was a bit of a sickly sweet stomach turning aroma. We weren't aware until after the fact that there are both smoking and non-smoking rooms on the same floor. Fortunately one we entered the suite and shut the door, the smell was not noticeable. The room was very big with high ceilings, a true full kitchen (Full size fridge, microwave, stove, dishwasher, utensils, etc.), large modern bathroom, comfortable bed, and a big recliner that I could have slept in. The room was excellent. The only draw back and I'm not sure it applies to all rooms, were the curtains. There were no blackout drapes only the filmy, see through kind that do nothing to keep the light. Fortunately we had to be on the road early but had we wanted to sleep in, the sun would not have let us. We slept well and had a nice shower before checking out. On the way out of the room in the morning, we were greeted by the tobacco/pineapple smell but now it was mixed with curry and onions that someone was cooking up for there breakfast. It was so pungent and strong that my wife actually gagged. Thank god the elevator was waiting so we got out of there fast. Overall, the room was well worth the price but you may have to run the gauntlet of unpleasant odors before making it there.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r141703492-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1463,24 +2317,72 @@
     <t>Good service at front desk.  For families, in a bit of a tough location for easy access to restaurants.  But had a great rate and the rooms were clean.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r130703901-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>130703901</t>
+  </si>
+  <si>
+    <t>05/27/2012</t>
+  </si>
+  <si>
+    <t>Not a clean place to stay</t>
+  </si>
+  <si>
+    <t>Check in OK.  Went to our assigned room - it had not been cleaned.  Went back to front desk, they gave us keys to another room.  Walked in and the beds were made (wondering if they were just made or if the sheets were actually changed).  Found paper wrappers, and tags on the floor.  Bathroom floor looked like it hadn't been cleaned in a week, and found two dirty towels that were folded up like clean ones.  Obviously they don't have a very good cleaning staff.  If you want a clean room - DO NOT stay here.  We had two other couples in our party and their rooms were not much cleaner than ours, so no sense asking for another room. Not an old facitlity - and definitely not up to other Candewood Suites standards we have stayed in.  Location and the room size good.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2012</t>
+  </si>
+  <si>
+    <t>Check in OK.  Went to our assigned room - it had not been cleaned.  Went back to front desk, they gave us keys to another room.  Walked in and the beds were made (wondering if they were just made or if the sheets were actually changed).  Found paper wrappers, and tags on the floor.  Bathroom floor looked like it hadn't been cleaned in a week, and found two dirty towels that were folded up like clean ones.  Obviously they don't have a very good cleaning staff.  If you want a clean room - DO NOT stay here.  We had two other couples in our party and their rooms were not much cleaner than ours, so no sense asking for another room. Not an old facitlity - and definitely not up to other Candewood Suites standards we have stayed in.  Location and the room size good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r125678577-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>125678577</t>
+  </si>
+  <si>
+    <t>03/05/2012</t>
+  </si>
+  <si>
+    <t>One week I'll never get back</t>
+  </si>
+  <si>
+    <t>Please shop around for your next hotel stay. Hot water out for two days with no proactive communication. We had to call the front desk to inquire about the situation. A day had passed before compensation was offered. Horrible vomit smell in hallways only to be masked by febreeze later in the week. Overall cleanliness was not where a hotel of this caliber should be. The comments from other residents is that it was always 'something' happening there. Please stay somewhere else!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, IHGCare at Candlewood Suites Meridian Business Center, responded to this reviewResponded March 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2012</t>
+  </si>
+  <si>
+    <t>Please shop around for your next hotel stay. Hot water out for two days with no proactive communication. We had to call the front desk to inquire about the situation. A day had passed before compensation was offered. Horrible vomit smell in hallways only to be masked by febreeze later in the week. Overall cleanliness was not where a hotel of this caliber should be. The comments from other residents is that it was always 'something' happening there. Please stay somewhere else!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r125663761-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
     <t>125663761</t>
   </si>
   <si>
-    <t>03/05/2012</t>
-  </si>
-  <si>
     <t>Not a great place t stay</t>
   </si>
   <si>
     <t>I booked the hotel for a week for a business visit in Englewood. Hotel Smells very bad. No hot water was provided for 2.5 days and management asked us to look for an alternate hotel when asked for any alternate means.No hot water on a Cold Feb night is terrible. Hotel management does not understand the pain of the travellersMoreShow less</t>
   </si>
   <si>
-    <t>February 2012</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Candlewood Suites Meridian Business Center, responded to this reviewResponded March 24, 2012</t>
   </si>
   <si>
@@ -1532,6 +2434,48 @@
     <t>This is an ok hotel. Looks nice. Nice price. Spacious one bedroom with full kitchen. Only bad thing is that this hotel has a bad smell. Take air freshener , and scented candles to cover the bad smells. No breakfast here but the have a little store by lobby to purchase a variety of stuff. Great great prices on everything here. Cool place ...free washer and dryer too :) and free movie rentalsMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r117138736-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>117138736</t>
+  </si>
+  <si>
+    <t>08/23/2011</t>
+  </si>
+  <si>
+    <t>Great location, clean, updated and quiet!</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel because we had a LONG drive in traffic back from the mountains and we wanted to stay somewhere that had an indoor pool and was in a safe area. First off, the hotel was right off the highway. It is situated in a business district (I'll get into that here in a minute) and is close enough to other conveniences within minutes drive time (i.e. Super Target, fast food restaurants, Park Meadows Mall, light rail system, sit down restaurants, etc.). On arrival, it seemed very quiet and like we were the only ones there, which bothered me at first, because I did no research prior to arriving here. When I went to check in, I was not greeted by a front desk clerk. There was nobody in sight. I finally read a sign that said to pick up a phone in the lobby which would then wake up or alert the front desk clerk to come assist customers. I did that and was shortly greeted by an employee who acted as though she was about 5 minutes from getting off shift. I asked her if there was vacancy and she said there was and asked me for my ID card (which I gladly gave her). The next thing I know, without her saying another word to me and a lot of typing on her end, she handed me a bill and asked...My family and I stayed at this hotel because we had a LONG drive in traffic back from the mountains and we wanted to stay somewhere that had an indoor pool and was in a safe area. First off, the hotel was right off the highway. It is situated in a business district (I'll get into that here in a minute) and is close enough to other conveniences within minutes drive time (i.e. Super Target, fast food restaurants, Park Meadows Mall, light rail system, sit down restaurants, etc.). On arrival, it seemed very quiet and like we were the only ones there, which bothered me at first, because I did no research prior to arriving here. When I went to check in, I was not greeted by a front desk clerk. There was nobody in sight. I finally read a sign that said to pick up a phone in the lobby which would then wake up or alert the front desk clerk to come assist customers. I did that and was shortly greeted by an employee who acted as though she was about 5 minutes from getting off shift. I asked her if there was vacancy and she said there was and asked me for my ID card (which I gladly gave her). The next thing I know, without her saying another word to me and a lot of typing on her end, she handed me a bill and asked for my credit card (mind you there was no quote, no asking me if I wanted a suite or not, nothing of the sort). Maybe I'm being a little too picky here, but from my experience with hotels, I expect nothing more than good customer service. Anyway, after I was a bit tiffed, my family and I went to our room, ground floor, next to an exit (which I like). Upon entry into the room, it seemed like a mini studio apartment. It had all of the amenities (i.e. fridge, range, microwave, freezer, dishes, dishwasher, sink, coffeemaker, etc). It was modern and updated and the room seemed fresh. I liked it. I think the room made me forget about my experience with the front desk clerk. We went to grab something to eat and came back. We forgot drinks but noticed that there was a little concession stand that was on the 'honor' system (reasonably priced for a hotel). We ate and then went to the pool, which although small, was still decent enough for the hotel. You have to bring your own towels from the room, since there are none in the pool area. The pool smelled REALLY strong of chlorine or bleach and the rear door was left open to air it out. VERY STRONG ODOR!! In the bathroom, there are only 2x towels, so you may have to ask for more at the front desk. The night sleep was good, not the best, but better than most. You can ask for firmer pillows if you need to. There is not continental breakfast, but there is fresh free coffee at whatever time you want or desire. For a one night stay, I didn't mind this place. It fit my family's need for the night and was in a safe area. On check out (which is noon...I like that!), I noticed I was charged a business charge for the hotel being in a business district. Not happy with that, but I can deal with it just fine (just be aware of this before hand). Ask for a AAA discount if you have it, because it gives you almost $10 off and even before that, the price for a night here is very reasonable. Day shift clerk was better by the way!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel because we had a LONG drive in traffic back from the mountains and we wanted to stay somewhere that had an indoor pool and was in a safe area. First off, the hotel was right off the highway. It is situated in a business district (I'll get into that here in a minute) and is close enough to other conveniences within minutes drive time (i.e. Super Target, fast food restaurants, Park Meadows Mall, light rail system, sit down restaurants, etc.). On arrival, it seemed very quiet and like we were the only ones there, which bothered me at first, because I did no research prior to arriving here. When I went to check in, I was not greeted by a front desk clerk. There was nobody in sight. I finally read a sign that said to pick up a phone in the lobby which would then wake up or alert the front desk clerk to come assist customers. I did that and was shortly greeted by an employee who acted as though she was about 5 minutes from getting off shift. I asked her if there was vacancy and she said there was and asked me for my ID card (which I gladly gave her). The next thing I know, without her saying another word to me and a lot of typing on her end, she handed me a bill and asked...My family and I stayed at this hotel because we had a LONG drive in traffic back from the mountains and we wanted to stay somewhere that had an indoor pool and was in a safe area. First off, the hotel was right off the highway. It is situated in a business district (I'll get into that here in a minute) and is close enough to other conveniences within minutes drive time (i.e. Super Target, fast food restaurants, Park Meadows Mall, light rail system, sit down restaurants, etc.). On arrival, it seemed very quiet and like we were the only ones there, which bothered me at first, because I did no research prior to arriving here. When I went to check in, I was not greeted by a front desk clerk. There was nobody in sight. I finally read a sign that said to pick up a phone in the lobby which would then wake up or alert the front desk clerk to come assist customers. I did that and was shortly greeted by an employee who acted as though she was about 5 minutes from getting off shift. I asked her if there was vacancy and she said there was and asked me for my ID card (which I gladly gave her). The next thing I know, without her saying another word to me and a lot of typing on her end, she handed me a bill and asked for my credit card (mind you there was no quote, no asking me if I wanted a suite or not, nothing of the sort). Maybe I'm being a little too picky here, but from my experience with hotels, I expect nothing more than good customer service. Anyway, after I was a bit tiffed, my family and I went to our room, ground floor, next to an exit (which I like). Upon entry into the room, it seemed like a mini studio apartment. It had all of the amenities (i.e. fridge, range, microwave, freezer, dishes, dishwasher, sink, coffeemaker, etc). It was modern and updated and the room seemed fresh. I liked it. I think the room made me forget about my experience with the front desk clerk. We went to grab something to eat and came back. We forgot drinks but noticed that there was a little concession stand that was on the 'honor' system (reasonably priced for a hotel). We ate and then went to the pool, which although small, was still decent enough for the hotel. You have to bring your own towels from the room, since there are none in the pool area. The pool smelled REALLY strong of chlorine or bleach and the rear door was left open to air it out. VERY STRONG ODOR!! In the bathroom, there are only 2x towels, so you may have to ask for more at the front desk. The night sleep was good, not the best, but better than most. You can ask for firmer pillows if you need to. There is not continental breakfast, but there is fresh free coffee at whatever time you want or desire. For a one night stay, I didn't mind this place. It fit my family's need for the night and was in a safe area. On check out (which is noon...I like that!), I noticed I was charged a business charge for the hotel being in a business district. Not happy with that, but I can deal with it just fine (just be aware of this before hand). Ask for a AAA discount if you have it, because it gives you almost $10 off and even before that, the price for a night here is very reasonable. Day shift clerk was better by the way!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r116726392-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>116726392</t>
+  </si>
+  <si>
+    <t>08/14/2011</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>The employees were friendly and professional, but the cleanliness of the facility really bothered me. Every towel and our bed sheets were stained. When we got new towels from the front desk they were also stained! My husband and i were told that they do not use bleach when they do the laundry.  Also the pool area was filthy. It's an indoor pool, but there was dirt and grime everywhere and the hot tub was green and four smelling. If those two details were taken care of, this place would have been great. We really like that we had our own kitchenette, and the location. It's hard to be comfortable when you are not sure things are clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>The employees were friendly and professional, but the cleanliness of the facility really bothered me. Every towel and our bed sheets were stained. When we got new towels from the front desk they were also stained! My husband and i were told that they do not use bleach when they do the laundry.  Also the pool area was filthy. It's an indoor pool, but there was dirt and grime everywhere and the hot tub was green and four smelling. If those two details were taken care of, this place would have been great. We really like that we had our own kitchenette, and the location. It's hard to be comfortable when you are not sure things are clean.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r85714333-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -1590,6 +2534,56 @@
   </si>
   <si>
     <t>well where do i start. for beginners i called the property prior to my arrival and asked if they had a airport shuttle and i was advised that they didn't and was told that i could get a taxi for 50 dollars.  WRONG. it was 80 dollars. do you think they even said they were sorry when i arrived furious, nope they sure didn't.  Then I requested to be on the top floor (4th floor) as I cannot tolerate hearing people stomp above me, keeping in mind that I am a platinum member with this chain which is the highest recognition that one can be. They put me on the 3rd floor and I was to stay 80 nights but after a whole week of stomping above me 24/7 and I could not get the management to do anything about it I checked out and took my business elsewhere. They did after I complained for 4 days offer to downgrade me to a studio from a one bedroom. This hotel is set up just like an apartment and intended for long term business, however they have turned it into a apartment complex, when I complained about the noise one final time I was advised that the people above me had been there over a year. I guess that gives them the right to disturb others. I can tell you the problem the management there are all very young. the general...well where do i start. for beginners i called the property prior to my arrival and asked if they had a airport shuttle and i was advised that they didn't and was told that i could get a taxi for 50 dollars.  WRONG. it was 80 dollars. do you think they even said they were sorry when i arrived furious, nope they sure didn't.  Then I requested to be on the top floor (4th floor) as I cannot tolerate hearing people stomp above me, keeping in mind that I am a platinum member with this chain which is the highest recognition that one can be. They put me on the 3rd floor and I was to stay 80 nights but after a whole week of stomping above me 24/7 and I could not get the management to do anything about it I checked out and took my business elsewhere. They did after I complained for 4 days offer to downgrade me to a studio from a one bedroom. This hotel is set up just like an apartment and intended for long term business, however they have turned it into a apartment complex, when I complained about the noise one final time I was advised that the people above me had been there over a year. I guess that gives them the right to disturb others. I can tell you the problem the management there are all very young. the general manager is in his early 20's and the operations manger is under 21. They wear whatever they want to work and don't take their jobs very seriously. Good luck if you ask one of them for a taxi or directions or where the nearest restaurants, shopping are. They have no clue. I wouldn't be so bothered by that if they said something along the lines of "I don't know but let me get online and look it up for you". Since I brought up internet let me tell you what a joke the internet is there, dial-up is by far much faster. The company that they use gives them 1.5mbps for the entire property. They don't have any mac filtering so one can do anything they want on their while everyone else suffers. Let's move on to the pool and jacuzzi, we went down and got into the jacuzzi the first night we were there and when we turned the jets on and the water started moving this terrible smell started rising from the water. So we immediately got out and notified the management who said we will call someone, what did they do? Glad you asked, they went out there 2 days later and just emptied the water and filled the jacuzzi back up with water and NO chemicals whatsoever. I'm guessing the health department doesn't inspect these places too often. There was always towels and trash all around the pool area because the front desk staff never gets up out of their chairs to do anything. Since they have people just living out of this property they allow them to do whatever they want to, children unattended running the halls all hours of the day and night like they are on a playground somewhere. People putting trash outside their doors and it sits there for days. The sad part is that this is a really nice hotel, they need to have a more mature and experienced management who plays an active role in the daily management and maintenance and upkeep of the property. Customer service needs much improvement. And security at night would be a really good idea.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r24971866-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>24971866</t>
+  </si>
+  <si>
+    <t>02/22/2009</t>
+  </si>
+  <si>
+    <t>Well situated to Interstate, Business Park, and Light Rail</t>
+  </si>
+  <si>
+    <t>Stayed over a weekend with my sister who was staying at this hotel on business for three weeks.  As she worked at a business in the Meridian Business Park, this hotel was perfectly situated for her.  As a tourist I found the hotel quite far from the center of Denver, but even without a car I was able to take the short 5 minute walk to the Lincoln Rapid Transit station.  There is a bridge over the Interstate to access the train station and the return trip cost to the downtown is only $9.  The trip by rail takes about 45 minutes and is quite scenic.
+The local area has absolutely nothing in the way of stores, restaurants (save one "Asian Bistro" next door to the hotel), or attractions.  However, one with a car will easily find loads of restaurants north of the Interstate, but again, a car is essential.
+Our room was on the top floor of the 4 floor hotel and must have had ceilings that were at least 12 feet (or more) high.  Upon entry, the flooring is laminate in the kitchen area, carpet in the rest of the room and ceramic tile in the bathroom.  The room has one window, one King bed and one flat screen T.V. with DVD player.
+The kitchen has a 3/4 size fridge, small bar sink, full size microwave, two burner stove and two of everything needed for dinner: plates, cups,...Stayed over a weekend with my sister who was staying at this hotel on business for three weeks.  As she worked at a business in the Meridian Business Park, this hotel was perfectly situated for her.  As a tourist I found the hotel quite far from the center of Denver, but even without a car I was able to take the short 5 minute walk to the Lincoln Rapid Transit station.  There is a bridge over the Interstate to access the train station and the return trip cost to the downtown is only $9.  The trip by rail takes about 45 minutes and is quite scenic.The local area has absolutely nothing in the way of stores, restaurants (save one "Asian Bistro" next door to the hotel), or attractions.  However, one with a car will easily find loads of restaurants north of the Interstate, but again, a car is essential.Our room was on the top floor of the 4 floor hotel and must have had ceilings that were at least 12 feet (or more) high.  Upon entry, the flooring is laminate in the kitchen area, carpet in the rest of the room and ceramic tile in the bathroom.  The room has one window, one King bed and one flat screen T.V. with DVD player.The kitchen has a 3/4 size fridge, small bar sink, full size microwave, two burner stove and two of everything needed for dinner: plates, cups, utensils, etc.  There were several pots of various sizes and basic cooking supplies.  Soap for the in-room dishwasher and sink were also provided.  The freezer has a built in ice maker.  There is one work desk and chair and one additional dining chair.The hotel has laundry facilties for guests, and each room has a laundry basket.  Free computer/internet/printing was available with the room key just down the hall by the elevator.  An 'honor system' is in place for the small store next to the front desk.  The front desk stocks DVD's that guests may borrow at no charge.Maid service was not daily and from what I could figure out it was once a week unless they decided to come more often.  Guests may exchange towels at the front desk more often if they wish.The hotel has a small indoor pool and fitness center.  There is a small breakfast eating area in the lobby, for a fee.  Parking is free and ample.I found the window a little high in the room and difficult to see out.  Not sure why it was designed this way.Overall a great hotel for extended stays, business, but not really for tourists or families due to the remoteness of the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>Stayed over a weekend with my sister who was staying at this hotel on business for three weeks.  As she worked at a business in the Meridian Business Park, this hotel was perfectly situated for her.  As a tourist I found the hotel quite far from the center of Denver, but even without a car I was able to take the short 5 minute walk to the Lincoln Rapid Transit station.  There is a bridge over the Interstate to access the train station and the return trip cost to the downtown is only $9.  The trip by rail takes about 45 minutes and is quite scenic.
+The local area has absolutely nothing in the way of stores, restaurants (save one "Asian Bistro" next door to the hotel), or attractions.  However, one with a car will easily find loads of restaurants north of the Interstate, but again, a car is essential.
+Our room was on the top floor of the 4 floor hotel and must have had ceilings that were at least 12 feet (or more) high.  Upon entry, the flooring is laminate in the kitchen area, carpet in the rest of the room and ceramic tile in the bathroom.  The room has one window, one King bed and one flat screen T.V. with DVD player.
+The kitchen has a 3/4 size fridge, small bar sink, full size microwave, two burner stove and two of everything needed for dinner: plates, cups,...Stayed over a weekend with my sister who was staying at this hotel on business for three weeks.  As she worked at a business in the Meridian Business Park, this hotel was perfectly situated for her.  As a tourist I found the hotel quite far from the center of Denver, but even without a car I was able to take the short 5 minute walk to the Lincoln Rapid Transit station.  There is a bridge over the Interstate to access the train station and the return trip cost to the downtown is only $9.  The trip by rail takes about 45 minutes and is quite scenic.The local area has absolutely nothing in the way of stores, restaurants (save one "Asian Bistro" next door to the hotel), or attractions.  However, one with a car will easily find loads of restaurants north of the Interstate, but again, a car is essential.Our room was on the top floor of the 4 floor hotel and must have had ceilings that were at least 12 feet (or more) high.  Upon entry, the flooring is laminate in the kitchen area, carpet in the rest of the room and ceramic tile in the bathroom.  The room has one window, one King bed and one flat screen T.V. with DVD player.The kitchen has a 3/4 size fridge, small bar sink, full size microwave, two burner stove and two of everything needed for dinner: plates, cups, utensils, etc.  There were several pots of various sizes and basic cooking supplies.  Soap for the in-room dishwasher and sink were also provided.  The freezer has a built in ice maker.  There is one work desk and chair and one additional dining chair.The hotel has laundry facilties for guests, and each room has a laundry basket.  Free computer/internet/printing was available with the room key just down the hall by the elevator.  An 'honor system' is in place for the small store next to the front desk.  The front desk stocks DVD's that guests may borrow at no charge.Maid service was not daily and from what I could figure out it was once a week unless they decided to come more often.  Guests may exchange towels at the front desk more often if they wish.The hotel has a small indoor pool and fitness center.  There is a small breakfast eating area in the lobby, for a fee.  Parking is free and ample.I found the window a little high in the room and difficult to see out.  Not sure why it was designed this way.Overall a great hotel for extended stays, business, but not really for tourists or families due to the remoteness of the location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r24803467-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>24803467</t>
+  </si>
+  <si>
+    <t>02/19/2009</t>
+  </si>
+  <si>
+    <t>Travelling for Medical Purposes</t>
+  </si>
+  <si>
+    <t>The Good:  Hotel is one of the closest ones to the Sky Ridge Medical Center and is just a little over a year old and very clean and new.  I loved the kitchenette and was able to cook many meals.  Note that there is no oven, just a stove top.  A Super Target and Safeway were a quick 5 minute drive away so shopping for groceries was very convenient.  Park Meadows mall was a 10 minute drive away and is very large, upscale with theaters.  Outlet shopping at the Castle Rock Outlet was a 15 minute drive south on the I-25.  Free paper is available with your Priority Club membership.  I stayed in a 1 bdrm queen suite and it was very big, clean and had a large kitchen and family room area.  Parking is plentiful and in warmer weather, there is a nice BBQ you can use outside.  Two restaurants are right next door if you don't feel like cooking.  Free laundry facilities are also provided (bring your own detergent &amp; fabric softener if you want to save the $) and they have supplies on hand you can purchase if needed.
+The Not so Good:  I agree with the prior reviewer that the shower temperature is not great.  The water temp was adequately hot but not as hot as I like and that was at the maximum setting.  The heaters were units on the walls and there was one...The Good:  Hotel is one of the closest ones to the Sky Ridge Medical Center and is just a little over a year old and very clean and new.  I loved the kitchenette and was able to cook many meals.  Note that there is no oven, just a stove top.  A Super Target and Safeway were a quick 5 minute drive away so shopping for groceries was very convenient.  Park Meadows mall was a 10 minute drive away and is very large, upscale with theaters.  Outlet shopping at the Castle Rock Outlet was a 15 minute drive south on the I-25.  Free paper is available with your Priority Club membership.  I stayed in a 1 bdrm queen suite and it was very big, clean and had a large kitchen and family room area.  Parking is plentiful and in warmer weather, there is a nice BBQ you can use outside.  Two restaurants are right next door if you don't feel like cooking.  Free laundry facilities are also provided (bring your own detergent &amp; fabric softener if you want to save the $) and they have supplies on hand you can purchase if needed.The Not so Good:  I agree with the prior reviewer that the shower temperature is not great.  The water temp was adequately hot but not as hot as I like and that was at the maximum setting.  The heaters were units on the walls and there was one in each room and basically, you couldn't do anything while they were on...the noise was deafening.  It kept me up the first night until I started turning on the heater in the room I was NOT in to compensate for the noise.  The business center also has only 1 computer and the printer was broken although they allowed you to print out anything you needed at the front desk.All in all, good value for money and I am staying there again when I go back next week!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>The Good:  Hotel is one of the closest ones to the Sky Ridge Medical Center and is just a little over a year old and very clean and new.  I loved the kitchenette and was able to cook many meals.  Note that there is no oven, just a stove top.  A Super Target and Safeway were a quick 5 minute drive away so shopping for groceries was very convenient.  Park Meadows mall was a 10 minute drive away and is very large, upscale with theaters.  Outlet shopping at the Castle Rock Outlet was a 15 minute drive south on the I-25.  Free paper is available with your Priority Club membership.  I stayed in a 1 bdrm queen suite and it was very big, clean and had a large kitchen and family room area.  Parking is plentiful and in warmer weather, there is a nice BBQ you can use outside.  Two restaurants are right next door if you don't feel like cooking.  Free laundry facilities are also provided (bring your own detergent &amp; fabric softener if you want to save the $) and they have supplies on hand you can purchase if needed.
+The Not so Good:  I agree with the prior reviewer that the shower temperature is not great.  The water temp was adequately hot but not as hot as I like and that was at the maximum setting.  The heaters were units on the walls and there was one...The Good:  Hotel is one of the closest ones to the Sky Ridge Medical Center and is just a little over a year old and very clean and new.  I loved the kitchenette and was able to cook many meals.  Note that there is no oven, just a stove top.  A Super Target and Safeway were a quick 5 minute drive away so shopping for groceries was very convenient.  Park Meadows mall was a 10 minute drive away and is very large, upscale with theaters.  Outlet shopping at the Castle Rock Outlet was a 15 minute drive south on the I-25.  Free paper is available with your Priority Club membership.  I stayed in a 1 bdrm queen suite and it was very big, clean and had a large kitchen and family room area.  Parking is plentiful and in warmer weather, there is a nice BBQ you can use outside.  Two restaurants are right next door if you don't feel like cooking.  Free laundry facilities are also provided (bring your own detergent &amp; fabric softener if you want to save the $) and they have supplies on hand you can purchase if needed.The Not so Good:  I agree with the prior reviewer that the shower temperature is not great.  The water temp was adequately hot but not as hot as I like and that was at the maximum setting.  The heaters were units on the walls and there was one in each room and basically, you couldn't do anything while they were on...the noise was deafening.  It kept me up the first night until I started turning on the heater in the room I was NOT in to compensate for the noise.  The business center also has only 1 computer and the printer was broken although they allowed you to print out anything you needed at the front desk.All in all, good value for money and I am staying there again when I go back next week!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r22789915-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
@@ -1649,6 +2643,27 @@
   <si>
     <t>Just got back from a 2.5 day stay at the Candlewood in Englewood, Co during the 4th of July weekend.  I think the hotel is very clean as it is fairly new and very functional for families.  We had booked two suites, a 2-bedroom and a 1 bedroom suite.  When we arrived at approximately 12:30 PM 2.5 hours prior to check-in, we were told our two bedroom had been given to someone else--rather that the people had been there for several weeks already but they chose to extend their stay.  Needless to say we needed this two bedroom for a new couple with three children and the grandmother.  We chose this room for the extra 2 beds in the 2nd bedroom and the sofa sleeper in addition to the privacy of having 2 bedrooms with 3 little girls in the suite.  So Gary, the hotel manager gave us 3 1-bedroom suites along with a king studio suite for the price we would pay for the 2 rooms we initially reserved (with credit card and confirmation numbers).  This was a great deal except the rooms were on two separate floors and a couple of doors down from each other.  But again, it was a great deal.  Gary was adamant that he was going to make this situation right for us.  Thanks, Gary!!!!
 The only problems we really had with our accommodations was the elevator kept breaking down.  There only appeared to...Just got back from a 2.5 day stay at the Candlewood in Englewood, Co during the 4th of July weekend.  I think the hotel is very clean as it is fairly new and very functional for families.  We had booked two suites, a 2-bedroom and a 1 bedroom suite.  When we arrived at approximately 12:30 PM 2.5 hours prior to check-in, we were told our two bedroom had been given to someone else--rather that the people had been there for several weeks already but they chose to extend their stay.  Needless to say we needed this two bedroom for a new couple with three children and the grandmother.  We chose this room for the extra 2 beds in the 2nd bedroom and the sofa sleeper in addition to the privacy of having 2 bedrooms with 3 little girls in the suite.  So Gary, the hotel manager gave us 3 1-bedroom suites along with a king studio suite for the price we would pay for the 2 rooms we initially reserved (with credit card and confirmation numbers).  This was a great deal except the rooms were on two separate floors and a couple of doors down from each other.  But again, it was a great deal.  Gary was adamant that he was going to make this situation right for us.  Thanks, Gary!!!!The only problems we really had with our accommodations was the elevator kept breaking down.  There only appeared to be one elevator which is slow as molasses anyway....  but worse to have to walk up 4 flights of stairs to one pair of rooms (and 3 flights to the 2nd pair of rooms).  Last winter, the grandmother broke her leg in several places and although is pretty much healed, has to walk with a cane and very slowly.  So the broken elevators did not go over very well.They have a nice canteen/snack area at reasonal prices--50 cents for a coca cola and other brand name sodas.  $1.00 for juice, Otis Spunkemeyer muffins, fruit, toiletries, etc.  The pool is very small, but better than no pool at all.  Small exercise room, but neverless they had one.  Parking is free.  Again the hotel is new and you can't go wrong with a nice new, clean hotel.  They should have had two elevators though....  And need to make sure the one they have is always working.Oh, we were able to secure a late check out so I was able to go to church and check out at 2:00 p.m.  Again, hats off to Gary and his staff!!!!!Yes, I would definitely stay here again.  I highly recommend it for families.  Two TVs in the 1 bedroom suites, kitchen, sofa sleeper, big sitting chair, pots and pans, dishes, silverware, free popcorn in the microwave, two burner stove, large fridge, potholders, t-towels, etc.  I assume the same for 2 bedrooms.  They were running a manager's special, so we had an extremely good deal.Located in a brand new area in Englewood.  Minutes from Denver on I-25.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d672646-r16939710-Candlewood_Suites_Meridian_Business_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>16939710</t>
+  </si>
+  <si>
+    <t>06/15/2008</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay</t>
+  </si>
+  <si>
+    <t>We stayed here on a recent visit to Denver because we have family nearby.  It is located in a business park with other business type hotels, but is close to Park Meadows Mall and lots of restaurants.  The whole area, including the hotel, is brand new. We arrived on a Thurs. and the manager upgraded us to a suite with a separate bedroom. It was a great room!  The bedroom had a king size bed with a big flatscreen TV. The room, like all the rooms in the hotel, includes a full kitchen with granite countertops. The living area also had a flatscreen TV, reclining chair,  and a sofabed.  There is no free breakfast, but the kitchen is there to make your own or to at least store some milk and juice. There is a small indoor pool, but we didn't have time to swim. The staff was always helpful and friendly. One downside - there is no daily maid service (it is weekly). But you can swap towels at the front desk any time.  We loved this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>We stayed here on a recent visit to Denver because we have family nearby.  It is located in a business park with other business type hotels, but is close to Park Meadows Mall and lots of restaurants.  The whole area, including the hotel, is brand new. We arrived on a Thurs. and the manager upgraded us to a suite with a separate bedroom. It was a great room!  The bedroom had a king size bed with a big flatscreen TV. The room, like all the rooms in the hotel, includes a full kitchen with granite countertops. The living area also had a flatscreen TV, reclining chair,  and a sofabed.  There is no free breakfast, but the kitchen is there to make your own or to at least store some milk and juice. There is a small indoor pool, but we didn't have time to swim. The staff was always helpful and friendly. One downside - there is no daily maid service (it is weekly). But you can swap towels at the front desk any time.  We loved this hotel!More</t>
   </si>
 </sst>
 </file>
@@ -2176,21 +3191,11 @@
       <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -2200,15 +3205,9 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2223,7 +3222,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -2232,49 +3231,43 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
         <v>54</v>
-      </c>
-      <c r="X3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -2290,7 +3283,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2299,49 +3292,45 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
         <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" t="s"/>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" t="s">
-        <v>71</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -2357,54 +3346,52 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="Y5" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -2420,58 +3407,58 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -2487,48 +3474,58 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
         <v>89</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -2544,7 +3541,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2553,26 +3550,16 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" t="s">
-        <v>101</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
@@ -2582,15 +3569,9 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>102</v>
-      </c>
-      <c r="X8" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>104</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2605,7 +3586,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2614,39 +3595,43 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -2662,7 +3647,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2671,39 +3656,45 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -2719,7 +3710,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2728,39 +3719,49 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>111</v>
+      </c>
+      <c r="X11" t="s">
+        <v>112</v>
+      </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -2776,7 +3777,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2785,49 +3786,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>128</v>
-      </c>
-      <c r="X12" t="s">
-        <v>129</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -2843,7 +3834,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2852,45 +3843,49 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
       <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>126</v>
+      </c>
+      <c r="X13" t="s">
+        <v>127</v>
+      </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -2906,7 +3901,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2915,43 +3910,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
         <v>3</v>
       </c>
-      <c r="N14" t="s">
-        <v>141</v>
-      </c>
-      <c r="O14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="X14" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -2967,7 +3968,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2976,25 +3977,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3006,13 +4007,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="X15" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
@@ -3028,7 +4029,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3037,47 +4038,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>159</v>
-      </c>
-      <c r="X16" t="s">
-        <v>160</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
@@ -3093,7 +4086,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3102,49 +4095,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>167</v>
-      </c>
-      <c r="X17" t="s">
-        <v>168</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
@@ -3160,7 +4143,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3169,47 +4152,47 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X18" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
@@ -3225,7 +4208,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3234,47 +4217,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X19" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y19" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
@@ -3290,7 +4269,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3299,25 +4278,25 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3331,7 +4310,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
@@ -3347,7 +4326,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3356,43 +4335,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>182</v>
+      </c>
+      <c r="X21" t="s">
+        <v>183</v>
+      </c>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
@@ -3408,7 +4393,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3417,39 +4402,45 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
@@ -3465,7 +4456,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3474,49 +4465,39 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>208</v>
-      </c>
-      <c r="X23" t="s">
-        <v>209</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
@@ -3532,7 +4513,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3541,49 +4522,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="J24" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="X24" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
@@ -3599,7 +4574,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3608,49 +4583,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="X25" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="Y25" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
@@ -3666,7 +4635,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3675,47 +4644,43 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>1</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="X26" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="Y26" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27">
@@ -3731,7 +4696,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3740,43 +4705,47 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="O27" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="X27" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Y27" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
@@ -3792,7 +4761,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3801,25 +4770,25 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="J28" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3830,10 +4799,14 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>218</v>
+      </c>
+      <c r="X28" t="s">
+        <v>219</v>
+      </c>
       <c r="Y28" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29">
@@ -3849,7 +4822,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3858,39 +4831,47 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="J29" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="K29" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>240</v>
+      </c>
+      <c r="X29" t="s">
+        <v>241</v>
+      </c>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30">
@@ -3906,7 +4887,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3915,39 +4896,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="J30" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="K30" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="O30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>248</v>
+      </c>
+      <c r="X30" t="s">
+        <v>249</v>
+      </c>
       <c r="Y30" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
@@ -3963,7 +4954,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3972,49 +4963,47 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="K31" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="X31" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="Y31" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32">
@@ -4030,7 +5019,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4039,49 +5028,47 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J32" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
         <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="X32" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="Y32" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
@@ -4097,7 +5084,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4106,34 +5093,32 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="J33" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="K33" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
+      <c r="N33" t="s">
+        <v>263</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
         <v>5</v>
       </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -4141,14 +5126,10 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>284</v>
-      </c>
-      <c r="X33" t="s">
-        <v>285</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
@@ -4164,7 +5145,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4173,49 +5154,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="J34" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>277</v>
+      </c>
+      <c r="O34" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="X34" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Y34" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">
@@ -4231,7 +5210,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4240,47 +5219,39 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="J35" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="K35" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>298</v>
-      </c>
-      <c r="X35" t="s">
-        <v>299</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36">
@@ -4296,7 +5267,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4305,43 +5276,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="J36" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="O36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>307</v>
-      </c>
-      <c r="X36" t="s">
-        <v>308</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37">
@@ -4357,7 +5328,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4366,49 +5337,39 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="J37" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>3</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>4</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>316</v>
-      </c>
-      <c r="X37" t="s">
-        <v>317</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38">
@@ -4424,7 +5385,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4433,32 +5394,32 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="J38" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="K38" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="O38" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>4</v>
@@ -4469,7 +5430,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39">
@@ -4485,7 +5446,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4494,45 +5455,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="J39" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="K39" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>292</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>309</v>
+      </c>
+      <c r="X39" t="s">
+        <v>310</v>
+      </c>
       <c r="Y39" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40">
@@ -4548,7 +5507,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4557,47 +5516,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="J40" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
       <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="X40" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="Y40" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41">
@@ -4613,7 +5574,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4622,53 +5583,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="J41" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="K41" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>317</v>
+      </c>
+      <c r="O41" t="s">
+        <v>80</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
         <v>2</v>
-      </c>
-      <c r="N41" t="s">
-        <v>343</v>
-      </c>
-      <c r="O41" t="s">
-        <v>63</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="X41" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="Y41" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42">
@@ -4684,7 +5641,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4693,53 +5650,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="J42" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="K42" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="X42" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="Y42" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43">
@@ -4755,7 +5708,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4764,39 +5717,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="J43" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="K43" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>317</v>
+      </c>
+      <c r="O43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="X43" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="Y43" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44">
@@ -4812,7 +5775,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4821,25 +5784,25 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="J44" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="K44" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4853,7 +5816,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45">
@@ -4869,7 +5832,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4878,53 +5841,47 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="J45" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="K45" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="L45" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="O45" t="s">
-        <v>101</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="X45" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="Y45" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46">
@@ -4940,7 +5897,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4949,53 +5906,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="J46" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="K46" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="X46" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="Y46" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47">
@@ -5011,7 +5958,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5020,49 +5967,39 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="J47" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="K47" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48">
@@ -5078,7 +6015,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5087,31 +6024,31 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="J48" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="K48" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
+      <c r="N48" t="s">
+        <v>377</v>
+      </c>
+      <c r="O48" t="s">
+        <v>56</v>
+      </c>
       <c r="P48" t="n">
         <v>4</v>
       </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
         <v>4</v>
       </c>
@@ -5125,7 +6062,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49">
@@ -5141,7 +6078,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5150,53 +6087,39 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="J49" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="K49" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>3</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
-        <v>405</v>
-      </c>
-      <c r="X49" t="s">
-        <v>406</v>
-      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50">
@@ -5212,7 +6135,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5221,49 +6144,39 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="J50" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="K50" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
-      </c>
-      <c r="P50" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51">
@@ -5279,7 +6192,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5288,53 +6201,39 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="J51" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="K51" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
-      </c>
-      <c r="P51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>4</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>418</v>
-      </c>
-      <c r="X51" t="s">
-        <v>419</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52">
@@ -5350,7 +6249,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5359,32 +6258,28 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="J52" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="K52" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
-      </c>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
         <v>3</v>
       </c>
@@ -5393,15 +6288,19 @@
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>401</v>
+      </c>
+      <c r="X52" t="s">
+        <v>402</v>
+      </c>
       <c r="Y52" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53">
@@ -5417,7 +6316,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5426,53 +6325,47 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="J53" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="K53" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="L53" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="X53" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="Y53" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54">
@@ -5488,7 +6381,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5497,47 +6390,47 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="J54" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="K54" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="L54" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P54" t="s"/>
-      <c r="Q54" t="n">
-        <v>1</v>
-      </c>
-      <c r="R54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="X54" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="Y54" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55">
@@ -5553,7 +6446,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5562,37 +6455,33 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="J55" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="K55" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="L55" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="O55" t="s">
-        <v>183</v>
-      </c>
-      <c r="P55" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>3</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
       <c r="R55" t="n">
         <v>4</v>
       </c>
       <c r="S55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
@@ -5602,13 +6491,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="X55" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="Y55" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56">
@@ -5624,7 +6513,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5633,53 +6522,49 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="J56" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="K56" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="L56" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
-      </c>
-      <c r="N56" t="s">
-        <v>456</v>
-      </c>
-      <c r="O56" t="s">
-        <v>63</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
       <c r="P56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="X56" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="Y56" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57">
@@ -5695,7 +6580,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5704,49 +6589,49 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="J57" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="K57" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="L57" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="s">
-        <v>465</v>
-      </c>
-      <c r="O57" t="s">
-        <v>63</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
       <c r="P57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>436</v>
+      </c>
+      <c r="X57" t="s">
+        <v>437</v>
+      </c>
       <c r="Y57" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58">
@@ -5762,7 +6647,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5771,49 +6656,43 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="J58" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="K58" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="L58" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
-      <c r="R58" t="n">
-        <v>3</v>
-      </c>
-      <c r="S58" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>5</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>436</v>
+      </c>
+      <c r="X58" t="s">
+        <v>437</v>
+      </c>
       <c r="Y58" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59">
@@ -5829,7 +6708,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5838,53 +6717,47 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="J59" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="K59" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="L59" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="O59" t="s">
         <v>63</v>
       </c>
-      <c r="P59" t="n">
-        <v>2</v>
-      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="n">
-        <v>1</v>
-      </c>
-      <c r="R59" t="n">
-        <v>2</v>
-      </c>
-      <c r="S59" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="X59" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="Y59" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60">
@@ -5900,7 +6773,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5909,49 +6782,47 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="J60" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="K60" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="L60" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
-      </c>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
-      <c r="P60" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>464</v>
+      </c>
+      <c r="O60" t="s">
+        <v>80</v>
+      </c>
+      <c r="P60" t="s"/>
       <c r="Q60" t="n">
-        <v>4</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="X60" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="Y60" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61">
@@ -5967,7 +6838,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5976,49 +6847,43 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="J61" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="K61" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="L61" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
-      </c>
-      <c r="N61" t="s"/>
-      <c r="O61" t="s"/>
-      <c r="P61" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>3</v>
-      </c>
-      <c r="R61" t="n">
-        <v>3</v>
-      </c>
-      <c r="S61" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>449</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>3</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="X61" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="Y61" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62">
@@ -6034,7 +6899,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6043,49 +6908,49 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="J62" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="K62" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="L62" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
       <c r="S62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>482</v>
+      </c>
+      <c r="X62" t="s">
+        <v>483</v>
+      </c>
       <c r="Y62" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63">
@@ -6101,7 +6966,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6110,49 +6975,43 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="J63" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="K63" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="L63" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
-      </c>
-      <c r="P63" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
-      <c r="R63" t="n">
-        <v>5</v>
-      </c>
-      <c r="S63" t="n">
-        <v>5</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>5</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>490</v>
+      </c>
+      <c r="X63" t="s">
+        <v>491</v>
+      </c>
       <c r="Y63" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64">
@@ -6168,7 +7027,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6177,38 +7036,32 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="J64" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="K64" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="L64" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
+        <v>264</v>
       </c>
       <c r="P64" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>3</v>
-      </c>
-      <c r="R64" t="n">
         <v>1</v>
       </c>
-      <c r="S64" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
         <v>1</v>
@@ -6216,10 +7069,14 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>499</v>
+      </c>
+      <c r="X64" t="s">
+        <v>500</v>
+      </c>
       <c r="Y64" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65">
@@ -6235,7 +7092,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6244,35 +7101,29 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="J65" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="K65" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="L65" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
-      </c>
-      <c r="P65" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>3</v>
-      </c>
-      <c r="R65" t="n">
-        <v>4</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
       <c r="S65" t="n">
         <v>4</v>
       </c>
@@ -6286,7 +7137,7 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66">
@@ -6302,7 +7153,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6311,41 +7162,37 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="J66" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="K66" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="L66" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
-      <c r="N66" t="s">
-        <v>525</v>
-      </c>
-      <c r="O66" t="s">
-        <v>63</v>
-      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
         <v>4</v>
       </c>
       <c r="R66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -6353,7 +7200,7 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
     </row>
     <row r="67">
@@ -6369,7 +7216,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6378,35 +7225,3145 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="J67" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="K67" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="L67" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
-      </c>
-      <c r="N67" t="s"/>
-      <c r="O67" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>464</v>
+      </c>
+      <c r="O67" t="s">
+        <v>71</v>
+      </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
       <c r="R67" t="s"/>
-      <c r="S67" t="s"/>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
       <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>518</v>
+      </c>
+      <c r="X67" t="s">
+        <v>519</v>
+      </c>
       <c r="Y67" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>521</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>522</v>
+      </c>
+      <c r="J68" t="s">
+        <v>523</v>
+      </c>
+      <c r="K68" t="s">
+        <v>524</v>
+      </c>
+      <c r="L68" t="s">
+        <v>525</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>498</v>
+      </c>
+      <c r="O68" t="s">
+        <v>80</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>526</v>
+      </c>
+      <c r="X68" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>529</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>530</v>
+      </c>
+      <c r="J69" t="s">
+        <v>531</v>
+      </c>
+      <c r="K69" t="s">
         <v>532</v>
+      </c>
+      <c r="L69" t="s">
+        <v>533</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>534</v>
+      </c>
+      <c r="O69" t="s">
+        <v>80</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>535</v>
+      </c>
+      <c r="X69" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>538</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>539</v>
+      </c>
+      <c r="J70" t="s">
+        <v>540</v>
+      </c>
+      <c r="K70" t="s">
+        <v>541</v>
+      </c>
+      <c r="L70" t="s">
+        <v>542</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>543</v>
+      </c>
+      <c r="O70" t="s">
+        <v>80</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>544</v>
+      </c>
+      <c r="X70" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>547</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>548</v>
+      </c>
+      <c r="J71" t="s">
+        <v>549</v>
+      </c>
+      <c r="K71" t="s">
+        <v>550</v>
+      </c>
+      <c r="L71" t="s">
+        <v>551</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>552</v>
+      </c>
+      <c r="O71" t="s">
+        <v>80</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>553</v>
+      </c>
+      <c r="X71" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>556</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>557</v>
+      </c>
+      <c r="J72" t="s">
+        <v>558</v>
+      </c>
+      <c r="K72" t="s">
+        <v>559</v>
+      </c>
+      <c r="L72" t="s">
+        <v>560</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>561</v>
+      </c>
+      <c r="X72" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>564</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>565</v>
+      </c>
+      <c r="J73" t="s">
+        <v>566</v>
+      </c>
+      <c r="K73" t="s">
+        <v>567</v>
+      </c>
+      <c r="L73" t="s">
+        <v>568</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>569</v>
+      </c>
+      <c r="O73" t="s">
+        <v>56</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>570</v>
+      </c>
+      <c r="X73" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>573</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>574</v>
+      </c>
+      <c r="J74" t="s">
+        <v>575</v>
+      </c>
+      <c r="K74" t="s">
+        <v>576</v>
+      </c>
+      <c r="L74" t="s">
+        <v>577</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>578</v>
+      </c>
+      <c r="O74" t="s">
+        <v>80</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>580</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>581</v>
+      </c>
+      <c r="J75" t="s">
+        <v>582</v>
+      </c>
+      <c r="K75" t="s">
+        <v>583</v>
+      </c>
+      <c r="L75" t="s">
+        <v>584</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>585</v>
+      </c>
+      <c r="O75" t="s">
+        <v>80</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>587</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>588</v>
+      </c>
+      <c r="J76" t="s">
+        <v>589</v>
+      </c>
+      <c r="K76" t="s">
+        <v>590</v>
+      </c>
+      <c r="L76" t="s">
+        <v>591</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>585</v>
+      </c>
+      <c r="O76" t="s">
+        <v>56</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>592</v>
+      </c>
+      <c r="X76" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>595</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>596</v>
+      </c>
+      <c r="J77" t="s">
+        <v>597</v>
+      </c>
+      <c r="K77" t="s">
+        <v>598</v>
+      </c>
+      <c r="L77" t="s">
+        <v>599</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>600</v>
+      </c>
+      <c r="O77" t="s">
+        <v>80</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>601</v>
+      </c>
+      <c r="X77" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>604</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>605</v>
+      </c>
+      <c r="J78" t="s">
+        <v>606</v>
+      </c>
+      <c r="K78" t="s">
+        <v>607</v>
+      </c>
+      <c r="L78" t="s">
+        <v>608</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>609</v>
+      </c>
+      <c r="O78" t="s">
+        <v>80</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>601</v>
+      </c>
+      <c r="X78" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>611</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>612</v>
+      </c>
+      <c r="J79" t="s">
+        <v>613</v>
+      </c>
+      <c r="K79" t="s">
+        <v>614</v>
+      </c>
+      <c r="L79" t="s">
+        <v>615</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>617</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>618</v>
+      </c>
+      <c r="J80" t="s">
+        <v>619</v>
+      </c>
+      <c r="K80" t="s">
+        <v>620</v>
+      </c>
+      <c r="L80" t="s">
+        <v>621</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>609</v>
+      </c>
+      <c r="O80" t="s">
+        <v>71</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>622</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>623</v>
+      </c>
+      <c r="J81" t="s">
+        <v>624</v>
+      </c>
+      <c r="K81" t="s">
+        <v>625</v>
+      </c>
+      <c r="L81" t="s">
+        <v>626</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>627</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>628</v>
+      </c>
+      <c r="J82" t="s">
+        <v>629</v>
+      </c>
+      <c r="K82" t="s">
+        <v>630</v>
+      </c>
+      <c r="L82" t="s">
+        <v>631</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>632</v>
+      </c>
+      <c r="O82" t="s">
+        <v>71</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>633</v>
+      </c>
+      <c r="X82" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>636</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>637</v>
+      </c>
+      <c r="J83" t="s">
+        <v>638</v>
+      </c>
+      <c r="K83" t="s">
+        <v>639</v>
+      </c>
+      <c r="L83" t="s">
+        <v>640</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>632</v>
+      </c>
+      <c r="O83" t="s">
+        <v>80</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>641</v>
+      </c>
+      <c r="X83" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>644</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>645</v>
+      </c>
+      <c r="J84" t="s">
+        <v>646</v>
+      </c>
+      <c r="K84" t="s">
+        <v>647</v>
+      </c>
+      <c r="L84" t="s">
+        <v>648</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>632</v>
+      </c>
+      <c r="O84" t="s">
+        <v>80</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>649</v>
+      </c>
+      <c r="X84" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>652</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>653</v>
+      </c>
+      <c r="J85" t="s">
+        <v>654</v>
+      </c>
+      <c r="K85" t="s">
+        <v>655</v>
+      </c>
+      <c r="L85" t="s">
+        <v>656</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>632</v>
+      </c>
+      <c r="O85" t="s">
+        <v>80</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>657</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>658</v>
+      </c>
+      <c r="J86" t="s">
+        <v>659</v>
+      </c>
+      <c r="K86" t="s">
+        <v>660</v>
+      </c>
+      <c r="L86" t="s">
+        <v>661</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>632</v>
+      </c>
+      <c r="O86" t="s">
+        <v>71</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>662</v>
+      </c>
+      <c r="X86" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>665</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>666</v>
+      </c>
+      <c r="J87" t="s">
+        <v>659</v>
+      </c>
+      <c r="K87" t="s">
+        <v>667</v>
+      </c>
+      <c r="L87" t="s">
+        <v>668</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>632</v>
+      </c>
+      <c r="O87" t="s">
+        <v>71</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>669</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>670</v>
+      </c>
+      <c r="J88" t="s">
+        <v>671</v>
+      </c>
+      <c r="K88" t="s">
+        <v>672</v>
+      </c>
+      <c r="L88" t="s">
+        <v>673</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>674</v>
+      </c>
+      <c r="O88" t="s">
+        <v>71</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>675</v>
+      </c>
+      <c r="X88" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>678</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>679</v>
+      </c>
+      <c r="J89" t="s">
+        <v>680</v>
+      </c>
+      <c r="K89" t="s">
+        <v>681</v>
+      </c>
+      <c r="L89" t="s">
+        <v>682</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>674</v>
+      </c>
+      <c r="O89" t="s">
+        <v>264</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>683</v>
+      </c>
+      <c r="X89" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>686</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>687</v>
+      </c>
+      <c r="J90" t="s">
+        <v>688</v>
+      </c>
+      <c r="K90" t="s">
+        <v>689</v>
+      </c>
+      <c r="L90" t="s">
+        <v>690</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>691</v>
+      </c>
+      <c r="O90" t="s">
+        <v>80</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>692</v>
+      </c>
+      <c r="X90" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>695</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>696</v>
+      </c>
+      <c r="J91" t="s">
+        <v>697</v>
+      </c>
+      <c r="K91" t="s">
+        <v>698</v>
+      </c>
+      <c r="L91" t="s">
+        <v>699</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>691</v>
+      </c>
+      <c r="O91" t="s">
+        <v>80</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>700</v>
+      </c>
+      <c r="X91" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>703</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>704</v>
+      </c>
+      <c r="J92" t="s">
+        <v>705</v>
+      </c>
+      <c r="K92" t="s">
+        <v>706</v>
+      </c>
+      <c r="L92" t="s">
+        <v>707</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>708</v>
+      </c>
+      <c r="O92" t="s">
+        <v>264</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>709</v>
+      </c>
+      <c r="X92" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>712</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>713</v>
+      </c>
+      <c r="J93" t="s">
+        <v>714</v>
+      </c>
+      <c r="K93" t="s">
+        <v>715</v>
+      </c>
+      <c r="L93" t="s">
+        <v>716</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>717</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>718</v>
+      </c>
+      <c r="J94" t="s">
+        <v>719</v>
+      </c>
+      <c r="K94" t="s">
+        <v>720</v>
+      </c>
+      <c r="L94" t="s">
+        <v>721</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>708</v>
+      </c>
+      <c r="O94" t="s">
+        <v>56</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>723</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>724</v>
+      </c>
+      <c r="J95" t="s">
+        <v>725</v>
+      </c>
+      <c r="K95" t="s">
+        <v>726</v>
+      </c>
+      <c r="L95" t="s">
+        <v>727</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>728</v>
+      </c>
+      <c r="O95" t="s">
+        <v>80</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>729</v>
+      </c>
+      <c r="X95" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>732</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>733</v>
+      </c>
+      <c r="J96" t="s">
+        <v>734</v>
+      </c>
+      <c r="K96" t="s">
+        <v>735</v>
+      </c>
+      <c r="L96" t="s">
+        <v>736</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>737</v>
+      </c>
+      <c r="O96" t="s">
+        <v>80</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>738</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>739</v>
+      </c>
+      <c r="J97" t="s">
+        <v>740</v>
+      </c>
+      <c r="K97" t="s">
+        <v>741</v>
+      </c>
+      <c r="L97" t="s">
+        <v>742</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>737</v>
+      </c>
+      <c r="O97" t="s">
+        <v>71</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>743</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>744</v>
+      </c>
+      <c r="J98" t="s">
+        <v>745</v>
+      </c>
+      <c r="K98" t="s">
+        <v>746</v>
+      </c>
+      <c r="L98" t="s">
+        <v>747</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>748</v>
+      </c>
+      <c r="O98" t="s">
+        <v>71</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>2</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>749</v>
+      </c>
+      <c r="X98" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>752</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>753</v>
+      </c>
+      <c r="J99" t="s">
+        <v>754</v>
+      </c>
+      <c r="K99" t="s">
+        <v>755</v>
+      </c>
+      <c r="L99" t="s">
+        <v>756</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>757</v>
+      </c>
+      <c r="O99" t="s">
+        <v>80</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>758</v>
+      </c>
+      <c r="X99" t="s">
+        <v>759</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>761</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>762</v>
+      </c>
+      <c r="J100" t="s">
+        <v>754</v>
+      </c>
+      <c r="K100" t="s">
+        <v>763</v>
+      </c>
+      <c r="L100" t="s">
+        <v>764</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>757</v>
+      </c>
+      <c r="O100" t="s">
+        <v>80</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>765</v>
+      </c>
+      <c r="X100" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>768</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>769</v>
+      </c>
+      <c r="J101" t="s">
+        <v>770</v>
+      </c>
+      <c r="K101" t="s">
+        <v>771</v>
+      </c>
+      <c r="L101" t="s">
+        <v>772</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>765</v>
+      </c>
+      <c r="X101" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>774</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>775</v>
+      </c>
+      <c r="J102" t="s">
+        <v>776</v>
+      </c>
+      <c r="K102" t="s">
+        <v>777</v>
+      </c>
+      <c r="L102" t="s">
+        <v>778</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>779</v>
+      </c>
+      <c r="X102" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>782</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>783</v>
+      </c>
+      <c r="J103" t="s">
+        <v>784</v>
+      </c>
+      <c r="K103" t="s">
+        <v>785</v>
+      </c>
+      <c r="L103" t="s">
+        <v>786</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>787</v>
+      </c>
+      <c r="O103" t="s">
+        <v>71</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>2</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>789</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>790</v>
+      </c>
+      <c r="J104" t="s">
+        <v>791</v>
+      </c>
+      <c r="K104" t="s">
+        <v>792</v>
+      </c>
+      <c r="L104" t="s">
+        <v>793</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="s">
+        <v>794</v>
+      </c>
+      <c r="O104" t="s">
+        <v>56</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>796</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>797</v>
+      </c>
+      <c r="J105" t="s">
+        <v>798</v>
+      </c>
+      <c r="K105" t="s">
+        <v>799</v>
+      </c>
+      <c r="L105" t="s">
+        <v>800</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>801</v>
+      </c>
+      <c r="O105" t="s">
+        <v>80</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>803</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>804</v>
+      </c>
+      <c r="J106" t="s">
+        <v>805</v>
+      </c>
+      <c r="K106" t="s">
+        <v>806</v>
+      </c>
+      <c r="L106" t="s">
+        <v>807</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>808</v>
+      </c>
+      <c r="O106" t="s">
+        <v>71</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>809</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>810</v>
+      </c>
+      <c r="J107" t="s">
+        <v>811</v>
+      </c>
+      <c r="K107" t="s">
+        <v>812</v>
+      </c>
+      <c r="L107" t="s">
+        <v>813</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>814</v>
+      </c>
+      <c r="O107" t="s">
+        <v>80</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1</v>
+      </c>
+      <c r="S107" t="n">
+        <v>2</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>816</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>817</v>
+      </c>
+      <c r="J108" t="s">
+        <v>818</v>
+      </c>
+      <c r="K108" t="s">
+        <v>819</v>
+      </c>
+      <c r="L108" t="s">
+        <v>820</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>821</v>
+      </c>
+      <c r="O108" t="s">
+        <v>71</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>823</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>824</v>
+      </c>
+      <c r="J109" t="s">
+        <v>825</v>
+      </c>
+      <c r="K109" t="s">
+        <v>826</v>
+      </c>
+      <c r="L109" t="s">
+        <v>827</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>828</v>
+      </c>
+      <c r="O109" t="s">
+        <v>63</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>830</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>831</v>
+      </c>
+      <c r="J110" t="s">
+        <v>832</v>
+      </c>
+      <c r="K110" t="s">
+        <v>833</v>
+      </c>
+      <c r="L110" t="s">
+        <v>834</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>835</v>
+      </c>
+      <c r="O110" t="s">
+        <v>80</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>836</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>837</v>
+      </c>
+      <c r="J111" t="s">
+        <v>838</v>
+      </c>
+      <c r="K111" t="s">
+        <v>839</v>
+      </c>
+      <c r="L111" t="s">
+        <v>840</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>841</v>
+      </c>
+      <c r="O111" t="s">
+        <v>80</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>843</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>844</v>
+      </c>
+      <c r="J112" t="s">
+        <v>845</v>
+      </c>
+      <c r="K112" t="s">
+        <v>846</v>
+      </c>
+      <c r="L112" t="s">
+        <v>847</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>54863</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>849</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>850</v>
+      </c>
+      <c r="J113" t="s">
+        <v>851</v>
+      </c>
+      <c r="K113" t="s">
+        <v>852</v>
+      </c>
+      <c r="L113" t="s">
+        <v>853</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>854</v>
+      </c>
+      <c r="O113" t="s">
+        <v>71</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
